--- a/Simple_XLS_Importer/data/NKT-VGGT16/2017-NKT-VGGT-16.3.xlsx
+++ b/Simple_XLS_Importer/data/NKT-VGGT16/2017-NKT-VGGT-16.3.xlsx
@@ -6409,8 +6409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J960"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A50" sqref="A1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A141" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D142" sqref="D142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -8922,8 +8922,8 @@
       <c r="C142" s="22">
         <v>2017</v>
       </c>
-      <c r="D142" s="30" t="s">
-        <v>40</v>
+      <c r="D142" s="31" t="s">
+        <v>39</v>
       </c>
       <c r="E142" s="41" t="s">
         <v>129</v>

--- a/Simple_XLS_Importer/data/NKT-VGGT16/2017-NKT-VGGT-16.3.xlsx
+++ b/Simple_XLS_Importer/data/NKT-VGGT16/2017-NKT-VGGT-16.3.xlsx
@@ -16,12 +16,12 @@
     <sheet name="metadata" sheetId="4" r:id="rId2"/>
     <sheet name="Legend" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1839" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1839" uniqueCount="423">
   <si>
     <t>Bangladesh</t>
   </si>
@@ -308,9 +308,6 @@
     <t>Section 18 of the Public Land Ordinance (1960) states that "the Court shall take into consideration the following matters and no others, namely...(e) if, in consequence of the acquisition, he is compelled to change his residence or place of business, the reasonable expenses, if any, incidental to such change."</t>
   </si>
   <si>
-    <t>Article 242 of the Land Act, 1930 (amended 2006) provides that “where the agricultural improvements on a compulsorily purchased land are also compulsorily purchased and where the yields thereof are due to ripen within one year from the date of compulsory purchase the compensation for such improvements shall be based on the assessed value of the ripened yields. Where the yields thereof are due to ripen more than one year from the date of compulsory purchase the compensation for such improvements shall be based on the expenses of their planting and cultivation at current value.” The answer is partial because compensation, based on economic activity, is limited to agricultural output, but not other types of economic activity.</t>
-  </si>
-  <si>
     <t>The law states "If the owner of, or the person who legally takes possession of, immovable property to be expropriated, lives or runs business or other legally works on the immovable property to be expropriated and such person may be susceptible to damage on the ground that he has to leave that immovable property, compensation for such damage shall also be determined.” (Section 21(5), Immovable Property Expropriation Act, 1987).</t>
   </si>
   <si>
@@ -455,9 +452,6 @@
     <t>Article 11 of Decree on the Compensation and Resettlement of the Development Project, 2005 provides that "During planning, construction and operation periods, project owners shall consider local cultural and religious properties, practices and beliefs."</t>
   </si>
   <si>
-    <t>Article 246 of the Land Act (1930) states "Where graves and other commemorative objects on a compulsorily purchased land have to be removed elsewhere, the removal fee payable therefor shall be the same as that payable for the removal of improvements therefrom. The applicant requiring the use of the land to be compulsorily purchased shall have all ownerless graves thereon safely removed and re-interred elsewhere, and make a detailed statement in tabulated form there-anent and submit it to the competent Municipal or County (City) Land Office for record."</t>
-  </si>
-  <si>
     <t>Section 151 of the Land Act, 2007 states "there shall be a Property Assessment and Valuation Agency established under the Ministry of Finance to valuate and fix the value of land and any other collateral property that may be acquired. The valuation of the land and property shall consider the total registered area, registered land category, its current use, location in relation to accessibility to vehicular road, immovable property, local market value, and other elements such as scenic beauty, cultural and historical factors, where applicable."</t>
   </si>
   <si>
@@ -560,9 +554,6 @@
     <t>The laws assessed do not provide affected populations with a right to negotiate compensation levels.</t>
   </si>
   <si>
-    <t>The Land Act, 1930 (amended 2006) does not provide affected persons with a right to negotiate compensation levels. However, the answer is partial because Indigenous populations in Taiwan are granted the right to give free, prior, and informed consent (FPIC) prior to acquisition by governments or outsiders. Article 21 of the Indigenous Peoples Basic Law, 2005 establishes "In consultation with Indigenous Peoples, the Government or any private entity shall obtain their free and prior informed consent (FPIC) and/or maximum participation, as well as share with the concerned Indigenous Peoples benefits generated from exploration, development, exploitation and utilization of natural resources and lands within Indigenous people’s Regions, as well as ecological and academic researches thereon. In the event that any government and/or any enactments and rules of law may impose such restrictions on Indigenous Peoples as to limit their utilization of their lands and natural resources, the Government shall first consult with Indigenous Peoples concerned or Indigenous Persons concerned and obtain their free and prior informed consent (FPIC). A fixed proportion of revenues generated under specified circumstances described in the preceding two paragraphs shall be duly allocated to Indigenous Peoples under the Indigenous Peoples’ Development Funds as returns on investment and/or compensations." Article 22 states "the Government shall obtain free and prior informed consent (FPIC) from the affected Indigenous Peoples on the site and formulate a common management mechanism prior to establishing national parks, national scenery, forest district, ecological protection zone, recreation zone and other resource management institutions. Rules and regulations governing aforesaid policies, projects, and activities shall be duly prescribed by the concerned Central Competent Authorities in collaboration with the Central Competent Indigenous Affairs Authority."</t>
-  </si>
-  <si>
     <t>Although the laws do not provide all affected populations with a right to negotiate compensation levels, Law 445 (Law of Communal Property Regime of the Indigenous Peoples and Ethnic Communities of the Autonomous Regions of the Atlantic Coast of Nicaragua and of the Rivers Bocay, Coco, Indio and Maiz), requires consultation and negotiation with communities whenever the government grants a concession to a third party for the purpose of natural resource extraction. Article 16 of Law 445 provides that "in cases regarding the granting of concessions and contracts for the rational exploitation of the resources found in the subsoil of the ethnic and indigenous communities lands, by the State, the corresponding Regional Council shall issue the resolution upon consultation with the indigenous communities on whose lands the natural resources are located. As a result of the consultation, the communities shall respond positively or negatively to the request of the Autonomous Regional Council". Article 17 further states "In the cases where the community is opposed to the performance of the project, the granting of the concession, or the contract for exploitation, the Regional Council shall initiate a negotiation process within the community... Article 18 states "when the consultation process is completed for the execution of the project or the granting of the concession or contract, the community, the respective Autonomous Regional Council and the interested entity or company shall sign an agreement specifying the technical terms and the participation in the economic benefits of the community." Article 2 of Law 445 defines "consultation" as "the expression and delivery of the technical information regarding the operation or project, followed by a process of discussion and decision making. The communities shall have interpreters to translate everything that is said during said process into their own languages and shall be assisted by technicians, experts on the subject matter. Both the interpreter as well as the technician, shall be chosen by communities."</t>
   </si>
   <si>
@@ -587,9 +578,6 @@
     <t>Section 75(2) of the 2009 Land Act provides that "the compensation shall be in cash or in kind or both according to the agreement."</t>
   </si>
   <si>
-    <t>Indigenous populations have right to seek alternative land in the event of relocation, but the Land Act 1930 (amended 2005) does not grant this right. Article 32 of Indigenous People's Basic Law, 2005 provides "The Government shall not displace or relocate any Indigenous Person from his or her land, except in cases of imminent and obvious danger. In cases of displacement or relocation of Indigenous Persons, the same shall be properly accommodated and compensated for the losses suffered as a result of forced displacement or relocation as is referred to in the preceding paragraph."</t>
-  </si>
-  <si>
     <t>Section 10 of the Land Acquisition Act, 1970 requires that “where any property is acquired by the President under this Act the Minister shall on behalf of the Government pay in respect thereof, out of moneys provided for the purpose by Parliament, such compensation in money as may be agreed or, in default of agreement, determined in accordance with the provisions of this Act: Provided that where the property acquired is land the President may, with the consent of the person entitled to compensation, make to such person, in lieu of or in addition to any compensation payable under this section, a grant of other land not exceeding in value the value of the land acquired, for an estate not exceeding the estate acquired and upon the same terms and conditions, as far as may be practicable, as those under which the land acquired was held.”</t>
   </si>
   <si>
@@ -659,9 +647,6 @@
     <t>Section 29(7) of the Land Use Act, 1978 states that “the title of the holder of a right of occupancy shall be extinguished on receipt by him of a notice given under subsection (6) of this section or on such later date as may be stated in the notice (Land Use Act).</t>
   </si>
   <si>
-    <t>Article 233 of the Land Act states that “compensation for the value of a compulsorily purchased land and other compensations therefore shall be paid within 15 days after the expiration of the period of the public announcement.” Article 234 states that “after all the compensations for a compulsorily purchased land have been duly paid, the Municipality or County (City) Land Office may fix a time limit within which the said land shall be vacated by the original oblige or user thereof.” The Land Act, 1930 (amended 2006)</t>
-  </si>
-  <si>
     <t>Section 15 permits the President to enter into possession of any land before compensation is paid; however, the Minister must pay interest at a rate of six percent per annum from the date when possession is taken. The Minister can pay compensation “at any time” after the publication of the acquisition notice in the Gazette. Land Acquisition Act, 1967 (Sec. 14(2)).</t>
   </si>
   <si>
@@ -737,9 +722,6 @@
     <t>Section 10 of the Acquisition of Property Act, 1961 (No. 10 of 1961) provides that the Board of Assessment shall rule on disputes regarding compensation claim, but there is not clear provision which grants affected persons the right to challenge compensation decisions in court.</t>
   </si>
   <si>
-    <t>Article 247 states "In case any objection should be raised as to the amount of compensation fixed according to the provisions of Article 239, 241, or 242, the competent Municipal or County (City) Land Office shall refer the matter to the Committee on Standard Land Values for decision." The answer is "partial"" because it is not clear that the Committee on Standard Land Values is as independent/impartial as a court.</t>
-  </si>
-  <si>
     <t>Section 13 of the Land Acquisition Act 1967 provides that affected populations can challenge compensation decisions in the High Court.</t>
   </si>
   <si>
@@ -936,9 +918,6 @@
   </si>
   <si>
     <t>Section 12(1)(d) of the Land Acquisition Act, 1994 provides that "where land is, and but for the compulsory acquisition would continue to be, devoted to a purpose of such a nature that there is no general demand or market for land for that purpose, the compensation may, if a Judge is satisfied that reinstatement in some other place is bona fide intended, be assessed on the basis of the reasonable cost of equivalent reinstatement." The laws assessed do not establish alternatives to the fair market value approach to calculating compensation in cases where land markets are weak or non-existent.</t>
-  </si>
-  <si>
-    <t>Article 239 of the Land Act, 1930 (amended 2006) states "The compensation for land value payable for the land to be compulsorily purchased shall be determined according to the following provisions: (1) Where the value of the land to be compulsorily purchased has been assessed according to Act and the ownership thereof has undergone no transfer, the compensation therefor shall be based on its statutory value. (2) Where the value of the land to be compulsorily purchased has been assessed according to Act and the ownership thereof has been transferred, the compensation therefor shall be based on its value at the last transfer. (3) Where the value of the land to be compulsorily purchased has not been assessed according to Act, the compensation therefor shall be based on the land value as assessed by the competent Municipal or County (City) Land Office. Article 240 states " The compensation for the value of land reserved for compulsory purchase shall be based on its value at the time of compulsory purchase." The laws assessed do not establish alternatives to the fair market value approach to calculating compensation in cases where land markets are weak or non-existent.</t>
   </si>
   <si>
     <t>Section 15(1) of the Acquisition of Property Act 1961 (No. 10 of 1961) provides that the Board shall take into consideration the market value of the property at the date of the service of the notice of the acquisition. However, the laws assessed do not establish alternatives to the fair market value approach to calculating compensation in cases where land markets are weak or non-existent.</t>
@@ -1302,9 +1281,6 @@
     <t>Article 69(d) provides that "in case the land users in the recovered area do not cooperate with the organization in charge of compensation and ground clearance for investigation, survey, measurement and inventory, the commune-level People's Committee and Vietnam Fatherland Front in the locality and the organization in charge of compensation and ground clearance shall mobilize and persuade the land users to cooperate..." Article 69(d) further provides that "if the land users still do not cooperate with the organization in charge of compensation and ground clearance within 10 days...the chairperson...shall issue a decision on compulsory inventory. Land users whose land is to be recovered shall comply with that decision. In case the land users do not comply with the decision, the chairperson of the district-level People's Committee shall issue a decision on enforcement of the decision on compulsory inventory and organize the enforcement..."</t>
   </si>
   <si>
-    <t>Article 241 of the Land Act 1930 (Amended 2006) states 'The compensation for improvements on land that are compulsorily purchased shall be based on their value as assessed by the competent Municipal or County (City) Land Office." Article 242 states "Where the agricultural improvements on a compulsorily purchased land are also compulsorily purchased and where the yields thereof are due to ripen within one year from the date of compulsory purchase the compensation for such improvements shall be based on the assessed value of the ripened yields. Where the yields thereof are due to ripen more than one year from the date of compulsory purchase the compensation for such improvements shall be based on the expenses of their planting and cultivation at current value.</t>
-  </si>
-  <si>
     <t>Section 12(1)(e)(iv) Land Acquisition Act (Cap. 58:01) states that no allowance should be made on account of "any outlay or improvement on such land which has been made, commenced or effected before the date of the taking of possession of the land under section 4(1) or the date of publication in the Gazette of the declaration made under section 5(3), whichever is the earlier, with the intention of enhancing the compensation to be awarded therefor in the event or with a view of such land being required, for public purposes." This provision implies that improvements made without the intention of enhancing compensation can be accounted for in the assessment of compensation. Sections 12(5)-(6) state "For the purposes of this section there shall be a presumption that an improvement to land was made at the time reflected for that improvement in the assessment rolls maintained in accordance with the Lands and Buildings Taxes Act. (6) In a dispute as to the amount of compensation payable, the burden of proving that an improvement was not made at the time referred to in subsection (5) is on the person interested."</t>
   </si>
   <si>
@@ -1333,6 +1309,27 @@
   </si>
   <si>
     <t>Section 151 of the Land Act, 2007 indicates that valuers must consider the land's "current use", which presumably could include economic activities; however, the law is not entirely clear on whether compensation for economic activities must be provided in every case. For this reason, the score for this indicator is "partial".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Article 30 of the Land Expropriation Act, 2000 provides "the value of expropriated land shall be compensated based on its current market value. The value of land reserved for public facilities in the urban planning area shall be compensated based on the average market value of its adjoining lands not reserved for public facilities.The market value referred to in the preceding paragraph shall be forwarded by the municipal or county (city) competent authority to the Land Value Evaluation Committee for determination. Municipal or county (city) competent authorities should constantly survey the market values within their jurisdiction and ask its Land Value Evaluation Committee to determine the extent of change in the market values of expropriated lands once every six months as basis for adjusting the compensation for expropriation. The market value survey and assessment procedure, method and matters of compliance therefor with respect to the determination of market values mentioned in the preceding three paragraphs shall be prescribed by the Central Competent Authority."  </t>
+  </si>
+  <si>
+    <t>Article 33 of the Land Expropriation Act, 2000 provides  "If the expropriated land or land improvement was originally provided for legal business operations, the loss sustained due to the cessation of business or shrinkage of business scale as a result of land or land improvement expropriation shall be compensated."</t>
+  </si>
+  <si>
+    <t>Article 31 of the Land Expropriation Act, 2000 states "The compensation for expropriated constructional improvements shall be determined based on their replacement cost at the time of expropriation.The compensation for agricultural improvements shall be determined based on the value of the ripened crops thereof, provided the crops are due to ripen in less than one year from the date of expropriation, or based on the cost incurred in their planting and cultivation with reference to their current value, provided the crops are due to ripen in more than one year from the date of expropriation. The compensation for constructional and agricultural improvements shall be jointly determined by the municipal or county (city) competent authority and the relevant authorities. The criteria for the assessment of compensation for constructional and agricultural improvements shall be prescribed by the Central Competent Authority."</t>
+  </si>
+  <si>
+    <t>Article 11 of the Land Expropriation Act, 2000 provides "Prior to applying for the expropriation of lands or land improvements, a land use applicant should negotiate with the owners or by other means to reach an agreement on the price of acquisition, unless there is an urgent need due to public security to use land for an undertaking of national defense, communication or transportation or water conservancy where no such agreement could be reached with land or land improvement owners due to time constraint. If the owners refuse to participate in the negotiation or the land use applicant and owners fail to reach an agreement after negotiation and the applicant is unable to acquire the lands or land improvements by other means, the applicant may apply for expropriation according to this Act." Article 21 of the Indigenous Peoples Basic Law, 2005 establishes "In consultation with Indigenous Peoples, the Government or any private entity shall obtain their free and prior informed consent (FPIC) and/or maximum participation, as well as share with the concerned Indigenous Peoples benefits generated from exploration, development, exploitation and utilization of natural resources and lands within Indigenous people’s Regions, as well as ecological and academic researches thereon. In the event that any government and/or any enactments and rules of law may impose such restrictions on Indigenous Peoples as to limit their utilization of their lands and natural resources, the Government shall first consult with Indigenous Peoples concerned or Indigenous Persons concerned and obtain their free and prior informed consent (FPIC). A fixed proportion of revenues generated under specified circumstances described in the preceding two paragraphs shall be duly allocated to Indigenous Peoples under the Indigenous Peoples’ Development Funds as returns on investment and/or compensations." Article 22 states "the Government shall obtain free and prior informed consent (FPIC) from the affected Indigenous Peoples on the site and formulate a common management mechanism prior to establishing national parks, national scenery, forest district, ecological protection zone, recreation zone and other resource management institutions. Rules and regulations governing aforesaid policies, projects, and activities shall be duly prescribed by the concerned Central Competent Authorities in collaboration with the Central Competent Indigenous Affairs Authority."</t>
+  </si>
+  <si>
+    <t>Article 20 of the Land Expropriation Act, 2000 provides that "Compensation for the expropriated land or land improvements shall be paid within fifteen (15) days after the expiration of the public announcement period. The preceding provision does not apply to additional compensation under Paragraph 5 of Article 22 herein."</t>
+  </si>
+  <si>
+    <t>Article 22 of the Land Expropriation Act, 2000 provides "If any person with an interest in the expropriated land or land improvement objects to the matters being publicly announced... he shall raise the objection by submitting a written statement to the municipal or county (city) competent authority within the announcement period. Upon receiving such an objection, the municipal or county (city) competent authority shall forthwith investigate the matter and notify the interested person of the findings and actions taken in writing...In case the interested person disagrees with the decision referred to in the preceding paragraph, the municipal or county (city) competent authority may refer the matter to the Land Value Evaluation Committee for re-consideration. If the interested person still disagrees with the result of reconsideration, he may file for administrative remedy according to law." Article 46 of the Land Expropriation Act, 2000 provides that "any failure to effect payment for the difference in land value referred to in Subparagraph 1 of the preceding paragraph after the expiration of the prescribed time limit shall be brought to the court for compulsory enforcement."</t>
+  </si>
+  <si>
+    <t>Indigenous populations have right to seek alternative land in the event of relocation, but the Land Act 1930 (amended 2005) does not grant this right. Article 32 of Indigenous People's Basic Law, 2005 provides "The Government shall not displace or relocate any Indigenous Person from his or her land, except in cases of imminent and obvious danger. In cases of displacement or relocation of Indigenous Persons, the same shall be properly accommodated and compensated for the losses suffered as a result of forced displacement or relocation as is referred to in the preceding paragraph." Furthermore, Article 34 of the Land Expropriation Act, 2000 provides "If there are low-income households or medium-low income households with facts of inhabitation one year before the public announcement of expropriation, such household members become homeless or are in similar situation due to the expropriation of the constructional improvements they live in, and their situations are found true by the social workers of the municipal or county (city) government, the land use applicant shall draft a resettlement plan and include it in the expropriation plan. The resettlement plan referred to in the preceding paragraph include housing placement."</t>
   </si>
 </sst>
 </file>
@@ -3783,7 +3780,7 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3852,6 +3849,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6409,8 +6413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J960"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A141" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D142" sqref="D142"/>
+    <sheetView tabSelected="1" topLeftCell="A277" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E294" activeCellId="1" sqref="E294 E294"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6444,7 +6448,7 @@
     </row>
     <row r="2" spans="1:10" s="24" customFormat="1" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B2" s="33" t="s">
         <v>50</v>
@@ -6456,7 +6460,7 @@
         <v>40</v>
       </c>
       <c r="E2" s="38" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -6466,7 +6470,7 @@
     </row>
     <row r="3" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B3" s="33" t="s">
         <v>6</v>
@@ -6478,13 +6482,13 @@
         <v>40</v>
       </c>
       <c r="E3" s="38" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>51</v>
@@ -6496,13 +6500,13 @@
         <v>40</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B5" s="33" t="s">
         <v>0</v>
@@ -6514,13 +6518,13 @@
         <v>40</v>
       </c>
       <c r="E5" s="38" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B6" s="33" t="s">
         <v>52</v>
@@ -6532,13 +6536,13 @@
         <v>38</v>
       </c>
       <c r="E6" s="38" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B7" s="33" t="s">
         <v>53</v>
@@ -6556,7 +6560,7 @@
     </row>
     <row r="8" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B8" s="33" t="s">
         <v>54</v>
@@ -6568,13 +6572,13 @@
         <v>40</v>
       </c>
       <c r="E8" s="38" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B9" s="33" t="s">
         <v>7</v>
@@ -6586,13 +6590,13 @@
         <v>40</v>
       </c>
       <c r="E9" s="38" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B10" s="33" t="s">
         <v>8</v>
@@ -6604,13 +6608,13 @@
         <v>40</v>
       </c>
       <c r="E10" s="38" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B11" s="33" t="s">
         <v>9</v>
@@ -6628,7 +6632,7 @@
     </row>
     <row r="12" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B12" s="33" t="s">
         <v>10</v>
@@ -6640,13 +6644,13 @@
         <v>40</v>
       </c>
       <c r="E12" s="38" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B13" s="33" t="s">
         <v>55</v>
@@ -6658,13 +6662,13 @@
         <v>40</v>
       </c>
       <c r="E13" s="38" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B14" s="33" t="s">
         <v>56</v>
@@ -6676,13 +6680,13 @@
         <v>40</v>
       </c>
       <c r="E14" s="38" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B15" s="33" t="s">
         <v>11</v>
@@ -6700,7 +6704,7 @@
     </row>
     <row r="16" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B16" s="33" t="s">
         <v>34</v>
@@ -6712,13 +6716,13 @@
         <v>38</v>
       </c>
       <c r="E16" s="38" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B17" s="33" t="s">
         <v>33</v>
@@ -6730,13 +6734,13 @@
         <v>40</v>
       </c>
       <c r="E17" s="38" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B18" s="33" t="s">
         <v>58</v>
@@ -6748,13 +6752,13 @@
         <v>40</v>
       </c>
       <c r="E18" s="38" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B19" s="33" t="s">
         <v>13</v>
@@ -6766,13 +6770,13 @@
         <v>76</v>
       </c>
       <c r="E19" s="38" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B20" s="33" t="s">
         <v>12</v>
@@ -6784,13 +6788,13 @@
         <v>40</v>
       </c>
       <c r="E20" s="38" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B21" s="33" t="s">
         <v>14</v>
@@ -6802,12 +6806,12 @@
         <v>40</v>
       </c>
       <c r="E21" s="38" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="21" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B22" s="33" t="s">
         <v>32</v>
@@ -6825,7 +6829,7 @@
     </row>
     <row r="23" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="21" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B23" s="33" t="s">
         <v>59</v>
@@ -6837,12 +6841,12 @@
         <v>38</v>
       </c>
       <c r="E23" s="38" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B24" s="33" t="s">
         <v>60</v>
@@ -6854,13 +6858,13 @@
         <v>76</v>
       </c>
       <c r="E24" s="38" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="21" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B25" s="33" t="s">
         <v>15</v>
@@ -6872,13 +6876,13 @@
         <v>40</v>
       </c>
       <c r="E25" s="38" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="21" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B26" s="33" t="s">
         <v>61</v>
@@ -6890,13 +6894,13 @@
         <v>40</v>
       </c>
       <c r="E26" s="38" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B27" s="33" t="s">
         <v>16</v>
@@ -6908,13 +6912,13 @@
         <v>40</v>
       </c>
       <c r="E27" s="38" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B28" s="33" t="s">
         <v>17</v>
@@ -6932,7 +6936,7 @@
     </row>
     <row r="29" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="21" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B29" s="33" t="s">
         <v>63</v>
@@ -6944,13 +6948,13 @@
         <v>40</v>
       </c>
       <c r="E29" s="38" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="21" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B30" s="33" t="s">
         <v>64</v>
@@ -6962,13 +6966,13 @@
         <v>40</v>
       </c>
       <c r="E30" s="38" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="21" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B31" s="33" t="s">
         <v>18</v>
@@ -6980,13 +6984,13 @@
         <v>40</v>
       </c>
       <c r="E31" s="38" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="21" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B32" s="33" t="s">
         <v>65</v>
@@ -6998,13 +7002,13 @@
         <v>40</v>
       </c>
       <c r="E32" s="38" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="21" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B33" s="33" t="s">
         <v>19</v>
@@ -7016,13 +7020,13 @@
         <v>40</v>
       </c>
       <c r="E33" s="38" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="21" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B34" s="33" t="s">
         <v>66</v>
@@ -7034,13 +7038,13 @@
         <v>40</v>
       </c>
       <c r="E34" s="38" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="21" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B35" s="33" t="s">
         <v>67</v>
@@ -7052,13 +7056,13 @@
         <v>40</v>
       </c>
       <c r="E35" s="38" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="F35" s="4"/>
     </row>
     <row r="36" spans="1:6" s="24" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A36" s="21" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B36" s="33" t="s">
         <v>68</v>
@@ -7070,13 +7074,13 @@
         <v>40</v>
       </c>
       <c r="E36" s="38" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="F36" s="4"/>
     </row>
     <row r="37" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="21" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B37" s="33" t="s">
         <v>20</v>
@@ -7088,13 +7092,13 @@
         <v>40</v>
       </c>
       <c r="E37" s="38" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="F37" s="4"/>
     </row>
     <row r="38" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="21" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B38" s="33" t="s">
         <v>21</v>
@@ -7106,13 +7110,13 @@
         <v>40</v>
       </c>
       <c r="E38" s="38" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="F38" s="2"/>
     </row>
     <row r="39" spans="1:6" s="24" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A39" s="21" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B39" s="33" t="s">
         <v>22</v>
@@ -7124,13 +7128,13 @@
         <v>38</v>
       </c>
       <c r="E39" s="38" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="F39" s="2"/>
     </row>
     <row r="40" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="21" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B40" s="33" t="s">
         <v>31</v>
@@ -7142,13 +7146,13 @@
         <v>40</v>
       </c>
       <c r="E40" s="38" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="F40" s="2"/>
     </row>
     <row r="41" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="21" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B41" s="33" t="s">
         <v>69</v>
@@ -7160,13 +7164,13 @@
         <v>38</v>
       </c>
       <c r="E41" s="38" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="F41" s="2"/>
     </row>
     <row r="42" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="21" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B42" s="33" t="s">
         <v>23</v>
@@ -7178,16 +7182,16 @@
         <v>40</v>
       </c>
       <c r="E42" s="38" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="F42" s="2"/>
     </row>
     <row r="43" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="21" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B43" s="33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C43" s="27">
         <v>2017</v>
@@ -7196,12 +7200,12 @@
         <v>40</v>
       </c>
       <c r="E43" s="38" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
     </row>
     <row r="44" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="21" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B44" s="33" t="s">
         <v>24</v>
@@ -7212,14 +7216,14 @@
       <c r="D44" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="E44" s="38" t="s">
-        <v>305</v>
+      <c r="E44" s="42" t="s">
+        <v>416</v>
       </c>
       <c r="F44" s="2"/>
     </row>
     <row r="45" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="21" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B45" s="33" t="s">
         <v>25</v>
@@ -7237,7 +7241,7 @@
     </row>
     <row r="46" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="21" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B46" s="33" t="s">
         <v>26</v>
@@ -7249,13 +7253,13 @@
         <v>40</v>
       </c>
       <c r="E46" s="38" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="F46" s="2"/>
     </row>
     <row r="47" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="21" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B47" s="33" t="s">
         <v>71</v>
@@ -7267,13 +7271,13 @@
         <v>40</v>
       </c>
       <c r="E47" s="38" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="F47" s="2"/>
     </row>
     <row r="48" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="21" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B48" s="33" t="s">
         <v>27</v>
@@ -7285,13 +7289,13 @@
         <v>40</v>
       </c>
       <c r="E48" s="38" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="F48" s="2"/>
     </row>
     <row r="49" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="21" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B49" s="33" t="s">
         <v>28</v>
@@ -7303,13 +7307,13 @@
         <v>40</v>
       </c>
       <c r="E49" s="38" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="F49" s="2"/>
     </row>
     <row r="50" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="21" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B50" s="33" t="s">
         <v>29</v>
@@ -7321,13 +7325,13 @@
         <v>40</v>
       </c>
       <c r="E50" s="38" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="F50" s="2"/>
     </row>
     <row r="51" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="21" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B51" s="33" t="s">
         <v>30</v>
@@ -7339,12 +7343,12 @@
         <v>40</v>
       </c>
       <c r="E51" s="38" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="52" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="21" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B52" s="33" t="s">
         <v>50</v>
@@ -7361,7 +7365,7 @@
     </row>
     <row r="53" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="21" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B53" s="33" t="s">
         <v>6</v>
@@ -7373,12 +7377,12 @@
         <v>40</v>
       </c>
       <c r="E53" s="38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="54" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="21" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B54" s="33" t="s">
         <v>51</v>
@@ -7390,12 +7394,12 @@
         <v>40</v>
       </c>
       <c r="E54" s="38" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="55" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="21" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B55" s="33" t="s">
         <v>0</v>
@@ -7407,12 +7411,12 @@
         <v>38</v>
       </c>
       <c r="E55" s="38" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="56" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="21" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B56" s="33" t="s">
         <v>52</v>
@@ -7424,12 +7428,12 @@
         <v>38</v>
       </c>
       <c r="E56" s="38" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="57" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="21" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B57" s="33" t="s">
         <v>53</v>
@@ -7441,12 +7445,12 @@
         <v>39</v>
       </c>
       <c r="E57" s="38" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
     </row>
     <row r="58" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="21" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B58" s="33" t="s">
         <v>54</v>
@@ -7458,12 +7462,12 @@
         <v>38</v>
       </c>
       <c r="E58" s="38" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
     </row>
     <row r="59" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="21" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B59" s="33" t="s">
         <v>7</v>
@@ -7475,12 +7479,12 @@
         <v>38</v>
       </c>
       <c r="E59" s="38" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="60" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="21" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B60" s="33" t="s">
         <v>8</v>
@@ -7492,12 +7496,12 @@
         <v>76</v>
       </c>
       <c r="E60" s="38" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="61" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="21" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B61" s="33" t="s">
         <v>9</v>
@@ -7509,12 +7513,12 @@
         <v>38</v>
       </c>
       <c r="E61" s="38" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="62" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="21" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B62" s="33" t="s">
         <v>10</v>
@@ -7526,12 +7530,12 @@
         <v>38</v>
       </c>
       <c r="E62" s="38" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
     </row>
     <row r="63" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="21" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B63" s="33" t="s">
         <v>55</v>
@@ -7548,7 +7552,7 @@
     </row>
     <row r="64" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="21" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B64" s="33" t="s">
         <v>56</v>
@@ -7560,12 +7564,12 @@
         <v>40</v>
       </c>
       <c r="E64" s="38" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
     </row>
     <row r="65" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="21" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B65" s="33" t="s">
         <v>11</v>
@@ -7577,12 +7581,12 @@
         <v>76</v>
       </c>
       <c r="E65" s="38" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="66" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="21" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B66" s="33" t="s">
         <v>34</v>
@@ -7594,12 +7598,12 @@
         <v>76</v>
       </c>
       <c r="E66" s="38" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="67" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="21" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B67" s="33" t="s">
         <v>33</v>
@@ -7611,12 +7615,12 @@
         <v>38</v>
       </c>
       <c r="E67" s="38" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="68" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="21" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B68" s="33" t="s">
         <v>58</v>
@@ -7633,7 +7637,7 @@
     </row>
     <row r="69" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="21" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B69" s="33" t="s">
         <v>13</v>
@@ -7645,12 +7649,12 @@
         <v>38</v>
       </c>
       <c r="E69" s="38" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="70" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="21" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B70" s="33" t="s">
         <v>12</v>
@@ -7662,12 +7666,12 @@
         <v>38</v>
       </c>
       <c r="E70" s="38" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="71" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="21" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B71" s="33" t="s">
         <v>14</v>
@@ -7679,12 +7683,12 @@
         <v>38</v>
       </c>
       <c r="E71" s="38" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
     </row>
     <row r="72" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="21" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B72" s="33" t="s">
         <v>32</v>
@@ -7701,7 +7705,7 @@
     </row>
     <row r="73" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="21" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B73" s="33" t="s">
         <v>59</v>
@@ -7713,12 +7717,12 @@
         <v>38</v>
       </c>
       <c r="E73" s="38" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="74" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="21" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B74" s="33" t="s">
         <v>60</v>
@@ -7735,7 +7739,7 @@
     </row>
     <row r="75" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="21" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B75" s="33" t="s">
         <v>15</v>
@@ -7752,7 +7756,7 @@
     </row>
     <row r="76" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="21" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B76" s="33" t="s">
         <v>61</v>
@@ -7769,7 +7773,7 @@
     </row>
     <row r="77" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="21" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B77" s="33" t="s">
         <v>16</v>
@@ -7786,7 +7790,7 @@
     </row>
     <row r="78" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="21" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B78" s="33" t="s">
         <v>17</v>
@@ -7798,12 +7802,12 @@
         <v>76</v>
       </c>
       <c r="E78" s="41" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="79" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="21" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B79" s="33" t="s">
         <v>63</v>
@@ -7815,12 +7819,12 @@
         <v>38</v>
       </c>
       <c r="E79" s="38" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="80" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="21" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B80" s="33" t="s">
         <v>64</v>
@@ -7832,12 +7836,12 @@
         <v>40</v>
       </c>
       <c r="E80" s="38" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
     </row>
     <row r="81" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="21" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B81" s="33" t="s">
         <v>18</v>
@@ -7854,7 +7858,7 @@
     </row>
     <row r="82" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="21" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B82" s="33" t="s">
         <v>65</v>
@@ -7866,12 +7870,12 @@
         <v>38</v>
       </c>
       <c r="E82" s="38" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
     </row>
     <row r="83" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="21" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B83" s="33" t="s">
         <v>19</v>
@@ -7883,12 +7887,12 @@
         <v>40</v>
       </c>
       <c r="E83" s="38" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="84" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="21" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B84" s="33" t="s">
         <v>66</v>
@@ -7905,7 +7909,7 @@
     </row>
     <row r="85" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="21" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B85" s="33" t="s">
         <v>67</v>
@@ -7917,12 +7921,12 @@
         <v>40</v>
       </c>
       <c r="E85" s="38" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="86" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="21" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B86" s="33" t="s">
         <v>68</v>
@@ -7934,12 +7938,12 @@
         <v>38</v>
       </c>
       <c r="E86" s="38" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="87" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="21" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B87" s="33" t="s">
         <v>20</v>
@@ -7956,7 +7960,7 @@
     </row>
     <row r="88" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="21" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B88" s="33" t="s">
         <v>21</v>
@@ -7973,7 +7977,7 @@
     </row>
     <row r="89" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="21" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B89" s="33" t="s">
         <v>22</v>
@@ -7990,7 +7994,7 @@
     </row>
     <row r="90" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="21" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B90" s="33" t="s">
         <v>31</v>
@@ -8007,7 +8011,7 @@
     </row>
     <row r="91" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="21" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B91" s="33" t="s">
         <v>69</v>
@@ -8024,7 +8028,7 @@
     </row>
     <row r="92" spans="1:5" s="24" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A92" s="21" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B92" s="33" t="s">
         <v>23</v>
@@ -8036,15 +8040,15 @@
         <v>38</v>
       </c>
       <c r="E92" s="38" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
     </row>
     <row r="93" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="21" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B93" s="33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C93" s="27">
         <v>2017</v>
@@ -8053,29 +8057,29 @@
         <v>38</v>
       </c>
       <c r="E93" s="38" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="94" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="21" t="s">
-        <v>338</v>
-      </c>
-      <c r="B94" s="33" t="s">
+        <v>331</v>
+      </c>
+      <c r="B94" s="43" t="s">
         <v>24</v>
       </c>
       <c r="C94" s="22">
         <v>2017</v>
       </c>
-      <c r="D94" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="E94" s="38" t="s">
-        <v>95</v>
+      <c r="D94" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="E94" s="42" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="95" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="21" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B95" s="33" t="s">
         <v>25</v>
@@ -8087,12 +8091,12 @@
         <v>38</v>
       </c>
       <c r="E95" s="38" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
     </row>
     <row r="96" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="21" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B96" s="33" t="s">
         <v>26</v>
@@ -8104,12 +8108,12 @@
         <v>38</v>
       </c>
       <c r="E96" s="38" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="97" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="21" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B97" s="33" t="s">
         <v>71</v>
@@ -8121,12 +8125,12 @@
         <v>40</v>
       </c>
       <c r="E97" s="38" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="98" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="21" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B98" s="33" t="s">
         <v>27</v>
@@ -8138,12 +8142,12 @@
         <v>76</v>
       </c>
       <c r="E98" s="38" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="99" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="21" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B99" s="33" t="s">
         <v>28</v>
@@ -8155,12 +8159,12 @@
         <v>38</v>
       </c>
       <c r="E99" s="38" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="100" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="21" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B100" s="33" t="s">
         <v>29</v>
@@ -8172,12 +8176,12 @@
         <v>40</v>
       </c>
       <c r="E100" s="38" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
     </row>
     <row r="101" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="21" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B101" s="33" t="s">
         <v>30</v>
@@ -8189,12 +8193,12 @@
         <v>76</v>
       </c>
       <c r="E101" s="38" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="102" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="21" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B102" s="33" t="s">
         <v>50</v>
@@ -8206,13 +8210,13 @@
         <v>38</v>
       </c>
       <c r="E102" s="38" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F102" s="2"/>
     </row>
     <row r="103" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="21" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B103" s="33" t="s">
         <v>6</v>
@@ -8224,13 +8228,13 @@
         <v>38</v>
       </c>
       <c r="E103" s="38" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F103" s="2"/>
     </row>
     <row r="104" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="21" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B104" s="33" t="s">
         <v>51</v>
@@ -8242,13 +8246,13 @@
         <v>39</v>
       </c>
       <c r="E104" s="38" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F104" s="2"/>
     </row>
     <row r="105" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="21" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B105" s="33" t="s">
         <v>0</v>
@@ -8260,13 +8264,13 @@
         <v>38</v>
       </c>
       <c r="E105" s="38" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F105" s="2"/>
     </row>
     <row r="106" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="21" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B106" s="33" t="s">
         <v>52</v>
@@ -8278,13 +8282,13 @@
         <v>38</v>
       </c>
       <c r="E106" s="38" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F106" s="2"/>
     </row>
     <row r="107" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="21" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B107" s="33" t="s">
         <v>53</v>
@@ -8296,13 +8300,13 @@
         <v>40</v>
       </c>
       <c r="E107" s="38" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F107" s="2"/>
     </row>
     <row r="108" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="21" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B108" s="33" t="s">
         <v>54</v>
@@ -8314,13 +8318,13 @@
         <v>38</v>
       </c>
       <c r="E108" s="41" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="F108" s="2"/>
     </row>
     <row r="109" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="21" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B109" s="33" t="s">
         <v>7</v>
@@ -8332,13 +8336,13 @@
         <v>38</v>
       </c>
       <c r="E109" s="38" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F109" s="2"/>
     </row>
     <row r="110" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="21" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B110" s="33" t="s">
         <v>8</v>
@@ -8350,13 +8354,13 @@
         <v>38</v>
       </c>
       <c r="E110" s="38" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F110" s="2"/>
     </row>
     <row r="111" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="21" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B111" s="33" t="s">
         <v>9</v>
@@ -8368,13 +8372,13 @@
         <v>39</v>
       </c>
       <c r="E111" s="38" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F111" s="2"/>
     </row>
     <row r="112" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="21" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B112" s="33" t="s">
         <v>10</v>
@@ -8386,13 +8390,13 @@
         <v>38</v>
       </c>
       <c r="E112" s="38" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F112" s="2"/>
     </row>
     <row r="113" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="21" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B113" s="33" t="s">
         <v>55</v>
@@ -8404,13 +8408,13 @@
         <v>40</v>
       </c>
       <c r="E113" s="38" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F113" s="2"/>
     </row>
     <row r="114" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="21" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B114" s="33" t="s">
         <v>56</v>
@@ -8422,13 +8426,13 @@
         <v>40</v>
       </c>
       <c r="E114" s="38" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="F114" s="2"/>
     </row>
     <row r="115" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="21" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B115" s="33" t="s">
         <v>11</v>
@@ -8440,13 +8444,13 @@
         <v>38</v>
       </c>
       <c r="E115" s="38" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="F115" s="2"/>
     </row>
     <row r="116" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="21" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B116" s="33" t="s">
         <v>34</v>
@@ -8458,13 +8462,13 @@
         <v>39</v>
       </c>
       <c r="E116" s="38" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F116" s="2"/>
     </row>
     <row r="117" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="21" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B117" s="33" t="s">
         <v>33</v>
@@ -8476,13 +8480,13 @@
         <v>39</v>
       </c>
       <c r="E117" s="38" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F117" s="2"/>
     </row>
     <row r="118" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="21" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B118" s="33" t="s">
         <v>58</v>
@@ -8494,13 +8498,13 @@
         <v>38</v>
       </c>
       <c r="E118" s="38" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F118" s="2"/>
     </row>
     <row r="119" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="21" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B119" s="33" t="s">
         <v>13</v>
@@ -8512,13 +8516,13 @@
         <v>38</v>
       </c>
       <c r="E119" s="38" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="F119" s="2"/>
     </row>
     <row r="120" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="21" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B120" s="33" t="s">
         <v>12</v>
@@ -8530,13 +8534,13 @@
         <v>38</v>
       </c>
       <c r="E120" s="38" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F120" s="2"/>
     </row>
     <row r="121" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="21" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B121" s="33" t="s">
         <v>14</v>
@@ -8548,13 +8552,13 @@
         <v>39</v>
       </c>
       <c r="E121" s="38" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F121" s="2"/>
     </row>
     <row r="122" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="21" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B122" s="33" t="s">
         <v>32</v>
@@ -8566,13 +8570,13 @@
         <v>38</v>
       </c>
       <c r="E122" s="38" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F122" s="2"/>
     </row>
     <row r="123" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="21" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B123" s="33" t="s">
         <v>59</v>
@@ -8584,13 +8588,13 @@
         <v>38</v>
       </c>
       <c r="E123" s="38" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F123" s="2"/>
     </row>
     <row r="124" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="21" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B124" s="33" t="s">
         <v>60</v>
@@ -8602,13 +8606,13 @@
         <v>40</v>
       </c>
       <c r="E124" s="38" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F124" s="2"/>
     </row>
     <row r="125" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="21" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B125" s="33" t="s">
         <v>15</v>
@@ -8620,13 +8624,13 @@
         <v>40</v>
       </c>
       <c r="E125" s="38" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F125" s="2"/>
     </row>
     <row r="126" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="21" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B126" s="33" t="s">
         <v>61</v>
@@ -8638,13 +8642,13 @@
         <v>38</v>
       </c>
       <c r="E126" s="38" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F126" s="2"/>
     </row>
     <row r="127" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="21" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B127" s="33" t="s">
         <v>16</v>
@@ -8656,13 +8660,13 @@
         <v>39</v>
       </c>
       <c r="E127" s="38" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F127" s="2"/>
     </row>
     <row r="128" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="21" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B128" s="33" t="s">
         <v>17</v>
@@ -8674,13 +8678,13 @@
         <v>38</v>
       </c>
       <c r="E128" s="38" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="F128" s="2"/>
     </row>
     <row r="129" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="21" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B129" s="33" t="s">
         <v>63</v>
@@ -8692,13 +8696,13 @@
         <v>38</v>
       </c>
       <c r="E129" s="38" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="F129" s="2"/>
     </row>
     <row r="130" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="21" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B130" s="33" t="s">
         <v>64</v>
@@ -8710,13 +8714,13 @@
         <v>40</v>
       </c>
       <c r="E130" s="38" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="F130" s="2"/>
     </row>
     <row r="131" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="21" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B131" s="33" t="s">
         <v>18</v>
@@ -8728,13 +8732,13 @@
         <v>39</v>
       </c>
       <c r="E131" s="38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F131" s="2"/>
     </row>
     <row r="132" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="21" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B132" s="33" t="s">
         <v>65</v>
@@ -8746,13 +8750,13 @@
         <v>38</v>
       </c>
       <c r="E132" s="38" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F132" s="2"/>
     </row>
     <row r="133" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="21" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B133" s="33" t="s">
         <v>19</v>
@@ -8764,13 +8768,13 @@
         <v>38</v>
       </c>
       <c r="E133" s="38" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="F133" s="2"/>
     </row>
     <row r="134" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="21" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B134" s="33" t="s">
         <v>66</v>
@@ -8782,13 +8786,13 @@
         <v>38</v>
       </c>
       <c r="E134" s="38" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="F134" s="2"/>
     </row>
     <row r="135" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="21" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B135" s="33" t="s">
         <v>67</v>
@@ -8800,13 +8804,13 @@
         <v>40</v>
       </c>
       <c r="E135" s="38" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="F135" s="2"/>
     </row>
     <row r="136" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="21" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B136" s="33" t="s">
         <v>68</v>
@@ -8818,13 +8822,13 @@
         <v>38</v>
       </c>
       <c r="E136" s="38" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F136" s="2"/>
     </row>
     <row r="137" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="21" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B137" s="33" t="s">
         <v>20</v>
@@ -8836,13 +8840,13 @@
         <v>38</v>
       </c>
       <c r="E137" s="38" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F137" s="2"/>
     </row>
     <row r="138" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="21" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B138" s="33" t="s">
         <v>21</v>
@@ -8854,13 +8858,13 @@
         <v>38</v>
       </c>
       <c r="E138" s="41" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F138" s="2"/>
     </row>
     <row r="139" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="21" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B139" s="33" t="s">
         <v>22</v>
@@ -8872,13 +8876,13 @@
         <v>38</v>
       </c>
       <c r="E139" s="41" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F139" s="2"/>
     </row>
     <row r="140" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="21" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B140" s="33" t="s">
         <v>31</v>
@@ -8890,13 +8894,13 @@
         <v>38</v>
       </c>
       <c r="E140" s="38" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F140" s="2"/>
     </row>
     <row r="141" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="21" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B141" s="33" t="s">
         <v>69</v>
@@ -8908,13 +8912,13 @@
         <v>38</v>
       </c>
       <c r="E141" s="38" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F141" s="2"/>
     </row>
     <row r="142" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="21" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B142" s="33" t="s">
         <v>23</v>
@@ -8926,16 +8930,16 @@
         <v>39</v>
       </c>
       <c r="E142" s="41" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F142" s="2"/>
     </row>
     <row r="143" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="21" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B143" s="33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C143" s="22">
         <v>2017</v>
@@ -8944,13 +8948,13 @@
         <v>39</v>
       </c>
       <c r="E143" s="38" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F143" s="2"/>
     </row>
     <row r="144" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="21" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B144" s="33" t="s">
         <v>24</v>
@@ -8961,14 +8965,14 @@
       <c r="D144" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="E144" s="41" t="s">
-        <v>413</v>
+      <c r="E144" s="42" t="s">
+        <v>418</v>
       </c>
       <c r="F144" s="2"/>
     </row>
     <row r="145" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="21" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B145" s="33" t="s">
         <v>25</v>
@@ -8980,13 +8984,13 @@
         <v>38</v>
       </c>
       <c r="E145" s="38" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="F145" s="2"/>
     </row>
     <row r="146" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="21" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B146" s="33" t="s">
         <v>26</v>
@@ -8998,13 +9002,13 @@
         <v>39</v>
       </c>
       <c r="E146" s="41" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F146" s="2"/>
     </row>
     <row r="147" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="21" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B147" s="33" t="s">
         <v>71</v>
@@ -9016,13 +9020,13 @@
         <v>38</v>
       </c>
       <c r="E147" s="41" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="F147" s="2"/>
     </row>
     <row r="148" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="21" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B148" s="33" t="s">
         <v>27</v>
@@ -9034,13 +9038,13 @@
         <v>76</v>
       </c>
       <c r="E148" s="41" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F148" s="2"/>
     </row>
     <row r="149" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="21" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B149" s="33" t="s">
         <v>28</v>
@@ -9052,13 +9056,13 @@
         <v>38</v>
       </c>
       <c r="E149" s="38" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="F149" s="2"/>
     </row>
     <row r="150" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="21" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B150" s="33" t="s">
         <v>29</v>
@@ -9070,13 +9074,13 @@
         <v>38</v>
       </c>
       <c r="E150" s="38" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F150" s="2"/>
     </row>
     <row r="151" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="21" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B151" s="33" t="s">
         <v>30</v>
@@ -9088,13 +9092,13 @@
         <v>38</v>
       </c>
       <c r="E151" s="41" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="F151" s="2"/>
     </row>
     <row r="152" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="21" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B152" s="33" t="s">
         <v>50</v>
@@ -9106,13 +9110,13 @@
         <v>40</v>
       </c>
       <c r="E152" s="38" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F152" s="2"/>
     </row>
     <row r="153" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="21" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B153" s="33" t="s">
         <v>6</v>
@@ -9124,13 +9128,13 @@
         <v>40</v>
       </c>
       <c r="E153" s="38" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F153" s="2"/>
     </row>
     <row r="154" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="21" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B154" s="33" t="s">
         <v>51</v>
@@ -9142,13 +9146,13 @@
         <v>40</v>
       </c>
       <c r="E154" s="38" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F154" s="2"/>
     </row>
     <row r="155" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="21" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B155" s="33" t="s">
         <v>0</v>
@@ -9160,13 +9164,13 @@
         <v>40</v>
       </c>
       <c r="E155" s="38" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F155" s="2"/>
     </row>
     <row r="156" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="21" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B156" s="33" t="s">
         <v>52</v>
@@ -9178,13 +9182,13 @@
         <v>40</v>
       </c>
       <c r="E156" s="38" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F156" s="2"/>
     </row>
     <row r="157" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="21" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B157" s="33" t="s">
         <v>53</v>
@@ -9196,13 +9200,13 @@
         <v>38</v>
       </c>
       <c r="E157" s="38" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F157" s="2"/>
     </row>
     <row r="158" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="21" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B158" s="33" t="s">
         <v>54</v>
@@ -9214,13 +9218,13 @@
         <v>40</v>
       </c>
       <c r="E158" s="38" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F158" s="2"/>
     </row>
     <row r="159" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="21" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B159" s="33" t="s">
         <v>7</v>
@@ -9232,13 +9236,13 @@
         <v>40</v>
       </c>
       <c r="E159" s="38" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F159" s="2"/>
     </row>
     <row r="160" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="21" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B160" s="33" t="s">
         <v>8</v>
@@ -9250,13 +9254,13 @@
         <v>40</v>
       </c>
       <c r="E160" s="38" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F160" s="2"/>
     </row>
     <row r="161" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="21" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B161" s="33" t="s">
         <v>9</v>
@@ -9268,13 +9272,13 @@
         <v>40</v>
       </c>
       <c r="E161" s="38" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F161" s="2"/>
     </row>
     <row r="162" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="21" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B162" s="33" t="s">
         <v>10</v>
@@ -9286,13 +9290,13 @@
         <v>40</v>
       </c>
       <c r="E162" s="38" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F162" s="2"/>
     </row>
     <row r="163" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="21" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B163" s="33" t="s">
         <v>55</v>
@@ -9304,13 +9308,13 @@
         <v>40</v>
       </c>
       <c r="E163" s="38" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F163" s="2"/>
     </row>
     <row r="164" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="21" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B164" s="33" t="s">
         <v>56</v>
@@ -9322,13 +9326,13 @@
         <v>40</v>
       </c>
       <c r="E164" s="41" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F164" s="2"/>
     </row>
     <row r="165" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="21" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B165" s="33" t="s">
         <v>11</v>
@@ -9340,13 +9344,13 @@
         <v>40</v>
       </c>
       <c r="E165" s="38" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F165" s="2"/>
     </row>
     <row r="166" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="21" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B166" s="33" t="s">
         <v>34</v>
@@ -9358,13 +9362,13 @@
         <v>39</v>
       </c>
       <c r="E166" s="38" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="F166" s="2"/>
     </row>
     <row r="167" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="21" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B167" s="33" t="s">
         <v>33</v>
@@ -9376,13 +9380,13 @@
         <v>40</v>
       </c>
       <c r="E167" s="38" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F167" s="2"/>
     </row>
     <row r="168" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="21" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B168" s="33" t="s">
         <v>58</v>
@@ -9394,13 +9398,13 @@
         <v>40</v>
       </c>
       <c r="E168" s="38" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F168" s="2"/>
     </row>
     <row r="169" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="21" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B169" s="33" t="s">
         <v>13</v>
@@ -9412,13 +9416,13 @@
         <v>39</v>
       </c>
       <c r="E169" s="38" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F169" s="2"/>
     </row>
     <row r="170" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="21" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B170" s="33" t="s">
         <v>12</v>
@@ -9430,13 +9434,13 @@
         <v>40</v>
       </c>
       <c r="E170" s="38" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F170" s="2"/>
     </row>
     <row r="171" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="21" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B171" s="33" t="s">
         <v>14</v>
@@ -9448,13 +9452,13 @@
         <v>40</v>
       </c>
       <c r="E171" s="38" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F171" s="2"/>
     </row>
     <row r="172" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="21" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B172" s="33" t="s">
         <v>32</v>
@@ -9466,13 +9470,13 @@
         <v>40</v>
       </c>
       <c r="E172" s="38" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F172" s="2"/>
     </row>
     <row r="173" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="21" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B173" s="33" t="s">
         <v>59</v>
@@ -9484,13 +9488,13 @@
         <v>39</v>
       </c>
       <c r="E173" s="38" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F173" s="2"/>
     </row>
     <row r="174" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="21" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B174" s="33" t="s">
         <v>60</v>
@@ -9502,13 +9506,13 @@
         <v>40</v>
       </c>
       <c r="E174" s="38" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F174" s="2"/>
     </row>
     <row r="175" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="21" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B175" s="33" t="s">
         <v>15</v>
@@ -9520,13 +9524,13 @@
         <v>40</v>
       </c>
       <c r="E175" s="38" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F175" s="2"/>
     </row>
     <row r="176" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="21" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B176" s="33" t="s">
         <v>61</v>
@@ -9538,13 +9542,13 @@
         <v>40</v>
       </c>
       <c r="E176" s="38" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F176" s="2"/>
     </row>
     <row r="177" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="21" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B177" s="33" t="s">
         <v>16</v>
@@ -9556,13 +9560,13 @@
         <v>40</v>
       </c>
       <c r="E177" s="38" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F177" s="2"/>
     </row>
     <row r="178" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="21" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B178" s="33" t="s">
         <v>17</v>
@@ -9574,13 +9578,13 @@
         <v>40</v>
       </c>
       <c r="E178" s="38" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F178" s="2"/>
     </row>
     <row r="179" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="21" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B179" s="33" t="s">
         <v>63</v>
@@ -9592,13 +9596,13 @@
         <v>40</v>
       </c>
       <c r="E179" s="38" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F179" s="2"/>
     </row>
     <row r="180" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="21" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B180" s="33" t="s">
         <v>64</v>
@@ -9610,13 +9614,13 @@
         <v>40</v>
       </c>
       <c r="E180" s="38" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F180" s="2"/>
     </row>
     <row r="181" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="21" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B181" s="33" t="s">
         <v>18</v>
@@ -9628,13 +9632,13 @@
         <v>40</v>
       </c>
       <c r="E181" s="38" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F181" s="2"/>
     </row>
     <row r="182" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="21" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B182" s="33" t="s">
         <v>65</v>
@@ -9646,13 +9650,13 @@
         <v>39</v>
       </c>
       <c r="E182" s="38" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="F182" s="2"/>
     </row>
     <row r="183" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="21" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B183" s="33" t="s">
         <v>19</v>
@@ -9664,13 +9668,13 @@
         <v>40</v>
       </c>
       <c r="E183" s="38" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F183" s="2"/>
     </row>
     <row r="184" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="21" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B184" s="33" t="s">
         <v>66</v>
@@ -9682,13 +9686,13 @@
         <v>40</v>
       </c>
       <c r="E184" s="38" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F184" s="2"/>
     </row>
     <row r="185" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="21" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B185" s="33" t="s">
         <v>67</v>
@@ -9700,13 +9704,13 @@
         <v>40</v>
       </c>
       <c r="E185" s="38" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F185" s="2"/>
     </row>
     <row r="186" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="21" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B186" s="33" t="s">
         <v>68</v>
@@ -9718,13 +9722,13 @@
         <v>40</v>
       </c>
       <c r="E186" s="38" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F186" s="2"/>
     </row>
     <row r="187" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="21" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B187" s="33" t="s">
         <v>20</v>
@@ -9736,13 +9740,13 @@
         <v>38</v>
       </c>
       <c r="E187" s="38" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="F187" s="2"/>
     </row>
     <row r="188" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="21" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B188" s="33" t="s">
         <v>21</v>
@@ -9754,13 +9758,13 @@
         <v>40</v>
       </c>
       <c r="E188" s="38" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F188" s="2"/>
     </row>
     <row r="189" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="21" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B189" s="33" t="s">
         <v>22</v>
@@ -9772,13 +9776,13 @@
         <v>40</v>
       </c>
       <c r="E189" s="38" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F189" s="2"/>
     </row>
     <row r="190" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="21" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B190" s="33" t="s">
         <v>31</v>
@@ -9790,13 +9794,13 @@
         <v>40</v>
       </c>
       <c r="E190" s="38" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F190" s="2"/>
     </row>
     <row r="191" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="21" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B191" s="33" t="s">
         <v>69</v>
@@ -9808,13 +9812,13 @@
         <v>40</v>
       </c>
       <c r="E191" s="38" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F191" s="2"/>
     </row>
     <row r="192" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="21" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B192" s="33" t="s">
         <v>23</v>
@@ -9826,16 +9830,16 @@
         <v>39</v>
       </c>
       <c r="E192" s="38" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F192" s="2"/>
     </row>
     <row r="193" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="21" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B193" s="33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C193" s="22">
         <v>2017</v>
@@ -9844,31 +9848,31 @@
         <v>40</v>
       </c>
       <c r="E193" s="38" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F193" s="2"/>
     </row>
     <row r="194" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="21" t="s">
-        <v>340</v>
-      </c>
-      <c r="B194" s="33" t="s">
+        <v>333</v>
+      </c>
+      <c r="B194" s="43" t="s">
         <v>24</v>
       </c>
       <c r="C194" s="22">
         <v>2017</v>
       </c>
-      <c r="D194" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="E194" s="38" t="s">
-        <v>144</v>
-      </c>
-      <c r="F194" s="2"/>
+      <c r="D194" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="E194" s="44" t="s">
+        <v>147</v>
+      </c>
+      <c r="F194" s="1"/>
     </row>
     <row r="195" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="21" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B195" s="33" t="s">
         <v>25</v>
@@ -9880,13 +9884,13 @@
         <v>39</v>
       </c>
       <c r="E195" s="38" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="F195" s="2"/>
     </row>
     <row r="196" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="21" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B196" s="33" t="s">
         <v>26</v>
@@ -9898,13 +9902,13 @@
         <v>40</v>
       </c>
       <c r="E196" s="38" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F196" s="2"/>
     </row>
     <row r="197" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="21" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B197" s="33" t="s">
         <v>71</v>
@@ -9916,13 +9920,13 @@
         <v>40</v>
       </c>
       <c r="E197" s="38" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F197" s="2"/>
     </row>
     <row r="198" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="21" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B198" s="33" t="s">
         <v>27</v>
@@ -9934,13 +9938,13 @@
         <v>40</v>
       </c>
       <c r="E198" s="38" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F198" s="2"/>
     </row>
     <row r="199" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="21" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B199" s="33" t="s">
         <v>28</v>
@@ -9952,13 +9956,13 @@
         <v>39</v>
       </c>
       <c r="E199" s="38" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="F199" s="2"/>
     </row>
     <row r="200" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" s="21" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B200" s="33" t="s">
         <v>29</v>
@@ -9970,13 +9974,13 @@
         <v>40</v>
       </c>
       <c r="E200" s="38" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F200" s="2"/>
     </row>
     <row r="201" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="21" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B201" s="33" t="s">
         <v>30</v>
@@ -9988,13 +9992,13 @@
         <v>40</v>
       </c>
       <c r="E201" s="38" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F201" s="2"/>
     </row>
     <row r="202" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="21" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B202" s="33" t="s">
         <v>50</v>
@@ -10006,13 +10010,13 @@
         <v>40</v>
       </c>
       <c r="E202" s="38" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F202" s="2"/>
     </row>
     <row r="203" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="21" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B203" s="33" t="s">
         <v>6</v>
@@ -10024,13 +10028,13 @@
         <v>39</v>
       </c>
       <c r="E203" s="41" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F203" s="2"/>
     </row>
     <row r="204" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="21" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B204" s="33" t="s">
         <v>51</v>
@@ -10042,13 +10046,13 @@
         <v>38</v>
       </c>
       <c r="E204" s="38" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F204" s="2"/>
     </row>
     <row r="205" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" s="21" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B205" s="33" t="s">
         <v>0</v>
@@ -10060,13 +10064,13 @@
         <v>40</v>
       </c>
       <c r="E205" s="38" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F205" s="2"/>
     </row>
     <row r="206" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" s="21" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B206" s="33" t="s">
         <v>52</v>
@@ -10078,13 +10082,13 @@
         <v>38</v>
       </c>
       <c r="E206" s="41" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F206" s="2"/>
     </row>
     <row r="207" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="21" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B207" s="33" t="s">
         <v>53</v>
@@ -10096,13 +10100,13 @@
         <v>39</v>
       </c>
       <c r="E207" s="38" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F207" s="2"/>
     </row>
     <row r="208" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" s="21" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B208" s="33" t="s">
         <v>54</v>
@@ -10114,13 +10118,13 @@
         <v>40</v>
       </c>
       <c r="E208" s="38" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F208" s="2"/>
     </row>
     <row r="209" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="21" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B209" s="33" t="s">
         <v>7</v>
@@ -10132,13 +10136,13 @@
         <v>38</v>
       </c>
       <c r="E209" s="41" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F209" s="2"/>
     </row>
     <row r="210" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" s="21" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B210" s="33" t="s">
         <v>8</v>
@@ -10150,13 +10154,13 @@
         <v>38</v>
       </c>
       <c r="E210" s="38" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F210" s="2"/>
     </row>
     <row r="211" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" s="21" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B211" s="33" t="s">
         <v>9</v>
@@ -10168,13 +10172,13 @@
         <v>38</v>
       </c>
       <c r="E211" s="38" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F211" s="2"/>
     </row>
     <row r="212" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212" s="21" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B212" s="33" t="s">
         <v>10</v>
@@ -10186,13 +10190,13 @@
         <v>38</v>
       </c>
       <c r="E212" s="38" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F212" s="2"/>
     </row>
     <row r="213" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="21" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B213" s="33" t="s">
         <v>55</v>
@@ -10204,13 +10208,13 @@
         <v>39</v>
       </c>
       <c r="E213" s="38" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="F213" s="2"/>
     </row>
     <row r="214" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" s="21" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B214" s="33" t="s">
         <v>56</v>
@@ -10222,13 +10226,13 @@
         <v>38</v>
       </c>
       <c r="E214" s="38" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F214" s="2"/>
     </row>
     <row r="215" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="21" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B215" s="33" t="s">
         <v>11</v>
@@ -10240,13 +10244,13 @@
         <v>40</v>
       </c>
       <c r="E215" s="38" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="F215" s="2"/>
     </row>
     <row r="216" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216" s="21" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B216" s="33" t="s">
         <v>34</v>
@@ -10258,13 +10262,13 @@
         <v>38</v>
       </c>
       <c r="E216" s="38" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F216" s="2"/>
     </row>
     <row r="217" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217" s="21" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B217" s="33" t="s">
         <v>33</v>
@@ -10276,13 +10280,13 @@
         <v>38</v>
       </c>
       <c r="E217" s="38" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F217" s="2"/>
     </row>
     <row r="218" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218" s="21" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B218" s="33" t="s">
         <v>58</v>
@@ -10294,13 +10298,13 @@
         <v>39</v>
       </c>
       <c r="E218" s="38" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F218" s="2"/>
     </row>
     <row r="219" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" s="21" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B219" s="33" t="s">
         <v>13</v>
@@ -10312,13 +10316,13 @@
         <v>38</v>
       </c>
       <c r="E219" s="38" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="F219" s="2"/>
     </row>
     <row r="220" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="21" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B220" s="33" t="s">
         <v>12</v>
@@ -10330,13 +10334,13 @@
         <v>38</v>
       </c>
       <c r="E220" s="38" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F220" s="2"/>
     </row>
     <row r="221" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221" s="21" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B221" s="33" t="s">
         <v>14</v>
@@ -10348,13 +10352,13 @@
         <v>38</v>
       </c>
       <c r="E221" s="38" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F221" s="2"/>
     </row>
     <row r="222" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" s="21" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B222" s="33" t="s">
         <v>32</v>
@@ -10366,13 +10370,13 @@
         <v>38</v>
       </c>
       <c r="E222" s="38" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="F222" s="2"/>
     </row>
     <row r="223" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" s="21" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B223" s="33" t="s">
         <v>59</v>
@@ -10384,13 +10388,13 @@
         <v>38</v>
       </c>
       <c r="E223" s="38" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F223" s="2"/>
     </row>
     <row r="224" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A224" s="21" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B224" s="33" t="s">
         <v>60</v>
@@ -10402,13 +10406,13 @@
         <v>40</v>
       </c>
       <c r="E224" s="38" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F224" s="2"/>
     </row>
     <row r="225" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A225" s="21" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B225" s="33" t="s">
         <v>15</v>
@@ -10420,13 +10424,13 @@
         <v>40</v>
       </c>
       <c r="E225" s="38" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F225" s="2"/>
     </row>
     <row r="226" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A226" s="21" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B226" s="33" t="s">
         <v>61</v>
@@ -10438,13 +10442,13 @@
         <v>40</v>
       </c>
       <c r="E226" s="38" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F226" s="2"/>
     </row>
     <row r="227" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A227" s="21" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B227" s="33" t="s">
         <v>16</v>
@@ -10456,13 +10460,13 @@
         <v>38</v>
       </c>
       <c r="E227" s="41" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F227" s="2"/>
     </row>
     <row r="228" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A228" s="21" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B228" s="33" t="s">
         <v>17</v>
@@ -10474,13 +10478,13 @@
         <v>38</v>
       </c>
       <c r="E228" s="41" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F228" s="2"/>
     </row>
     <row r="229" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A229" s="21" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B229" s="33" t="s">
         <v>63</v>
@@ -10492,13 +10496,13 @@
         <v>40</v>
       </c>
       <c r="E229" s="38" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F229" s="2"/>
     </row>
     <row r="230" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A230" s="21" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B230" s="33" t="s">
         <v>64</v>
@@ -10510,13 +10514,13 @@
         <v>39</v>
       </c>
       <c r="E230" s="41" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F230" s="2"/>
     </row>
     <row r="231" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A231" s="21" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B231" s="33" t="s">
         <v>18</v>
@@ -10528,13 +10532,13 @@
         <v>39</v>
       </c>
       <c r="E231" s="38" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="F231" s="2"/>
     </row>
     <row r="232" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A232" s="21" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B232" s="33" t="s">
         <v>65</v>
@@ -10546,13 +10550,13 @@
         <v>40</v>
       </c>
       <c r="E232" s="38" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F232" s="2"/>
     </row>
     <row r="233" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A233" s="21" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B233" s="33" t="s">
         <v>19</v>
@@ -10564,13 +10568,13 @@
         <v>40</v>
       </c>
       <c r="E233" s="38" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F233" s="2"/>
     </row>
     <row r="234" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A234" s="21" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B234" s="33" t="s">
         <v>66</v>
@@ -10582,13 +10586,13 @@
         <v>40</v>
       </c>
       <c r="E234" s="38" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F234" s="2"/>
     </row>
     <row r="235" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A235" s="21" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B235" s="33" t="s">
         <v>67</v>
@@ -10600,13 +10604,13 @@
         <v>38</v>
       </c>
       <c r="E235" s="38" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F235" s="2"/>
     </row>
     <row r="236" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A236" s="21" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B236" s="33" t="s">
         <v>68</v>
@@ -10618,13 +10622,13 @@
         <v>39</v>
       </c>
       <c r="E236" s="38" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="F236" s="2"/>
     </row>
     <row r="237" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A237" s="21" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B237" s="33" t="s">
         <v>20</v>
@@ -10636,13 +10640,13 @@
         <v>38</v>
       </c>
       <c r="E237" s="38" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F237" s="2"/>
     </row>
     <row r="238" spans="1:6" s="24" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A238" s="21" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B238" s="33" t="s">
         <v>21</v>
@@ -10654,13 +10658,13 @@
         <v>39</v>
       </c>
       <c r="E238" s="38" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="F238" s="2"/>
     </row>
     <row r="239" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A239" s="21" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B239" s="33" t="s">
         <v>22</v>
@@ -10672,13 +10676,13 @@
         <v>38</v>
       </c>
       <c r="E239" s="38" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F239" s="2"/>
     </row>
     <row r="240" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A240" s="21" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B240" s="33" t="s">
         <v>31</v>
@@ -10690,13 +10694,13 @@
         <v>38</v>
       </c>
       <c r="E240" s="38" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F240" s="2"/>
     </row>
     <row r="241" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A241" s="21" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B241" s="33" t="s">
         <v>69</v>
@@ -10708,13 +10712,13 @@
         <v>38</v>
       </c>
       <c r="E241" s="38" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F241" s="2"/>
     </row>
     <row r="242" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A242" s="21" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B242" s="33" t="s">
         <v>23</v>
@@ -10726,16 +10730,16 @@
         <v>38</v>
       </c>
       <c r="E242" s="38" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="F242" s="2"/>
     </row>
     <row r="243" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A243" s="21" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B243" s="33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C243" s="22">
         <v>2017</v>
@@ -10744,31 +10748,31 @@
         <v>38</v>
       </c>
       <c r="E243" s="38" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="F243" s="2"/>
     </row>
     <row r="244" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A244" s="21" t="s">
-        <v>341</v>
-      </c>
-      <c r="B244" s="33" t="s">
+        <v>334</v>
+      </c>
+      <c r="B244" s="43" t="s">
         <v>24</v>
       </c>
       <c r="C244" s="22">
         <v>2017</v>
       </c>
-      <c r="D244" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="E244" s="38" t="s">
-        <v>179</v>
-      </c>
-      <c r="F244" s="2"/>
+      <c r="D244" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="E244" s="42" t="s">
+        <v>419</v>
+      </c>
+      <c r="F244" s="1"/>
     </row>
     <row r="245" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A245" s="21" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B245" s="33" t="s">
         <v>25</v>
@@ -10780,13 +10784,13 @@
         <v>38</v>
       </c>
       <c r="E245" s="38" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F245" s="2"/>
     </row>
     <row r="246" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A246" s="21" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B246" s="33" t="s">
         <v>26</v>
@@ -10798,13 +10802,13 @@
         <v>40</v>
       </c>
       <c r="E246" s="38" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F246" s="2"/>
     </row>
     <row r="247" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A247" s="21" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B247" s="33" t="s">
         <v>71</v>
@@ -10816,13 +10820,13 @@
         <v>40</v>
       </c>
       <c r="E247" s="38" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F247" s="2"/>
     </row>
     <row r="248" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A248" s="21" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B248" s="33" t="s">
         <v>27</v>
@@ -10834,13 +10838,13 @@
         <v>38</v>
       </c>
       <c r="E248" s="38" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F248" s="2"/>
     </row>
     <row r="249" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A249" s="21" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B249" s="33" t="s">
         <v>28</v>
@@ -10852,13 +10856,13 @@
         <v>38</v>
       </c>
       <c r="E249" s="38" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F249" s="2"/>
     </row>
     <row r="250" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A250" s="21" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B250" s="33" t="s">
         <v>29</v>
@@ -10870,13 +10874,13 @@
         <v>38</v>
       </c>
       <c r="E250" s="38" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F250" s="2"/>
     </row>
     <row r="251" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A251" s="21" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B251" s="33" t="s">
         <v>30</v>
@@ -10888,13 +10892,13 @@
         <v>40</v>
       </c>
       <c r="E251" s="38" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F251" s="2"/>
     </row>
     <row r="252" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A252" s="21" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B252" s="33" t="s">
         <v>50</v>
@@ -10906,13 +10910,13 @@
         <v>40</v>
       </c>
       <c r="E252" s="38" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F252" s="2"/>
     </row>
     <row r="253" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A253" s="21" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B253" s="33" t="s">
         <v>6</v>
@@ -10924,13 +10928,13 @@
         <v>38</v>
       </c>
       <c r="E253" s="41" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F253" s="2"/>
     </row>
     <row r="254" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A254" s="21" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B254" s="33" t="s">
         <v>51</v>
@@ -10942,13 +10946,13 @@
         <v>39</v>
       </c>
       <c r="E254" s="41" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="F254" s="2"/>
     </row>
     <row r="255" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A255" s="21" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B255" s="33" t="s">
         <v>0</v>
@@ -10960,13 +10964,13 @@
         <v>40</v>
       </c>
       <c r="E255" s="38" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F255" s="2"/>
     </row>
     <row r="256" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A256" s="21" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B256" s="33" t="s">
         <v>52</v>
@@ -10978,13 +10982,13 @@
         <v>40</v>
       </c>
       <c r="E256" s="38" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F256" s="2"/>
     </row>
     <row r="257" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A257" s="21" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B257" s="33" t="s">
         <v>53</v>
@@ -10996,13 +11000,13 @@
         <v>39</v>
       </c>
       <c r="E257" s="41" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="F257" s="2"/>
     </row>
     <row r="258" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A258" s="21" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B258" s="33" t="s">
         <v>54</v>
@@ -11014,13 +11018,13 @@
         <v>40</v>
       </c>
       <c r="E258" s="38" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F258" s="2"/>
     </row>
     <row r="259" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A259" s="21" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B259" s="33" t="s">
         <v>7</v>
@@ -11032,13 +11036,13 @@
         <v>39</v>
       </c>
       <c r="E259" s="38" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="F259" s="2"/>
     </row>
     <row r="260" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A260" s="21" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B260" s="33" t="s">
         <v>8</v>
@@ -11050,13 +11054,13 @@
         <v>39</v>
       </c>
       <c r="E260" s="38" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="F260" s="2"/>
     </row>
     <row r="261" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A261" s="21" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B261" s="33" t="s">
         <v>9</v>
@@ -11068,13 +11072,13 @@
         <v>38</v>
       </c>
       <c r="E261" s="41" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="F261" s="2"/>
     </row>
     <row r="262" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A262" s="21" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B262" s="33" t="s">
         <v>10</v>
@@ -11086,13 +11090,13 @@
         <v>40</v>
       </c>
       <c r="E262" s="41" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F262" s="2"/>
     </row>
     <row r="263" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A263" s="21" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B263" s="33" t="s">
         <v>55</v>
@@ -11104,13 +11108,13 @@
         <v>40</v>
       </c>
       <c r="E263" s="41" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F263" s="2"/>
     </row>
     <row r="264" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A264" s="21" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B264" s="33" t="s">
         <v>56</v>
@@ -11122,13 +11126,13 @@
         <v>38</v>
       </c>
       <c r="E264" s="41" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="F264" s="2"/>
     </row>
     <row r="265" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A265" s="21" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B265" s="33" t="s">
         <v>11</v>
@@ -11140,13 +11144,13 @@
         <v>39</v>
       </c>
       <c r="E265" s="38" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="F265" s="2"/>
     </row>
     <row r="266" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A266" s="21" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B266" s="33" t="s">
         <v>34</v>
@@ -11158,13 +11162,13 @@
         <v>38</v>
       </c>
       <c r="E266" s="38" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="F266" s="2"/>
     </row>
     <row r="267" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A267" s="21" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B267" s="33" t="s">
         <v>33</v>
@@ -11176,13 +11180,13 @@
         <v>40</v>
       </c>
       <c r="E267" s="38" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F267" s="2"/>
     </row>
     <row r="268" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A268" s="21" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B268" s="33" t="s">
         <v>58</v>
@@ -11194,13 +11198,13 @@
         <v>40</v>
       </c>
       <c r="E268" s="38" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F268" s="2"/>
     </row>
     <row r="269" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A269" s="21" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B269" s="33" t="s">
         <v>13</v>
@@ -11212,13 +11216,13 @@
         <v>38</v>
       </c>
       <c r="E269" s="38" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F269" s="2"/>
     </row>
     <row r="270" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A270" s="21" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B270" s="33" t="s">
         <v>12</v>
@@ -11230,13 +11234,13 @@
         <v>38</v>
       </c>
       <c r="E270" s="38" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="F270" s="2"/>
     </row>
     <row r="271" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A271" s="21" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B271" s="33" t="s">
         <v>14</v>
@@ -11248,13 +11252,13 @@
         <v>38</v>
       </c>
       <c r="E271" s="38" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F271" s="2"/>
     </row>
     <row r="272" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A272" s="21" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B272" s="33" t="s">
         <v>32</v>
@@ -11266,13 +11270,13 @@
         <v>38</v>
       </c>
       <c r="E272" s="38" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="F272" s="2"/>
     </row>
     <row r="273" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A273" s="21" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B273" s="33" t="s">
         <v>59</v>
@@ -11284,13 +11288,13 @@
         <v>38</v>
       </c>
       <c r="E273" s="38" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="F273" s="2"/>
     </row>
     <row r="274" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A274" s="21" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B274" s="33" t="s">
         <v>60</v>
@@ -11302,13 +11306,13 @@
         <v>40</v>
       </c>
       <c r="E274" s="38" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F274" s="2"/>
     </row>
     <row r="275" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A275" s="21" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B275" s="33" t="s">
         <v>15</v>
@@ -11320,13 +11324,13 @@
         <v>40</v>
       </c>
       <c r="E275" s="38" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F275" s="2"/>
     </row>
     <row r="276" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A276" s="21" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B276" s="33" t="s">
         <v>61</v>
@@ -11338,13 +11342,13 @@
         <v>40</v>
       </c>
       <c r="E276" s="38" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F276" s="2"/>
     </row>
     <row r="277" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A277" s="21" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B277" s="33" t="s">
         <v>16</v>
@@ -11356,13 +11360,13 @@
         <v>40</v>
       </c>
       <c r="E277" s="38" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F277" s="2"/>
     </row>
     <row r="278" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A278" s="21" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B278" s="33" t="s">
         <v>17</v>
@@ -11374,13 +11378,13 @@
         <v>38</v>
       </c>
       <c r="E278" s="38" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="F278" s="2"/>
     </row>
     <row r="279" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A279" s="21" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B279" s="33" t="s">
         <v>63</v>
@@ -11392,13 +11396,13 @@
         <v>40</v>
       </c>
       <c r="E279" s="38" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F279" s="2"/>
     </row>
     <row r="280" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A280" s="21" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B280" s="33" t="s">
         <v>64</v>
@@ -11410,13 +11414,13 @@
         <v>40</v>
       </c>
       <c r="E280" s="38" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F280" s="2"/>
     </row>
     <row r="281" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A281" s="21" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B281" s="33" t="s">
         <v>18</v>
@@ -11428,13 +11432,13 @@
         <v>40</v>
       </c>
       <c r="E281" s="38" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F281" s="2"/>
     </row>
     <row r="282" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A282" s="21" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B282" s="33" t="s">
         <v>65</v>
@@ -11446,13 +11450,13 @@
         <v>38</v>
       </c>
       <c r="E282" s="41" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="F282" s="2"/>
     </row>
     <row r="283" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A283" s="21" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B283" s="33" t="s">
         <v>19</v>
@@ -11464,13 +11468,13 @@
         <v>38</v>
       </c>
       <c r="E283" s="38" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F283" s="2"/>
     </row>
     <row r="284" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A284" s="21" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B284" s="33" t="s">
         <v>66</v>
@@ -11482,13 +11486,13 @@
         <v>40</v>
       </c>
       <c r="E284" s="38" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F284" s="2"/>
     </row>
     <row r="285" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A285" s="21" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B285" s="33" t="s">
         <v>67</v>
@@ -11500,13 +11504,13 @@
         <v>40</v>
       </c>
       <c r="E285" s="38" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F285" s="2"/>
     </row>
     <row r="286" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A286" s="21" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B286" s="33" t="s">
         <v>68</v>
@@ -11518,13 +11522,13 @@
         <v>40</v>
       </c>
       <c r="E286" s="38" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F286" s="2"/>
     </row>
     <row r="287" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A287" s="21" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B287" s="33" t="s">
         <v>20</v>
@@ -11536,13 +11540,13 @@
         <v>38</v>
       </c>
       <c r="E287" s="38" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F287" s="2"/>
     </row>
     <row r="288" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A288" s="21" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B288" s="33" t="s">
         <v>21</v>
@@ -11554,13 +11558,13 @@
         <v>38</v>
       </c>
       <c r="E288" s="38" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F288" s="2"/>
     </row>
     <row r="289" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A289" s="21" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B289" s="33" t="s">
         <v>22</v>
@@ -11572,13 +11576,13 @@
         <v>40</v>
       </c>
       <c r="E289" s="38" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F289" s="2"/>
     </row>
     <row r="290" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A290" s="21" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B290" s="33" t="s">
         <v>31</v>
@@ -11590,13 +11594,13 @@
         <v>38</v>
       </c>
       <c r="E290" s="38" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F290" s="2"/>
     </row>
     <row r="291" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A291" s="21" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B291" s="33" t="s">
         <v>69</v>
@@ -11608,13 +11612,13 @@
         <v>40</v>
       </c>
       <c r="E291" s="38" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F291" s="2"/>
     </row>
     <row r="292" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A292" s="21" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B292" s="33" t="s">
         <v>23</v>
@@ -11626,16 +11630,16 @@
         <v>38</v>
       </c>
       <c r="E292" s="41" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="F292" s="2"/>
     </row>
     <row r="293" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A293" s="21" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B293" s="33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C293" s="22">
         <v>2017</v>
@@ -11644,13 +11648,13 @@
         <v>40</v>
       </c>
       <c r="E293" s="38" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F293" s="2"/>
     </row>
     <row r="294" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A294" s="21" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B294" s="33" t="s">
         <v>24</v>
@@ -11661,14 +11665,14 @@
       <c r="D294" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="E294" s="38" t="s">
-        <v>188</v>
+      <c r="E294" s="42" t="s">
+        <v>422</v>
       </c>
       <c r="F294" s="2"/>
     </row>
     <row r="295" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A295" s="21" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B295" s="33" t="s">
         <v>25</v>
@@ -11680,13 +11684,13 @@
         <v>38</v>
       </c>
       <c r="E295" s="38" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F295" s="2"/>
     </row>
     <row r="296" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A296" s="21" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B296" s="33" t="s">
         <v>26</v>
@@ -11698,13 +11702,13 @@
         <v>40</v>
       </c>
       <c r="E296" s="38" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F296" s="2"/>
     </row>
     <row r="297" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A297" s="21" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B297" s="33" t="s">
         <v>71</v>
@@ -11716,13 +11720,13 @@
         <v>40</v>
       </c>
       <c r="E297" s="38" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F297" s="2"/>
     </row>
     <row r="298" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A298" s="21" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B298" s="33" t="s">
         <v>27</v>
@@ -11734,13 +11738,13 @@
         <v>40</v>
       </c>
       <c r="E298" s="38" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F298" s="2"/>
     </row>
     <row r="299" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A299" s="21" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B299" s="33" t="s">
         <v>28</v>
@@ -11752,13 +11756,13 @@
         <v>38</v>
       </c>
       <c r="E299" s="38" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="F299" s="2"/>
     </row>
     <row r="300" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A300" s="21" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B300" s="33" t="s">
         <v>29</v>
@@ -11770,13 +11774,13 @@
         <v>38</v>
       </c>
       <c r="E300" s="38" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F300" s="2"/>
     </row>
     <row r="301" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A301" s="21" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B301" s="33" t="s">
         <v>30</v>
@@ -11788,13 +11792,13 @@
         <v>39</v>
       </c>
       <c r="E301" s="41" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="F301" s="2"/>
     </row>
     <row r="302" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A302" s="21" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B302" s="33" t="s">
         <v>50</v>
@@ -11806,13 +11810,13 @@
         <v>40</v>
       </c>
       <c r="E302" s="38" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F302" s="2"/>
     </row>
     <row r="303" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A303" s="21" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B303" s="33" t="s">
         <v>6</v>
@@ -11824,13 +11828,13 @@
         <v>40</v>
       </c>
       <c r="E303" s="38" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F303" s="2"/>
     </row>
     <row r="304" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A304" s="21" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B304" s="33" t="s">
         <v>51</v>
@@ -11842,13 +11846,13 @@
         <v>40</v>
       </c>
       <c r="E304" s="38" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F304" s="2"/>
     </row>
     <row r="305" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A305" s="21" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B305" s="33" t="s">
         <v>0</v>
@@ -11860,13 +11864,13 @@
         <v>40</v>
       </c>
       <c r="E305" s="38" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F305" s="2"/>
     </row>
     <row r="306" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A306" s="21" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B306" s="33" t="s">
         <v>52</v>
@@ -11878,13 +11882,13 @@
         <v>40</v>
       </c>
       <c r="E306" s="38" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F306" s="2"/>
     </row>
     <row r="307" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A307" s="21" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B307" s="33" t="s">
         <v>53</v>
@@ -11896,13 +11900,13 @@
         <v>40</v>
       </c>
       <c r="E307" s="38" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F307" s="2"/>
     </row>
     <row r="308" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A308" s="21" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B308" s="33" t="s">
         <v>54</v>
@@ -11914,13 +11918,13 @@
         <v>40</v>
       </c>
       <c r="E308" s="38" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F308" s="2"/>
     </row>
     <row r="309" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A309" s="21" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B309" s="33" t="s">
         <v>7</v>
@@ -11932,13 +11936,13 @@
         <v>40</v>
       </c>
       <c r="E309" s="38" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F309" s="2"/>
     </row>
     <row r="310" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A310" s="21" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B310" s="33" t="s">
         <v>8</v>
@@ -11950,13 +11954,13 @@
         <v>40</v>
       </c>
       <c r="E310" s="38" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F310" s="2"/>
     </row>
     <row r="311" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A311" s="21" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B311" s="33" t="s">
         <v>9</v>
@@ -11968,13 +11972,13 @@
         <v>40</v>
       </c>
       <c r="E311" s="38" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F311" s="2"/>
     </row>
     <row r="312" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A312" s="21" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B312" s="33" t="s">
         <v>10</v>
@@ -11986,13 +11990,13 @@
         <v>40</v>
       </c>
       <c r="E312" s="38" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F312" s="2"/>
     </row>
     <row r="313" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A313" s="21" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B313" s="33" t="s">
         <v>55</v>
@@ -12004,13 +12008,13 @@
         <v>40</v>
       </c>
       <c r="E313" s="38" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F313" s="2"/>
     </row>
     <row r="314" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A314" s="21" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B314" s="33" t="s">
         <v>56</v>
@@ -12022,13 +12026,13 @@
         <v>40</v>
       </c>
       <c r="E314" s="38" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F314" s="2"/>
     </row>
     <row r="315" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A315" s="21" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B315" s="33" t="s">
         <v>11</v>
@@ -12040,13 +12044,13 @@
         <v>40</v>
       </c>
       <c r="E315" s="38" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F315" s="2"/>
     </row>
     <row r="316" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A316" s="21" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B316" s="33" t="s">
         <v>34</v>
@@ -12058,13 +12062,13 @@
         <v>40</v>
       </c>
       <c r="E316" s="38" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F316" s="2"/>
     </row>
     <row r="317" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A317" s="21" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B317" s="33" t="s">
         <v>33</v>
@@ -12076,13 +12080,13 @@
         <v>40</v>
       </c>
       <c r="E317" s="38" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F317" s="2"/>
     </row>
     <row r="318" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A318" s="21" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B318" s="33" t="s">
         <v>58</v>
@@ -12094,13 +12098,13 @@
         <v>40</v>
       </c>
       <c r="E318" s="38" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F318" s="2"/>
     </row>
     <row r="319" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A319" s="21" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B319" s="33" t="s">
         <v>13</v>
@@ -12112,13 +12116,13 @@
         <v>39</v>
       </c>
       <c r="E319" s="38" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="F319" s="2"/>
     </row>
     <row r="320" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A320" s="21" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B320" s="33" t="s">
         <v>12</v>
@@ -12130,13 +12134,13 @@
         <v>40</v>
       </c>
       <c r="E320" s="38" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F320" s="2"/>
     </row>
     <row r="321" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A321" s="21" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B321" s="33" t="s">
         <v>14</v>
@@ -12148,13 +12152,13 @@
         <v>40</v>
       </c>
       <c r="E321" s="38" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F321" s="2"/>
     </row>
     <row r="322" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A322" s="21" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B322" s="33" t="s">
         <v>32</v>
@@ -12166,13 +12170,13 @@
         <v>40</v>
       </c>
       <c r="E322" s="38" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F322" s="2"/>
     </row>
     <row r="323" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A323" s="21" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B323" s="33" t="s">
         <v>59</v>
@@ -12184,13 +12188,13 @@
         <v>39</v>
       </c>
       <c r="E323" s="38" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="F323" s="2"/>
     </row>
     <row r="324" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A324" s="21" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B324" s="33" t="s">
         <v>60</v>
@@ -12202,13 +12206,13 @@
         <v>40</v>
       </c>
       <c r="E324" s="38" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F324" s="2"/>
     </row>
     <row r="325" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A325" s="21" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B325" s="33" t="s">
         <v>15</v>
@@ -12220,13 +12224,13 @@
         <v>40</v>
       </c>
       <c r="E325" s="38" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F325" s="2"/>
     </row>
     <row r="326" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A326" s="21" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B326" s="33" t="s">
         <v>61</v>
@@ -12238,13 +12242,13 @@
         <v>40</v>
       </c>
       <c r="E326" s="38" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F326" s="2"/>
     </row>
     <row r="327" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A327" s="21" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B327" s="33" t="s">
         <v>16</v>
@@ -12256,13 +12260,13 @@
         <v>40</v>
       </c>
       <c r="E327" s="38" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F327" s="2"/>
     </row>
     <row r="328" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A328" s="21" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B328" s="33" t="s">
         <v>17</v>
@@ -12274,13 +12278,13 @@
         <v>40</v>
       </c>
       <c r="E328" s="38" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F328" s="2"/>
     </row>
     <row r="329" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A329" s="21" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B329" s="33" t="s">
         <v>63</v>
@@ -12292,13 +12296,13 @@
         <v>40</v>
       </c>
       <c r="E329" s="38" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F329" s="2"/>
     </row>
     <row r="330" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A330" s="21" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B330" s="33" t="s">
         <v>64</v>
@@ -12310,13 +12314,13 @@
         <v>40</v>
       </c>
       <c r="E330" s="38" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F330" s="2"/>
     </row>
     <row r="331" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A331" s="21" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B331" s="33" t="s">
         <v>18</v>
@@ -12328,13 +12332,13 @@
         <v>40</v>
       </c>
       <c r="E331" s="38" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F331" s="2"/>
     </row>
     <row r="332" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A332" s="21" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B332" s="33" t="s">
         <v>65</v>
@@ -12346,13 +12350,13 @@
         <v>40</v>
       </c>
       <c r="E332" s="38" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F332" s="2"/>
     </row>
     <row r="333" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A333" s="21" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B333" s="33" t="s">
         <v>19</v>
@@ -12364,13 +12368,13 @@
         <v>40</v>
       </c>
       <c r="E333" s="38" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F333" s="2"/>
     </row>
     <row r="334" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A334" s="21" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B334" s="33" t="s">
         <v>66</v>
@@ -12382,13 +12386,13 @@
         <v>40</v>
       </c>
       <c r="E334" s="38" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F334" s="2"/>
     </row>
     <row r="335" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A335" s="21" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B335" s="33" t="s">
         <v>67</v>
@@ -12400,13 +12404,13 @@
         <v>40</v>
       </c>
       <c r="E335" s="38" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F335" s="2"/>
     </row>
     <row r="336" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A336" s="21" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B336" s="33" t="s">
         <v>68</v>
@@ -12418,13 +12422,13 @@
         <v>40</v>
       </c>
       <c r="E336" s="38" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F336" s="2"/>
     </row>
     <row r="337" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A337" s="21" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B337" s="33" t="s">
         <v>20</v>
@@ -12436,13 +12440,13 @@
         <v>40</v>
       </c>
       <c r="E337" s="38" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F337" s="2"/>
     </row>
     <row r="338" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A338" s="21" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B338" s="33" t="s">
         <v>21</v>
@@ -12454,13 +12458,13 @@
         <v>40</v>
       </c>
       <c r="E338" s="38" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F338" s="2"/>
     </row>
     <row r="339" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A339" s="21" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B339" s="33" t="s">
         <v>22</v>
@@ -12472,13 +12476,13 @@
         <v>40</v>
       </c>
       <c r="E339" s="38" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F339" s="2"/>
     </row>
     <row r="340" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A340" s="21" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B340" s="33" t="s">
         <v>31</v>
@@ -12490,13 +12494,13 @@
         <v>40</v>
       </c>
       <c r="E340" s="38" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F340" s="2"/>
     </row>
     <row r="341" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A341" s="21" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B341" s="33" t="s">
         <v>69</v>
@@ -12508,13 +12512,13 @@
         <v>40</v>
       </c>
       <c r="E341" s="38" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F341" s="2"/>
     </row>
     <row r="342" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A342" s="21" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B342" s="33" t="s">
         <v>23</v>
@@ -12526,16 +12530,16 @@
         <v>40</v>
       </c>
       <c r="E342" s="38" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F342" s="2"/>
     </row>
     <row r="343" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A343" s="21" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B343" s="33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C343" s="22">
         <v>2017</v>
@@ -12544,13 +12548,13 @@
         <v>40</v>
       </c>
       <c r="E343" s="38" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F343" s="2"/>
     </row>
     <row r="344" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A344" s="21" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B344" s="33" t="s">
         <v>24</v>
@@ -12562,13 +12566,13 @@
         <v>40</v>
       </c>
       <c r="E344" s="38" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F344" s="2"/>
     </row>
     <row r="345" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A345" s="21" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B345" s="33" t="s">
         <v>25</v>
@@ -12580,13 +12584,13 @@
         <v>40</v>
       </c>
       <c r="E345" s="38" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F345" s="2"/>
     </row>
     <row r="346" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A346" s="21" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B346" s="33" t="s">
         <v>26</v>
@@ -12598,13 +12602,13 @@
         <v>40</v>
       </c>
       <c r="E346" s="38" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F346" s="2"/>
     </row>
     <row r="347" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A347" s="21" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B347" s="33" t="s">
         <v>71</v>
@@ -12616,13 +12620,13 @@
         <v>40</v>
       </c>
       <c r="E347" s="38" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F347" s="2"/>
     </row>
     <row r="348" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A348" s="21" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B348" s="33" t="s">
         <v>27</v>
@@ -12634,13 +12638,13 @@
         <v>40</v>
       </c>
       <c r="E348" s="38" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F348" s="2"/>
     </row>
     <row r="349" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A349" s="21" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B349" s="33" t="s">
         <v>28</v>
@@ -12652,13 +12656,13 @@
         <v>40</v>
       </c>
       <c r="E349" s="38" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F349" s="2"/>
     </row>
     <row r="350" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A350" s="21" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B350" s="33" t="s">
         <v>29</v>
@@ -12670,13 +12674,13 @@
         <v>40</v>
       </c>
       <c r="E350" s="38" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F350" s="2"/>
     </row>
     <row r="351" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A351" s="21" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B351" s="33" t="s">
         <v>30</v>
@@ -12688,13 +12692,13 @@
         <v>40</v>
       </c>
       <c r="E351" s="38" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F351" s="2"/>
     </row>
     <row r="352" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A352" s="21" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B352" s="33" t="s">
         <v>50</v>
@@ -12706,13 +12710,13 @@
         <v>40</v>
       </c>
       <c r="E352" s="38" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="F352" s="2"/>
     </row>
     <row r="353" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A353" s="21" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B353" s="33" t="s">
         <v>6</v>
@@ -12724,13 +12728,13 @@
         <v>38</v>
       </c>
       <c r="E353" s="38" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F353" s="2"/>
     </row>
     <row r="354" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A354" s="21" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B354" s="33" t="s">
         <v>51</v>
@@ -12742,13 +12746,13 @@
         <v>39</v>
       </c>
       <c r="E354" s="38" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F354" s="2"/>
     </row>
     <row r="355" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A355" s="21" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B355" s="33" t="s">
         <v>0</v>
@@ -12760,13 +12764,13 @@
         <v>38</v>
       </c>
       <c r="E355" s="38" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="F355" s="2"/>
     </row>
     <row r="356" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A356" s="21" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B356" s="33" t="s">
         <v>52</v>
@@ -12778,13 +12782,13 @@
         <v>40</v>
       </c>
       <c r="E356" s="38" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F356" s="2"/>
     </row>
     <row r="357" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A357" s="21" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B357" s="33" t="s">
         <v>53</v>
@@ -12796,13 +12800,13 @@
         <v>38</v>
       </c>
       <c r="E357" s="38" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F357" s="2"/>
     </row>
     <row r="358" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A358" s="21" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B358" s="33" t="s">
         <v>54</v>
@@ -12814,13 +12818,13 @@
         <v>39</v>
       </c>
       <c r="E358" s="38" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F358" s="2"/>
     </row>
     <row r="359" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A359" s="21" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B359" s="33" t="s">
         <v>7</v>
@@ -12832,13 +12836,13 @@
         <v>38</v>
       </c>
       <c r="E359" s="38" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="F359" s="2"/>
     </row>
     <row r="360" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A360" s="21" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B360" s="33" t="s">
         <v>8</v>
@@ -12850,13 +12854,13 @@
         <v>40</v>
       </c>
       <c r="E360" s="38" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F360" s="2"/>
     </row>
     <row r="361" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A361" s="21" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B361" s="33" t="s">
         <v>9</v>
@@ -12868,13 +12872,13 @@
         <v>38</v>
       </c>
       <c r="E361" s="38" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="F361" s="2"/>
     </row>
     <row r="362" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A362" s="21" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B362" s="33" t="s">
         <v>10</v>
@@ -12886,13 +12890,13 @@
         <v>39</v>
       </c>
       <c r="E362" s="38" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="F362" s="2"/>
     </row>
     <row r="363" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A363" s="21" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B363" s="33" t="s">
         <v>55</v>
@@ -12904,13 +12908,13 @@
         <v>38</v>
       </c>
       <c r="E363" s="38" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F363" s="2"/>
     </row>
     <row r="364" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A364" s="21" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B364" s="33" t="s">
         <v>56</v>
@@ -12922,13 +12926,13 @@
         <v>38</v>
       </c>
       <c r="E364" s="38" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F364" s="2"/>
     </row>
     <row r="365" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A365" s="21" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B365" s="33" t="s">
         <v>11</v>
@@ -12940,13 +12944,13 @@
         <v>38</v>
       </c>
       <c r="E365" s="38" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="F365" s="2"/>
     </row>
     <row r="366" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A366" s="21" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B366" s="33" t="s">
         <v>34</v>
@@ -12958,13 +12962,13 @@
         <v>40</v>
       </c>
       <c r="E366" s="38" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F366" s="2"/>
     </row>
     <row r="367" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A367" s="21" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B367" s="33" t="s">
         <v>33</v>
@@ -12976,13 +12980,13 @@
         <v>40</v>
       </c>
       <c r="E367" s="38" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="F367" s="2"/>
     </row>
     <row r="368" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A368" s="21" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B368" s="33" t="s">
         <v>58</v>
@@ -12994,13 +12998,13 @@
         <v>40</v>
       </c>
       <c r="E368" s="38" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F368" s="2"/>
     </row>
     <row r="369" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A369" s="21" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B369" s="33" t="s">
         <v>13</v>
@@ -13012,13 +13016,13 @@
         <v>39</v>
       </c>
       <c r="E369" s="38" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="F369" s="2"/>
     </row>
     <row r="370" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A370" s="21" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B370" s="33" t="s">
         <v>12</v>
@@ -13030,13 +13034,13 @@
         <v>38</v>
       </c>
       <c r="E370" s="38" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F370" s="2"/>
     </row>
     <row r="371" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A371" s="21" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B371" s="33" t="s">
         <v>14</v>
@@ -13048,13 +13052,13 @@
         <v>38</v>
       </c>
       <c r="E371" s="38" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F371" s="2"/>
     </row>
     <row r="372" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A372" s="21" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B372" s="33" t="s">
         <v>32</v>
@@ -13066,13 +13070,13 @@
         <v>40</v>
       </c>
       <c r="E372" s="38" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="F372" s="2"/>
     </row>
     <row r="373" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A373" s="21" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B373" s="33" t="s">
         <v>59</v>
@@ -13084,13 +13088,13 @@
         <v>38</v>
       </c>
       <c r="E373" s="41" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="F373" s="2"/>
     </row>
     <row r="374" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A374" s="21" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B374" s="33" t="s">
         <v>60</v>
@@ -13102,13 +13106,13 @@
         <v>38</v>
       </c>
       <c r="E374" s="38" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="F374" s="2"/>
     </row>
     <row r="375" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A375" s="21" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B375" s="33" t="s">
         <v>15</v>
@@ -13120,13 +13124,13 @@
         <v>40</v>
       </c>
       <c r="E375" s="38" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="F375" s="2"/>
     </row>
     <row r="376" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A376" s="21" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B376" s="33" t="s">
         <v>61</v>
@@ -13138,13 +13142,13 @@
         <v>38</v>
       </c>
       <c r="E376" s="38" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F376" s="2"/>
     </row>
     <row r="377" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A377" s="21" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B377" s="33" t="s">
         <v>16</v>
@@ -13156,13 +13160,13 @@
         <v>39</v>
       </c>
       <c r="E377" s="38" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="F377" s="2"/>
     </row>
     <row r="378" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A378" s="21" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B378" s="33" t="s">
         <v>17</v>
@@ -13174,13 +13178,13 @@
         <v>39</v>
       </c>
       <c r="E378" s="38" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F378" s="2"/>
     </row>
     <row r="379" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A379" s="21" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B379" s="33" t="s">
         <v>63</v>
@@ -13192,13 +13196,13 @@
         <v>40</v>
       </c>
       <c r="E379" s="38" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="F379" s="2"/>
     </row>
     <row r="380" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A380" s="21" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B380" s="33" t="s">
         <v>64</v>
@@ -13210,13 +13214,13 @@
         <v>40</v>
       </c>
       <c r="E380" s="38" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="F380" s="2"/>
     </row>
     <row r="381" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A381" s="21" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B381" s="33" t="s">
         <v>18</v>
@@ -13228,13 +13232,13 @@
         <v>39</v>
       </c>
       <c r="E381" s="38" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F381" s="2"/>
     </row>
     <row r="382" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A382" s="21" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B382" s="33" t="s">
         <v>65</v>
@@ -13246,13 +13250,13 @@
         <v>39</v>
       </c>
       <c r="E382" s="38" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="F382" s="2"/>
     </row>
     <row r="383" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A383" s="21" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B383" s="33" t="s">
         <v>19</v>
@@ -13264,13 +13268,13 @@
         <v>40</v>
       </c>
       <c r="E383" s="41" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F383" s="2"/>
     </row>
     <row r="384" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A384" s="21" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B384" s="33" t="s">
         <v>66</v>
@@ -13282,13 +13286,13 @@
         <v>40</v>
       </c>
       <c r="E384" s="41" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="F384" s="2"/>
     </row>
     <row r="385" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A385" s="21" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B385" s="33" t="s">
         <v>67</v>
@@ -13300,13 +13304,13 @@
         <v>39</v>
       </c>
       <c r="E385" s="38" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="F385" s="2"/>
     </row>
     <row r="386" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A386" s="21" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B386" s="33" t="s">
         <v>68</v>
@@ -13318,13 +13322,13 @@
         <v>40</v>
       </c>
       <c r="E386" s="41" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="F386" s="2"/>
     </row>
     <row r="387" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A387" s="21" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B387" s="33" t="s">
         <v>20</v>
@@ -13336,13 +13340,13 @@
         <v>38</v>
       </c>
       <c r="E387" s="38" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="F387" s="2"/>
     </row>
     <row r="388" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A388" s="21" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B388" s="33" t="s">
         <v>21</v>
@@ -13354,13 +13358,13 @@
         <v>38</v>
       </c>
       <c r="E388" s="38" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="F388" s="2"/>
     </row>
     <row r="389" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A389" s="21" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B389" s="33" t="s">
         <v>22</v>
@@ -13372,13 +13376,13 @@
         <v>39</v>
       </c>
       <c r="E389" s="38" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="F389" s="2"/>
     </row>
     <row r="390" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A390" s="21" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B390" s="33" t="s">
         <v>31</v>
@@ -13390,13 +13394,13 @@
         <v>39</v>
       </c>
       <c r="E390" s="38" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="F390" s="2"/>
     </row>
     <row r="391" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A391" s="21" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B391" s="33" t="s">
         <v>69</v>
@@ -13408,13 +13412,13 @@
         <v>40</v>
       </c>
       <c r="E391" s="41" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="F391" s="2"/>
     </row>
     <row r="392" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A392" s="21" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B392" s="33" t="s">
         <v>23</v>
@@ -13426,16 +13430,16 @@
         <v>39</v>
       </c>
       <c r="E392" s="41" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="F392" s="2"/>
     </row>
     <row r="393" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A393" s="21" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B393" s="33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C393" s="22">
         <v>2017</v>
@@ -13444,15 +13448,15 @@
         <v>38</v>
       </c>
       <c r="E393" s="41" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="F393" s="2"/>
     </row>
     <row r="394" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A394" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="B394" s="33" t="s">
+        <v>337</v>
+      </c>
+      <c r="B394" s="43" t="s">
         <v>24</v>
       </c>
       <c r="C394" s="22">
@@ -13461,14 +13465,14 @@
       <c r="D394" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="E394" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="F394" s="2"/>
+      <c r="E394" s="42" t="s">
+        <v>420</v>
+      </c>
+      <c r="F394" s="1"/>
     </row>
     <row r="395" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A395" s="21" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B395" s="33" t="s">
         <v>25</v>
@@ -13480,13 +13484,13 @@
         <v>40</v>
       </c>
       <c r="E395" s="41" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F395" s="2"/>
     </row>
     <row r="396" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A396" s="21" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B396" s="33" t="s">
         <v>26</v>
@@ -13498,13 +13502,13 @@
         <v>38</v>
       </c>
       <c r="E396" s="41" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="F396" s="2"/>
     </row>
     <row r="397" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A397" s="21" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B397" s="33" t="s">
         <v>71</v>
@@ -13516,13 +13520,13 @@
         <v>39</v>
       </c>
       <c r="E397" s="38" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="F397" s="2"/>
     </row>
     <row r="398" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A398" s="21" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B398" s="33" t="s">
         <v>27</v>
@@ -13534,13 +13538,13 @@
         <v>38</v>
       </c>
       <c r="E398" s="38" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F398" s="2"/>
     </row>
     <row r="399" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A399" s="21" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B399" s="33" t="s">
         <v>28</v>
@@ -13552,13 +13556,13 @@
         <v>38</v>
       </c>
       <c r="E399" s="38" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F399" s="2"/>
     </row>
     <row r="400" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A400" s="21" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B400" s="33" t="s">
         <v>29</v>
@@ -13570,13 +13574,13 @@
         <v>40</v>
       </c>
       <c r="E400" s="41" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="F400" s="2"/>
     </row>
     <row r="401" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A401" s="21" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B401" s="33" t="s">
         <v>30</v>
@@ -13588,13 +13592,13 @@
         <v>38</v>
       </c>
       <c r="E401" s="38" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="F401" s="2"/>
     </row>
     <row r="402" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A402" s="21" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B402" s="33" t="s">
         <v>50</v>
@@ -13606,13 +13610,13 @@
         <v>40</v>
       </c>
       <c r="E402" s="38" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="F402" s="2"/>
     </row>
     <row r="403" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A403" s="21" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B403" s="33" t="s">
         <v>6</v>
@@ -13624,13 +13628,13 @@
         <v>40</v>
       </c>
       <c r="E403" s="41" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="F403" s="2"/>
     </row>
     <row r="404" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A404" s="21" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B404" s="33" t="s">
         <v>51</v>
@@ -13642,13 +13646,13 @@
         <v>38</v>
       </c>
       <c r="E404" s="38" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F404" s="2"/>
     </row>
     <row r="405" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A405" s="21" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B405" s="33" t="s">
         <v>0</v>
@@ -13660,13 +13664,13 @@
         <v>38</v>
       </c>
       <c r="E405" s="38" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="F405" s="2"/>
     </row>
     <row r="406" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A406" s="21" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B406" s="33" t="s">
         <v>52</v>
@@ -13678,13 +13682,13 @@
         <v>38</v>
       </c>
       <c r="E406" s="38" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F406" s="2"/>
     </row>
     <row r="407" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A407" s="21" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B407" s="33" t="s">
         <v>53</v>
@@ -13696,13 +13700,13 @@
         <v>40</v>
       </c>
       <c r="E407" s="38" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="F407" s="2"/>
     </row>
     <row r="408" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A408" s="21" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B408" s="33" t="s">
         <v>54</v>
@@ -13714,13 +13718,13 @@
         <v>38</v>
       </c>
       <c r="E408" s="38" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="F408" s="2"/>
     </row>
     <row r="409" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A409" s="21" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B409" s="33" t="s">
         <v>7</v>
@@ -13732,13 +13736,13 @@
         <v>39</v>
       </c>
       <c r="E409" s="38" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="F409" s="2"/>
     </row>
     <row r="410" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A410" s="21" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B410" s="33" t="s">
         <v>8</v>
@@ -13750,13 +13754,13 @@
         <v>38</v>
       </c>
       <c r="E410" s="38" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F410" s="2"/>
     </row>
     <row r="411" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A411" s="21" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B411" s="33" t="s">
         <v>9</v>
@@ -13768,13 +13772,13 @@
         <v>38</v>
       </c>
       <c r="E411" s="38" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="F411" s="2"/>
     </row>
     <row r="412" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A412" s="21" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B412" s="33" t="s">
         <v>10</v>
@@ -13786,13 +13790,13 @@
         <v>38</v>
       </c>
       <c r="E412" s="38" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="F412" s="2"/>
     </row>
     <row r="413" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A413" s="21" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B413" s="33" t="s">
         <v>55</v>
@@ -13804,13 +13808,13 @@
         <v>38</v>
       </c>
       <c r="E413" s="38" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F413" s="2"/>
     </row>
     <row r="414" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A414" s="21" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B414" s="33" t="s">
         <v>56</v>
@@ -13822,13 +13826,13 @@
         <v>38</v>
       </c>
       <c r="E414" s="38" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="F414" s="2"/>
     </row>
     <row r="415" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A415" s="21" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B415" s="33" t="s">
         <v>11</v>
@@ -13840,13 +13844,13 @@
         <v>38</v>
       </c>
       <c r="E415" s="38" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="F415" s="2"/>
     </row>
     <row r="416" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A416" s="21" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B416" s="33" t="s">
         <v>34</v>
@@ -13858,13 +13862,13 @@
         <v>39</v>
       </c>
       <c r="E416" s="38" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="F416" s="2"/>
     </row>
     <row r="417" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A417" s="21" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B417" s="33" t="s">
         <v>33</v>
@@ -13876,13 +13880,13 @@
         <v>38</v>
       </c>
       <c r="E417" s="38" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F417" s="2"/>
     </row>
     <row r="418" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A418" s="21" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B418" s="33" t="s">
         <v>58</v>
@@ -13894,13 +13898,13 @@
         <v>38</v>
       </c>
       <c r="E418" s="38" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F418" s="2"/>
     </row>
     <row r="419" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A419" s="21" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B419" s="33" t="s">
         <v>13</v>
@@ -13912,13 +13916,13 @@
         <v>38</v>
       </c>
       <c r="E419" s="38" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="F419" s="2"/>
     </row>
     <row r="420" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A420" s="21" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B420" s="33" t="s">
         <v>12</v>
@@ -13930,13 +13934,13 @@
         <v>38</v>
       </c>
       <c r="E420" s="38" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="F420" s="2"/>
     </row>
     <row r="421" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A421" s="21" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B421" s="33" t="s">
         <v>14</v>
@@ -13948,13 +13952,13 @@
         <v>38</v>
       </c>
       <c r="E421" s="38" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F421" s="2"/>
     </row>
     <row r="422" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A422" s="21" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B422" s="33" t="s">
         <v>32</v>
@@ -13966,13 +13970,13 @@
         <v>38</v>
       </c>
       <c r="E422" s="38" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="F422" s="2"/>
     </row>
     <row r="423" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A423" s="21" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B423" s="33" t="s">
         <v>59</v>
@@ -13984,13 +13988,13 @@
         <v>38</v>
       </c>
       <c r="E423" s="38" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="F423" s="2"/>
     </row>
     <row r="424" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A424" s="21" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B424" s="33" t="s">
         <v>60</v>
@@ -14002,13 +14006,13 @@
         <v>39</v>
       </c>
       <c r="E424" s="38" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F424" s="2"/>
     </row>
     <row r="425" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A425" s="21" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B425" s="33" t="s">
         <v>15</v>
@@ -14020,13 +14024,13 @@
         <v>38</v>
       </c>
       <c r="E425" s="38" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="F425" s="2"/>
     </row>
     <row r="426" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A426" s="21" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B426" s="33" t="s">
         <v>61</v>
@@ -14038,13 +14042,13 @@
         <v>40</v>
       </c>
       <c r="E426" s="38" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="F426" s="2"/>
     </row>
     <row r="427" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A427" s="21" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B427" s="33" t="s">
         <v>16</v>
@@ -14056,13 +14060,13 @@
         <v>38</v>
       </c>
       <c r="E427" s="38" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="F427" s="2"/>
     </row>
     <row r="428" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A428" s="21" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B428" s="33" t="s">
         <v>17</v>
@@ -14074,13 +14078,13 @@
         <v>38</v>
       </c>
       <c r="E428" s="38" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F428" s="2"/>
     </row>
     <row r="429" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A429" s="21" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B429" s="33" t="s">
         <v>63</v>
@@ -14092,13 +14096,13 @@
         <v>39</v>
       </c>
       <c r="E429" s="38" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="F429" s="2"/>
     </row>
     <row r="430" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A430" s="21" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B430" s="33" t="s">
         <v>64</v>
@@ -14110,13 +14114,13 @@
         <v>40</v>
       </c>
       <c r="E430" s="38" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="F430" s="2"/>
     </row>
     <row r="431" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A431" s="21" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B431" s="33" t="s">
         <v>18</v>
@@ -14128,13 +14132,13 @@
         <v>39</v>
       </c>
       <c r="E431" s="38" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F431" s="2"/>
     </row>
     <row r="432" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A432" s="21" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B432" s="33" t="s">
         <v>65</v>
@@ -14146,13 +14150,13 @@
         <v>40</v>
       </c>
       <c r="E432" s="38" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="F432" s="2"/>
     </row>
     <row r="433" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A433" s="21" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B433" s="33" t="s">
         <v>19</v>
@@ -14164,13 +14168,13 @@
         <v>38</v>
       </c>
       <c r="E433" s="38" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="F433" s="2"/>
     </row>
     <row r="434" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A434" s="21" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B434" s="33" t="s">
         <v>66</v>
@@ -14182,13 +14186,13 @@
         <v>39</v>
       </c>
       <c r="E434" s="38" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="F434" s="2"/>
     </row>
     <row r="435" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A435" s="21" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B435" s="33" t="s">
         <v>67</v>
@@ -14200,13 +14204,13 @@
         <v>38</v>
       </c>
       <c r="E435" s="38" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="F435" s="2"/>
     </row>
     <row r="436" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A436" s="21" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B436" s="33" t="s">
         <v>68</v>
@@ -14218,13 +14222,13 @@
         <v>38</v>
       </c>
       <c r="E436" s="38" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="F436" s="2"/>
     </row>
     <row r="437" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A437" s="21" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B437" s="33" t="s">
         <v>20</v>
@@ -14236,13 +14240,13 @@
         <v>38</v>
       </c>
       <c r="E437" s="38" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="F437" s="2"/>
     </row>
     <row r="438" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A438" s="21" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B438" s="33" t="s">
         <v>21</v>
@@ -14254,13 +14258,13 @@
         <v>38</v>
       </c>
       <c r="E438" s="38" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="F438" s="2"/>
     </row>
     <row r="439" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A439" s="21" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B439" s="33" t="s">
         <v>22</v>
@@ -14272,13 +14276,13 @@
         <v>38</v>
       </c>
       <c r="E439" s="38" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="F439" s="2"/>
     </row>
     <row r="440" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A440" s="21" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B440" s="33" t="s">
         <v>31</v>
@@ -14290,13 +14294,13 @@
         <v>38</v>
       </c>
       <c r="E440" s="38" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="F440" s="2"/>
     </row>
     <row r="441" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A441" s="21" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B441" s="33" t="s">
         <v>69</v>
@@ -14308,13 +14312,13 @@
         <v>38</v>
       </c>
       <c r="E441" s="38" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="F441" s="2"/>
     </row>
     <row r="442" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A442" s="21" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B442" s="33" t="s">
         <v>23</v>
@@ -14326,16 +14330,16 @@
         <v>38</v>
       </c>
       <c r="E442" s="38" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="F442" s="2"/>
     </row>
     <row r="443" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A443" s="21" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B443" s="33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C443" s="22">
         <v>2017</v>
@@ -14344,31 +14348,31 @@
         <v>39</v>
       </c>
       <c r="E443" s="41" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="F443" s="2"/>
     </row>
     <row r="444" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A444" s="21" t="s">
-        <v>345</v>
-      </c>
-      <c r="B444" s="33" t="s">
+        <v>338</v>
+      </c>
+      <c r="B444" s="43" t="s">
         <v>24</v>
       </c>
       <c r="C444" s="22">
         <v>2017</v>
       </c>
-      <c r="D444" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="E444" s="38" t="s">
-        <v>238</v>
-      </c>
-      <c r="F444" s="2"/>
+      <c r="D444" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="E444" s="42" t="s">
+        <v>421</v>
+      </c>
+      <c r="F444" s="1"/>
     </row>
     <row r="445" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A445" s="21" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B445" s="33" t="s">
         <v>25</v>
@@ -14380,13 +14384,13 @@
         <v>38</v>
       </c>
       <c r="E445" s="38" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="F445" s="2"/>
     </row>
     <row r="446" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A446" s="21" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B446" s="33" t="s">
         <v>26</v>
@@ -14398,13 +14402,13 @@
         <v>38</v>
       </c>
       <c r="E446" s="38" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="F446" s="2"/>
     </row>
     <row r="447" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A447" s="21" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B447" s="33" t="s">
         <v>71</v>
@@ -14416,13 +14420,13 @@
         <v>38</v>
       </c>
       <c r="E447" s="38" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="F447" s="2"/>
     </row>
     <row r="448" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A448" s="21" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B448" s="33" t="s">
         <v>27</v>
@@ -14434,13 +14438,13 @@
         <v>38</v>
       </c>
       <c r="E448" s="38" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="F448" s="2"/>
     </row>
     <row r="449" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A449" s="21" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B449" s="33" t="s">
         <v>28</v>
@@ -14452,13 +14456,13 @@
         <v>40</v>
       </c>
       <c r="E449" s="38" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="F449" s="2"/>
     </row>
     <row r="450" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A450" s="21" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B450" s="33" t="s">
         <v>29</v>
@@ -14470,13 +14474,13 @@
         <v>38</v>
       </c>
       <c r="E450" s="41" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="F450" s="2"/>
     </row>
     <row r="451" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A451" s="21" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B451" s="33" t="s">
         <v>30</v>
@@ -14488,7 +14492,7 @@
         <v>39</v>
       </c>
       <c r="E451" s="41" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="F451" s="2"/>
     </row>
@@ -16552,8 +16556,11 @@
       <c r="E960" s="39"/>
     </row>
   </sheetData>
-  <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" sqref="C2:C22 C24:C451">
+  <dataValidations disablePrompts="1" count="2">
+    <dataValidation type="list" sqref="C2:C22 C24:C93 C95:C193 C195:C243 C245:C393 C395:C443 C445:C451">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="C94 C194 C244 C394 C444">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -16803,7 +16810,7 @@
         <v>79</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -16814,10 +16821,10 @@
     </row>
     <row r="11" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -16828,10 +16835,10 @@
     </row>
     <row r="12" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -16842,42 +16849,42 @@
     </row>
     <row r="13" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>

--- a/Simple_XLS_Importer/data/NKT-VGGT16/2017-NKT-VGGT-16.3.xlsx
+++ b/Simple_XLS_Importer/data/NKT-VGGT16/2017-NKT-VGGT-16.3.xlsx
@@ -6413,8 +6413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J960"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A277" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E294" activeCellId="1" sqref="E294 E294"/>
+    <sheetView tabSelected="1" topLeftCell="A236" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D244" sqref="D244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -10762,8 +10762,8 @@
       <c r="C244" s="22">
         <v>2017</v>
       </c>
-      <c r="D244" s="29" t="s">
-        <v>38</v>
+      <c r="D244" s="31" t="s">
+        <v>39</v>
       </c>
       <c r="E244" s="42" t="s">
         <v>419</v>
@@ -16556,7 +16556,7 @@
       <c r="E960" s="39"/>
     </row>
   </sheetData>
-  <dataValidations disablePrompts="1" count="2">
+  <dataValidations count="2">
     <dataValidation type="list" sqref="C2:C22 C24:C93 C95:C193 C195:C243 C245:C393 C395:C443 C445:C451">
       <formula1>#REF!</formula1>
     </dataValidation>

--- a/Simple_XLS_Importer/data/NKT-VGGT16/2017-NKT-VGGT-16.3.xlsx
+++ b/Simple_XLS_Importer/data/NKT-VGGT16/2017-NKT-VGGT-16.3.xlsx
@@ -6413,8 +6413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J960"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A236" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D244" sqref="D244"/>
+    <sheetView tabSelected="1" topLeftCell="A230" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D236" sqref="D236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -10618,8 +10618,8 @@
       <c r="C236" s="22">
         <v>2017</v>
       </c>
-      <c r="D236" s="31" t="s">
-        <v>39</v>
+      <c r="D236" s="30" t="s">
+        <v>40</v>
       </c>
       <c r="E236" s="38" t="s">
         <v>282</v>

--- a/Simple_XLS_Importer/data/NKT-VGGT16/2017-NKT-VGGT-16.3.xlsx
+++ b/Simple_XLS_Importer/data/NKT-VGGT16/2017-NKT-VGGT-16.3.xlsx
@@ -9,14 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="840" yWindow="0" windowWidth="23616" windowHeight="14796"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="3" r:id="rId1"/>
     <sheet name="metadata" sheetId="4" r:id="rId2"/>
     <sheet name="Legend" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -380,9 +385,6 @@
     <t>Section 126(b) of the Land Act, 2012 provides that "the compensation to be paid under section 120 shall be limited to the damage done to trees, plants, growing crops and permanent improvements on the land, together with a periodical sum for diminution in the profits of the land and of adjoining land by reason of that use."</t>
   </si>
   <si>
-    <t>Article 6 of the Decree on the Compensation and Resettlement of the Development Project, 2005 provides "Project owners shall compensate project affected people for their lost rights to use land and for their lost assets (structures, crops, trees and other fixed assets) affected in full or in part, at replacement cost."</t>
-  </si>
-  <si>
     <t>The Constitution of Liberia, 1984 does not provide compensation for improvements.</t>
   </si>
   <si>
@@ -449,9 +451,6 @@
     <t>Section 24 of the Immovable Property Expropriation Act, 1987 provides that compensation for a higher price of land shall not be calculated as a result “(1) tenement or construction built or constructed on, or agricultural cultivation, development or lease on, that land after the date the Royal Decree...comes into force without permission of the officer, except planting of rice, farming or gardening done in regular manner” Thus, the answer is partial because only improvements related to planting of rice, farming or gardening and other types of improvements permitted by the “officer” can be included in the assessment of compensation.</t>
   </si>
   <si>
-    <t>Article 11 of Decree on the Compensation and Resettlement of the Development Project, 2005 provides that "During planning, construction and operation periods, project owners shall consider local cultural and religious properties, practices and beliefs."</t>
-  </si>
-  <si>
     <t>Section 151 of the Land Act, 2007 states "there shall be a Property Assessment and Valuation Agency established under the Ministry of Finance to valuate and fix the value of land and any other collateral property that may be acquired. The valuation of the land and property shall consider the total registered area, registered land category, its current use, location in relation to accessibility to vehicular road, immovable property, local market value, and other elements such as scenic beauty, cultural and historical factors, where applicable."</t>
   </si>
   <si>
@@ -512,9 +511,6 @@
     <t>The law provides affected persons with a right to negotiate compensation levels. Under the standard (non-emergency) expropriation process, the government must negotiate with individual landowners to set compensation levels. (Art. 35.5, Law on Allocation of Land to Mongolian Citizens for Ownership).</t>
   </si>
   <si>
-    <t>The law provides affected persons with a right to negotiate compensation levels. Article 12 of the Decree on the Compensation and Resettlement of the Development Project, 2005 provides that "The project owners shall implement the resettlement program in a participatory manner ensuring that APs, local authorities and other stakeholder are fully informed and consulted and their concerns are taken into account at all stages of the project cycle, particularly during the planning and implementation phases of the land acquisition, valuation and resettlement process."</t>
-  </si>
-  <si>
     <t>The law provides affected persons with a right to negotiate compensation levels. Pursuant to Article 65(5) of the Law on State-owned Property, 2011 the standing committee of the local legislature is required to meet with those whose rights will be affected to discuss compensation, but not the public. Under Article 65(6) of the Law on State-Owned Property, the standing committee and affected persons must reach on agreement on the price of the withdrawn parcel of land, the payment due date, and other issues.</t>
   </si>
   <si>
@@ -698,9 +694,6 @@
     <t>Article 88 of the Land Code, 2003 states "If the owner or non-state land user disagrees with the decision to purchase his land for public needs, or with no agreement on the price of the redeemed land or other terms of redemption, the local executive authority which decided on redemption may bring a lawsuit on redemption of the land. Such action may be brought after one year but not later than two years from the date of the owner of the land user or non-site notification referred to in paragraph 2 of Article 85 of this Code, unless otherwise provided by legislative acts of the Republic of Kazakhstan. The land owner or land user has the right to non-state challenge in court the decision of the local executive body of the redemption of his land (land use rights)."</t>
   </si>
   <si>
-    <t>Article 13(2) of the Decree on Compensation and Resettlement of the Development Project, 2005 provides that "Project owners in consultation with concerned government authorities, shall establish a Grievance Redress Committee to address complaints and grievances pertaining to land acquisition, compensation and resettlement due to the project."</t>
-  </si>
-  <si>
     <t>Article 59 of the Land Act, 2010 provides that "Where conflicting claims are submitted to the Minister pursuant to section 58(1), the Minister shall, within one month from the last day of the period prescribed in section 58(1), refer the case to a District Land Court having jurisdiction in the area where the land in question is situate."</t>
   </si>
   <si>
@@ -828,15 +821,6 @@
   </si>
   <si>
     <t>Section 115 states that compensation must be paid "promptly"; however, the law does not establish that compensation must be paid prior to the taking of possession or within a specified timeframe thereafter.</t>
-  </si>
-  <si>
-    <t>Article 3(c) of the Decree on the Compensation and Resettlement for Development Project, 2005 provides "Replacement Cost is the amount in cash or in kind needed to replace lands, houses, infrastructure or assets on the lands (crops, trees) and other assets (income) affected by the development projects."</t>
-  </si>
-  <si>
-    <t>Article 28 of Decree NO. 88/PM on the Implementation of the Land Law provides that "The compensation of the losses may be paid in cash or in kind, or by providing land in exchange on a case-by-case basis, based on the mutual consent reached by the two parties and in an appropriate manner." Article 6(2) of the provides "Where significantly large or entire land holding is affected by a project namely agriculture, residential or commercial land, the compensation shall be through provision of ‘land for land’ arrangements of equivalent size and productivity and be acceptable to APs and project owners.”</t>
-  </si>
-  <si>
-    <t>Article 8(3) of the Decree on Compensation and Resettlement for Development Project, 2005 provides that "rehabilitation measures shall specifically focus on vulnerable groups. Adequate assistance, in addition to compensation for affected assets and other allowances, shall be provided to enable such APs to achieve household income targets set above the national poverty line." Article 3(i) includes "divorced or widowed female headed households with dependents and low income" as a subset of "vulnerable group." Article 4(c) states that project owners must "pay particular attention to the needs of the poorest affected people, and vulnerable groups that may be at high risk of impoverishment. Appropriate assistance must be provided to help them improve their socio economic status.”</t>
   </si>
   <si>
     <t>While "economic activity" or business damages are not explicitly mentioned in the law, the requires that the assessment of compensation accounts for "damages to be caused to the owner due to replacement of taking back of the land based on the special needs of he state..." (Art. 40.1.5, Law on the Allocation of Land for Mongolian Citizens, 2002).</t>
@@ -1284,9 +1268,6 @@
     <t>Section 12(1)(e)(iv) Land Acquisition Act (Cap. 58:01) states that no allowance should be made on account of "any outlay or improvement on such land which has been made, commenced or effected before the date of the taking of possession of the land under section 4(1) or the date of publication in the Gazette of the declaration made under section 5(3), whichever is the earlier, with the intention of enhancing the compensation to be awarded therefor in the event or with a view of such land being required, for public purposes." This provision implies that improvements made without the intention of enhancing compensation can be accounted for in the assessment of compensation. Sections 12(5)-(6) state "For the purposes of this section there shall be a presumption that an improvement to land was made at the time reflected for that improvement in the assessment rolls maintained in accordance with the Lands and Buildings Taxes Act. (6) In a dispute as to the amount of compensation payable, the burden of proving that an improvement was not made at the time referred to in subsection (5) is on the person interested."</t>
   </si>
   <si>
-    <t>Article 6(10) of the Decree on Compensation and Resettlement of Development Project, 2005 provides that "Prior to the commencement of project construction, APs shall be fully compensated and resettled and rehabilitations measures shall be in place, although not necessarily completed yet."</t>
-  </si>
-  <si>
     <t>Section 20(b) of the Acquisition of Property Act, 1961 (No. 10 of 1961) provides "if by such award any person is entitled to compensation. The amount thereof shall be payable on' registration of conveyance of title to the Minister by the Registrar of Deeds if such registration is necessary or otherwise within two months of the receipt of the certified copy of the award by the Minister and such payment shall operate as a full and legal discharge and acquittance of the Minister from all claims in respect of any property the subject of the award."</t>
   </si>
   <si>
@@ -1330,6 +1311,30 @@
   </si>
   <si>
     <t>Indigenous populations have right to seek alternative land in the event of relocation, but the Land Act 1930 (amended 2005) does not grant this right. Article 32 of Indigenous People's Basic Law, 2005 provides "The Government shall not displace or relocate any Indigenous Person from his or her land, except in cases of imminent and obvious danger. In cases of displacement or relocation of Indigenous Persons, the same shall be properly accommodated and compensated for the losses suffered as a result of forced displacement or relocation as is referred to in the preceding paragraph." Furthermore, Article 34 of the Land Expropriation Act, 2000 provides "If there are low-income households or medium-low income households with facts of inhabitation one year before the public announcement of expropriation, such household members become homeless or are in similar situation due to the expropriation of the constructional improvements they live in, and their situations are found true by the social workers of the municipal or county (city) government, the land use applicant shall draft a resettlement plan and include it in the expropriation plan. The resettlement plan referred to in the preceding paragraph include housing placement."</t>
+  </si>
+  <si>
+    <t>Article 9 of the Decree on Compensation and Resettlement Management in Development Projects (2016) states that "project owners, in collaboration with the committee for compensation and resettlement at the local level, must estimate the value for compensation for laand, constructed facilities, crop products, livestock, and potential incomes..." The inclusion of the term "potential incomes" indicates that assessors must account for the economic activities associated with land when calculating compensation.</t>
+  </si>
+  <si>
+    <t>Article 9 of the Decree on Compensation and Resettlement Management in Development Projects (2016) states that compensation must be ased on "prices applied by the state, market prices or average prices applicable for a period of compensation and based on the types of properties and locations." However, there is no explicit indication that alternative approaches to FMV (e.g., replacement cost approach) may be used to calculate compensation in cases where land markets are weak or non-existent.</t>
+  </si>
+  <si>
+    <t>The law provides affected persons with a right to negotiate compensation levels. Article 18 of the Decree on Compensation and Resettlement Management in Development Projects (2016) states that affected populations have a right to "make a written proposal to the related committee for compensation and resettlement to consider the issues related to compensation, resettlement and rehabilitation of tehir livelihood....[and] actively participate in the implementation of the plan of compensation..."</t>
+  </si>
+  <si>
+    <t>Article 4 of the Decree on Compensation and Resettlement Management in Development Projects (2016) states that "compensation value means the value calculated in the form of material, money or land to compensate the land, constructed facilities, agricultural products, livestock and incomes."</t>
+  </si>
+  <si>
+    <t>Article 4 of the Decree on Compensation and Resettlement Management in Development Projects (2016) states that "compensation value means the value calculated in the form of material, money or land to compensate the land, constructed facilities, agricultural products, livestock and incomes which have been affected by development projects."</t>
+  </si>
+  <si>
+    <t>Article 8(8) of the Decree on Compensation and Resettlement Management in Development Projects (2016) states that "the project owner has to pay more attention in the rehabilitation efforts if there are losses of cultures, religions and traditions of local people."</t>
+  </si>
+  <si>
+    <t>Article 8(11) of the Decree on Compensation and Resettlement Management in Development Projects (2016) states that "Project owners must complete the implementation of their compensation plans within twenty-four months as from the date the compensation plan is officially adopted. Failure by project owners to implememt their compensation plans within the specified time frame, the project woners can submit applications to the compensation committees at the provincial or city levels for consideration to extend the implementation time frame. However, such time frame extension shall not exceed twelve months to complete the compensation plans. If the plans are still not completed there must be evaluations to identify the remaining parts of compensation for a new application for re-consideration."</t>
+  </si>
+  <si>
+    <t>Article 24(3) of the Decree on Compensation and Resettlement Mangement in Development Projects (2016) indicates that, if an affected person is not satisfied with decisions of project owners on requests for compensation, the affected person can "make a request for justice to the National Assembly or to a court accourding to the judicial process."</t>
   </si>
 </sst>
 </file>
@@ -1528,7 +1533,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2250">
+  <cellStyleXfs count="2262">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3779,8 +3784,20 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3858,8 +3875,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2250">
+  <cellStyles count="2262">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
@@ -4983,6 +5003,12 @@
     <cellStyle name="Hipervínculo" xfId="2242" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="2244" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="2246" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2250" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2252" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2254" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2256" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2258" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2260" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
@@ -6106,6 +6132,12 @@
     <cellStyle name="Hipervínculo visitado" xfId="2243" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="2245" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="2247" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2251" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2253" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2255" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2257" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2259" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2261" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2248"/>
     <cellStyle name="Título 2" xfId="2213" builtinId="17"/>
@@ -6167,7 +6199,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6202,7 +6234,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6413,8 +6445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J960"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A230" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D236" sqref="D236"/>
+    <sheetView tabSelected="1" topLeftCell="A448" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D468" sqref="D468"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6448,7 +6480,7 @@
     </row>
     <row r="2" spans="1:10" s="24" customFormat="1" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="B2" s="33" t="s">
         <v>50</v>
@@ -6460,7 +6492,7 @@
         <v>40</v>
       </c>
       <c r="E2" s="38" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -6470,7 +6502,7 @@
     </row>
     <row r="3" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="B3" s="33" t="s">
         <v>6</v>
@@ -6482,13 +6514,13 @@
         <v>40</v>
       </c>
       <c r="E3" s="38" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>51</v>
@@ -6500,13 +6532,13 @@
         <v>40</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="B5" s="33" t="s">
         <v>0</v>
@@ -6518,13 +6550,13 @@
         <v>40</v>
       </c>
       <c r="E5" s="38" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="B6" s="33" t="s">
         <v>52</v>
@@ -6536,13 +6568,13 @@
         <v>38</v>
       </c>
       <c r="E6" s="38" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="B7" s="33" t="s">
         <v>53</v>
@@ -6560,7 +6592,7 @@
     </row>
     <row r="8" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="B8" s="33" t="s">
         <v>54</v>
@@ -6572,13 +6604,13 @@
         <v>40</v>
       </c>
       <c r="E8" s="38" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="B9" s="33" t="s">
         <v>7</v>
@@ -6590,13 +6622,13 @@
         <v>40</v>
       </c>
       <c r="E9" s="38" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="B10" s="33" t="s">
         <v>8</v>
@@ -6608,13 +6640,13 @@
         <v>40</v>
       </c>
       <c r="E10" s="38" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="B11" s="33" t="s">
         <v>9</v>
@@ -6632,7 +6664,7 @@
     </row>
     <row r="12" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="B12" s="33" t="s">
         <v>10</v>
@@ -6644,13 +6676,13 @@
         <v>40</v>
       </c>
       <c r="E12" s="38" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="B13" s="33" t="s">
         <v>55</v>
@@ -6662,13 +6694,13 @@
         <v>40</v>
       </c>
       <c r="E13" s="38" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="B14" s="33" t="s">
         <v>56</v>
@@ -6680,13 +6712,13 @@
         <v>40</v>
       </c>
       <c r="E14" s="38" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="B15" s="33" t="s">
         <v>11</v>
@@ -6704,7 +6736,7 @@
     </row>
     <row r="16" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="B16" s="33" t="s">
         <v>34</v>
@@ -6716,13 +6748,13 @@
         <v>38</v>
       </c>
       <c r="E16" s="38" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="B17" s="33" t="s">
         <v>33</v>
@@ -6734,13 +6766,13 @@
         <v>40</v>
       </c>
       <c r="E17" s="38" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="B18" s="33" t="s">
         <v>58</v>
@@ -6752,13 +6784,13 @@
         <v>40</v>
       </c>
       <c r="E18" s="38" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="B19" s="33" t="s">
         <v>13</v>
@@ -6770,13 +6802,13 @@
         <v>76</v>
       </c>
       <c r="E19" s="38" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="B20" s="33" t="s">
         <v>12</v>
@@ -6788,13 +6820,13 @@
         <v>40</v>
       </c>
       <c r="E20" s="38" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="B21" s="33" t="s">
         <v>14</v>
@@ -6806,12 +6838,12 @@
         <v>40</v>
       </c>
       <c r="E21" s="38" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="21" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="B22" s="33" t="s">
         <v>32</v>
@@ -6827,26 +6859,26 @@
       </c>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="21" t="s">
-        <v>330</v>
+    <row r="23" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="32" t="s">
+        <v>323</v>
       </c>
       <c r="B23" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="22">
-        <v>2017</v>
-      </c>
-      <c r="D23" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="38" t="s">
-        <v>119</v>
+      <c r="C23" s="34">
+        <v>2017</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" s="42" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="B24" s="33" t="s">
         <v>60</v>
@@ -6858,13 +6890,13 @@
         <v>76</v>
       </c>
       <c r="E24" s="38" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="21" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="B25" s="33" t="s">
         <v>15</v>
@@ -6876,13 +6908,13 @@
         <v>40</v>
       </c>
       <c r="E25" s="38" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="21" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="B26" s="33" t="s">
         <v>61</v>
@@ -6894,13 +6926,13 @@
         <v>40</v>
       </c>
       <c r="E26" s="38" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="B27" s="33" t="s">
         <v>16</v>
@@ -6912,13 +6944,13 @@
         <v>40</v>
       </c>
       <c r="E27" s="38" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="B28" s="33" t="s">
         <v>17</v>
@@ -6936,7 +6968,7 @@
     </row>
     <row r="29" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="21" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="B29" s="33" t="s">
         <v>63</v>
@@ -6948,13 +6980,13 @@
         <v>40</v>
       </c>
       <c r="E29" s="38" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="21" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="B30" s="33" t="s">
         <v>64</v>
@@ -6966,13 +6998,13 @@
         <v>40</v>
       </c>
       <c r="E30" s="38" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="21" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="B31" s="33" t="s">
         <v>18</v>
@@ -6984,13 +7016,13 @@
         <v>40</v>
       </c>
       <c r="E31" s="38" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="21" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="B32" s="33" t="s">
         <v>65</v>
@@ -7002,13 +7034,13 @@
         <v>40</v>
       </c>
       <c r="E32" s="38" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="21" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="B33" s="33" t="s">
         <v>19</v>
@@ -7020,13 +7052,13 @@
         <v>40</v>
       </c>
       <c r="E33" s="38" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="21" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="B34" s="33" t="s">
         <v>66</v>
@@ -7038,13 +7070,13 @@
         <v>40</v>
       </c>
       <c r="E34" s="38" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="21" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="B35" s="33" t="s">
         <v>67</v>
@@ -7056,13 +7088,13 @@
         <v>40</v>
       </c>
       <c r="E35" s="38" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="F35" s="4"/>
     </row>
     <row r="36" spans="1:6" s="24" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A36" s="21" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="B36" s="33" t="s">
         <v>68</v>
@@ -7074,13 +7106,13 @@
         <v>40</v>
       </c>
       <c r="E36" s="38" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="F36" s="4"/>
     </row>
     <row r="37" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="21" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="B37" s="33" t="s">
         <v>20</v>
@@ -7092,13 +7124,13 @@
         <v>40</v>
       </c>
       <c r="E37" s="38" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="F37" s="4"/>
     </row>
     <row r="38" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="21" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="B38" s="33" t="s">
         <v>21</v>
@@ -7110,13 +7142,13 @@
         <v>40</v>
       </c>
       <c r="E38" s="38" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="F38" s="2"/>
     </row>
     <row r="39" spans="1:6" s="24" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A39" s="21" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="B39" s="33" t="s">
         <v>22</v>
@@ -7128,13 +7160,13 @@
         <v>38</v>
       </c>
       <c r="E39" s="38" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="F39" s="2"/>
     </row>
     <row r="40" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="21" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="B40" s="33" t="s">
         <v>31</v>
@@ -7146,13 +7178,13 @@
         <v>40</v>
       </c>
       <c r="E40" s="38" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="F40" s="2"/>
     </row>
     <row r="41" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="21" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="B41" s="33" t="s">
         <v>69</v>
@@ -7164,13 +7196,13 @@
         <v>38</v>
       </c>
       <c r="E41" s="38" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="F41" s="2"/>
     </row>
     <row r="42" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="21" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="B42" s="33" t="s">
         <v>23</v>
@@ -7182,13 +7214,13 @@
         <v>40</v>
       </c>
       <c r="E42" s="38" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="F42" s="2"/>
     </row>
     <row r="43" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="21" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="B43" s="33" t="s">
         <v>105</v>
@@ -7200,12 +7232,12 @@
         <v>40</v>
       </c>
       <c r="E43" s="38" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
     </row>
     <row r="44" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="21" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="B44" s="33" t="s">
         <v>24</v>
@@ -7217,13 +7249,13 @@
         <v>40</v>
       </c>
       <c r="E44" s="42" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="F44" s="2"/>
     </row>
     <row r="45" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="21" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="B45" s="33" t="s">
         <v>25</v>
@@ -7241,7 +7273,7 @@
     </row>
     <row r="46" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="21" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="B46" s="33" t="s">
         <v>26</v>
@@ -7253,13 +7285,13 @@
         <v>40</v>
       </c>
       <c r="E46" s="38" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="F46" s="2"/>
     </row>
     <row r="47" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="21" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="B47" s="33" t="s">
         <v>71</v>
@@ -7271,13 +7303,13 @@
         <v>40</v>
       </c>
       <c r="E47" s="38" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="F47" s="2"/>
     </row>
     <row r="48" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="21" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="B48" s="33" t="s">
         <v>27</v>
@@ -7289,13 +7321,13 @@
         <v>40</v>
       </c>
       <c r="E48" s="38" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="F48" s="2"/>
     </row>
     <row r="49" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="21" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="B49" s="33" t="s">
         <v>28</v>
@@ -7307,13 +7339,13 @@
         <v>40</v>
       </c>
       <c r="E49" s="38" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="F49" s="2"/>
     </row>
     <row r="50" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="21" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="B50" s="33" t="s">
         <v>29</v>
@@ -7325,13 +7357,13 @@
         <v>40</v>
       </c>
       <c r="E50" s="38" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="F50" s="2"/>
     </row>
     <row r="51" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="21" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="B51" s="33" t="s">
         <v>30</v>
@@ -7343,12 +7375,12 @@
         <v>40</v>
       </c>
       <c r="E51" s="38" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
     <row r="52" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="21" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B52" s="33" t="s">
         <v>50</v>
@@ -7365,7 +7397,7 @@
     </row>
     <row r="53" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="21" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B53" s="33" t="s">
         <v>6</v>
@@ -7382,7 +7414,7 @@
     </row>
     <row r="54" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="21" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B54" s="33" t="s">
         <v>51</v>
@@ -7399,7 +7431,7 @@
     </row>
     <row r="55" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="21" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B55" s="33" t="s">
         <v>0</v>
@@ -7411,12 +7443,12 @@
         <v>38</v>
       </c>
       <c r="E55" s="38" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="56" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="21" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B56" s="33" t="s">
         <v>52</v>
@@ -7433,7 +7465,7 @@
     </row>
     <row r="57" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="21" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B57" s="33" t="s">
         <v>53</v>
@@ -7445,12 +7477,12 @@
         <v>39</v>
       </c>
       <c r="E57" s="38" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
     </row>
     <row r="58" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="21" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B58" s="33" t="s">
         <v>54</v>
@@ -7462,12 +7494,12 @@
         <v>38</v>
       </c>
       <c r="E58" s="38" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
     </row>
     <row r="59" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="21" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B59" s="33" t="s">
         <v>7</v>
@@ -7479,12 +7511,12 @@
         <v>38</v>
       </c>
       <c r="E59" s="38" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="60" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="21" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B60" s="33" t="s">
         <v>8</v>
@@ -7496,12 +7528,12 @@
         <v>76</v>
       </c>
       <c r="E60" s="38" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="61" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="21" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B61" s="33" t="s">
         <v>9</v>
@@ -7518,7 +7550,7 @@
     </row>
     <row r="62" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="21" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B62" s="33" t="s">
         <v>10</v>
@@ -7530,12 +7562,12 @@
         <v>38</v>
       </c>
       <c r="E62" s="38" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
     </row>
     <row r="63" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="21" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B63" s="33" t="s">
         <v>55</v>
@@ -7552,7 +7584,7 @@
     </row>
     <row r="64" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="21" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B64" s="33" t="s">
         <v>56</v>
@@ -7564,12 +7596,12 @@
         <v>40</v>
       </c>
       <c r="E64" s="38" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
     </row>
     <row r="65" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="21" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B65" s="33" t="s">
         <v>11</v>
@@ -7581,12 +7613,12 @@
         <v>76</v>
       </c>
       <c r="E65" s="38" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="66" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="21" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B66" s="33" t="s">
         <v>34</v>
@@ -7598,12 +7630,12 @@
         <v>76</v>
       </c>
       <c r="E66" s="38" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="67" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="21" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B67" s="33" t="s">
         <v>33</v>
@@ -7615,12 +7647,12 @@
         <v>38</v>
       </c>
       <c r="E67" s="38" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="68" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="21" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B68" s="33" t="s">
         <v>58</v>
@@ -7637,7 +7669,7 @@
     </row>
     <row r="69" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="21" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B69" s="33" t="s">
         <v>13</v>
@@ -7649,12 +7681,12 @@
         <v>38</v>
       </c>
       <c r="E69" s="38" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="70" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="21" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B70" s="33" t="s">
         <v>12</v>
@@ -7666,12 +7698,12 @@
         <v>38</v>
       </c>
       <c r="E70" s="38" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="71" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="21" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B71" s="33" t="s">
         <v>14</v>
@@ -7683,12 +7715,12 @@
         <v>38</v>
       </c>
       <c r="E71" s="38" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
     </row>
     <row r="72" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="21" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B72" s="33" t="s">
         <v>32</v>
@@ -7703,26 +7735,26 @@
         <v>83</v>
       </c>
     </row>
-    <row r="73" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="21" t="s">
-        <v>331</v>
+    <row r="73" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="32" t="s">
+        <v>324</v>
       </c>
       <c r="B73" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="C73" s="22">
+      <c r="C73" s="34">
         <v>2017</v>
       </c>
       <c r="D73" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="E73" s="38" t="s">
-        <v>269</v>
+      <c r="E73" s="42" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="74" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="21" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B74" s="33" t="s">
         <v>60</v>
@@ -7739,7 +7771,7 @@
     </row>
     <row r="75" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="21" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B75" s="33" t="s">
         <v>15</v>
@@ -7756,7 +7788,7 @@
     </row>
     <row r="76" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="21" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B76" s="33" t="s">
         <v>61</v>
@@ -7773,7 +7805,7 @@
     </row>
     <row r="77" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="21" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B77" s="33" t="s">
         <v>16</v>
@@ -7790,7 +7822,7 @@
     </row>
     <row r="78" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="21" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B78" s="33" t="s">
         <v>17</v>
@@ -7802,12 +7834,12 @@
         <v>76</v>
       </c>
       <c r="E78" s="41" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
     </row>
     <row r="79" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="21" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B79" s="33" t="s">
         <v>63</v>
@@ -7819,12 +7851,12 @@
         <v>38</v>
       </c>
       <c r="E79" s="38" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="80" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="21" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B80" s="33" t="s">
         <v>64</v>
@@ -7836,12 +7868,12 @@
         <v>40</v>
       </c>
       <c r="E80" s="38" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
     </row>
     <row r="81" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="21" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B81" s="33" t="s">
         <v>18</v>
@@ -7858,7 +7890,7 @@
     </row>
     <row r="82" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="21" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B82" s="33" t="s">
         <v>65</v>
@@ -7870,12 +7902,12 @@
         <v>38</v>
       </c>
       <c r="E82" s="38" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
     </row>
     <row r="83" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="21" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B83" s="33" t="s">
         <v>19</v>
@@ -7887,12 +7919,12 @@
         <v>40</v>
       </c>
       <c r="E83" s="38" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="84" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="21" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B84" s="33" t="s">
         <v>66</v>
@@ -7909,7 +7941,7 @@
     </row>
     <row r="85" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="21" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B85" s="33" t="s">
         <v>67</v>
@@ -7921,12 +7953,12 @@
         <v>40</v>
       </c>
       <c r="E85" s="38" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
     </row>
     <row r="86" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="21" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B86" s="33" t="s">
         <v>68</v>
@@ -7938,12 +7970,12 @@
         <v>38</v>
       </c>
       <c r="E86" s="38" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="87" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="21" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B87" s="33" t="s">
         <v>20</v>
@@ -7960,7 +7992,7 @@
     </row>
     <row r="88" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="21" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B88" s="33" t="s">
         <v>21</v>
@@ -7977,7 +8009,7 @@
     </row>
     <row r="89" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="21" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B89" s="33" t="s">
         <v>22</v>
@@ -7994,7 +8026,7 @@
     </row>
     <row r="90" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="21" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B90" s="33" t="s">
         <v>31</v>
@@ -8011,7 +8043,7 @@
     </row>
     <row r="91" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="21" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B91" s="33" t="s">
         <v>69</v>
@@ -8028,7 +8060,7 @@
     </row>
     <row r="92" spans="1:5" s="24" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A92" s="21" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B92" s="33" t="s">
         <v>23</v>
@@ -8040,12 +8072,12 @@
         <v>38</v>
       </c>
       <c r="E92" s="38" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
     </row>
     <row r="93" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="21" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B93" s="33" t="s">
         <v>105</v>
@@ -8057,12 +8089,12 @@
         <v>38</v>
       </c>
       <c r="E93" s="38" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
     </row>
     <row r="94" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="21" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B94" s="43" t="s">
         <v>24</v>
@@ -8074,12 +8106,12 @@
         <v>38</v>
       </c>
       <c r="E94" s="42" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
     </row>
     <row r="95" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="21" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B95" s="33" t="s">
         <v>25</v>
@@ -8091,12 +8123,12 @@
         <v>38</v>
       </c>
       <c r="E95" s="38" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
     </row>
     <row r="96" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="21" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B96" s="33" t="s">
         <v>26</v>
@@ -8113,7 +8145,7 @@
     </row>
     <row r="97" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="21" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B97" s="33" t="s">
         <v>71</v>
@@ -8130,7 +8162,7 @@
     </row>
     <row r="98" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="21" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B98" s="33" t="s">
         <v>27</v>
@@ -8147,7 +8179,7 @@
     </row>
     <row r="99" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="21" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B99" s="33" t="s">
         <v>28</v>
@@ -8159,12 +8191,12 @@
         <v>38</v>
       </c>
       <c r="E99" s="38" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
     </row>
     <row r="100" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="21" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B100" s="33" t="s">
         <v>29</v>
@@ -8176,12 +8208,12 @@
         <v>40</v>
       </c>
       <c r="E100" s="38" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
     </row>
     <row r="101" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="21" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B101" s="33" t="s">
         <v>30</v>
@@ -8198,7 +8230,7 @@
     </row>
     <row r="102" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="21" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B102" s="33" t="s">
         <v>50</v>
@@ -8216,7 +8248,7 @@
     </row>
     <row r="103" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="21" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B103" s="33" t="s">
         <v>6</v>
@@ -8228,13 +8260,13 @@
         <v>38</v>
       </c>
       <c r="E103" s="38" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F103" s="2"/>
     </row>
     <row r="104" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="21" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B104" s="33" t="s">
         <v>51</v>
@@ -8252,7 +8284,7 @@
     </row>
     <row r="105" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="21" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B105" s="33" t="s">
         <v>0</v>
@@ -8264,13 +8296,13 @@
         <v>38</v>
       </c>
       <c r="E105" s="38" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F105" s="2"/>
     </row>
     <row r="106" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="21" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B106" s="33" t="s">
         <v>52</v>
@@ -8288,7 +8320,7 @@
     </row>
     <row r="107" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="21" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B107" s="33" t="s">
         <v>53</v>
@@ -8306,7 +8338,7 @@
     </row>
     <row r="108" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="21" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B108" s="33" t="s">
         <v>54</v>
@@ -8318,13 +8350,13 @@
         <v>38</v>
       </c>
       <c r="E108" s="41" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="F108" s="2"/>
     </row>
     <row r="109" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="21" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B109" s="33" t="s">
         <v>7</v>
@@ -8342,7 +8374,7 @@
     </row>
     <row r="110" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="21" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B110" s="33" t="s">
         <v>8</v>
@@ -8354,13 +8386,13 @@
         <v>38</v>
       </c>
       <c r="E110" s="38" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F110" s="2"/>
     </row>
     <row r="111" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="21" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B111" s="33" t="s">
         <v>9</v>
@@ -8378,7 +8410,7 @@
     </row>
     <row r="112" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="21" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B112" s="33" t="s">
         <v>10</v>
@@ -8396,7 +8428,7 @@
     </row>
     <row r="113" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="21" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B113" s="33" t="s">
         <v>55</v>
@@ -8414,7 +8446,7 @@
     </row>
     <row r="114" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="21" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B114" s="33" t="s">
         <v>56</v>
@@ -8426,13 +8458,13 @@
         <v>40</v>
       </c>
       <c r="E114" s="38" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="F114" s="2"/>
     </row>
     <row r="115" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="21" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B115" s="33" t="s">
         <v>11</v>
@@ -8444,13 +8476,13 @@
         <v>38</v>
       </c>
       <c r="E115" s="38" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="F115" s="2"/>
     </row>
     <row r="116" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="21" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B116" s="33" t="s">
         <v>34</v>
@@ -8468,7 +8500,7 @@
     </row>
     <row r="117" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="21" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B117" s="33" t="s">
         <v>33</v>
@@ -8486,7 +8518,7 @@
     </row>
     <row r="118" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="21" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B118" s="33" t="s">
         <v>58</v>
@@ -8504,7 +8536,7 @@
     </row>
     <row r="119" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="21" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B119" s="33" t="s">
         <v>13</v>
@@ -8516,13 +8548,13 @@
         <v>38</v>
       </c>
       <c r="E119" s="38" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F119" s="2"/>
     </row>
     <row r="120" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="21" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B120" s="33" t="s">
         <v>12</v>
@@ -8540,7 +8572,7 @@
     </row>
     <row r="121" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="21" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B121" s="33" t="s">
         <v>14</v>
@@ -8552,13 +8584,13 @@
         <v>39</v>
       </c>
       <c r="E121" s="38" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F121" s="2"/>
     </row>
     <row r="122" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="21" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B122" s="33" t="s">
         <v>32</v>
@@ -8576,7 +8608,7 @@
     </row>
     <row r="123" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="21" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B123" s="33" t="s">
         <v>59</v>
@@ -8587,14 +8619,14 @@
       <c r="D123" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="E123" s="38" t="s">
-        <v>119</v>
+      <c r="E123" s="41" t="s">
+        <v>418</v>
       </c>
       <c r="F123" s="2"/>
     </row>
     <row r="124" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="21" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B124" s="33" t="s">
         <v>60</v>
@@ -8606,13 +8638,13 @@
         <v>40</v>
       </c>
       <c r="E124" s="38" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F124" s="2"/>
     </row>
     <row r="125" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="21" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B125" s="33" t="s">
         <v>15</v>
@@ -8624,13 +8656,13 @@
         <v>40</v>
       </c>
       <c r="E125" s="38" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F125" s="2"/>
     </row>
     <row r="126" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="21" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B126" s="33" t="s">
         <v>61</v>
@@ -8642,13 +8674,13 @@
         <v>38</v>
       </c>
       <c r="E126" s="38" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F126" s="2"/>
     </row>
     <row r="127" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="21" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B127" s="33" t="s">
         <v>16</v>
@@ -8660,13 +8692,13 @@
         <v>39</v>
       </c>
       <c r="E127" s="38" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F127" s="2"/>
     </row>
     <row r="128" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="21" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B128" s="33" t="s">
         <v>17</v>
@@ -8678,13 +8710,13 @@
         <v>38</v>
       </c>
       <c r="E128" s="38" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F128" s="2"/>
     </row>
     <row r="129" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="21" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B129" s="33" t="s">
         <v>63</v>
@@ -8696,13 +8728,13 @@
         <v>38</v>
       </c>
       <c r="E129" s="38" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="F129" s="2"/>
     </row>
     <row r="130" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="21" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B130" s="33" t="s">
         <v>64</v>
@@ -8714,13 +8746,13 @@
         <v>40</v>
       </c>
       <c r="E130" s="38" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="F130" s="2"/>
     </row>
     <row r="131" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="21" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B131" s="33" t="s">
         <v>18</v>
@@ -8732,13 +8764,13 @@
         <v>39</v>
       </c>
       <c r="E131" s="38" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F131" s="2"/>
     </row>
     <row r="132" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="21" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B132" s="33" t="s">
         <v>65</v>
@@ -8750,13 +8782,13 @@
         <v>38</v>
       </c>
       <c r="E132" s="38" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="F132" s="2"/>
     </row>
     <row r="133" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="21" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B133" s="33" t="s">
         <v>19</v>
@@ -8768,13 +8800,13 @@
         <v>38</v>
       </c>
       <c r="E133" s="38" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="F133" s="2"/>
     </row>
     <row r="134" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="21" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B134" s="33" t="s">
         <v>66</v>
@@ -8786,13 +8818,13 @@
         <v>38</v>
       </c>
       <c r="E134" s="38" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="F134" s="2"/>
     </row>
     <row r="135" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="21" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B135" s="33" t="s">
         <v>67</v>
@@ -8804,13 +8836,13 @@
         <v>40</v>
       </c>
       <c r="E135" s="38" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="F135" s="2"/>
     </row>
     <row r="136" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="21" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B136" s="33" t="s">
         <v>68</v>
@@ -8822,13 +8854,13 @@
         <v>38</v>
       </c>
       <c r="E136" s="38" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F136" s="2"/>
     </row>
     <row r="137" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="21" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B137" s="33" t="s">
         <v>20</v>
@@ -8840,13 +8872,13 @@
         <v>38</v>
       </c>
       <c r="E137" s="38" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F137" s="2"/>
     </row>
     <row r="138" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="21" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B138" s="33" t="s">
         <v>21</v>
@@ -8858,13 +8890,13 @@
         <v>38</v>
       </c>
       <c r="E138" s="41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F138" s="2"/>
     </row>
     <row r="139" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="21" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B139" s="33" t="s">
         <v>22</v>
@@ -8876,13 +8908,13 @@
         <v>38</v>
       </c>
       <c r="E139" s="41" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F139" s="2"/>
     </row>
     <row r="140" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="21" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B140" s="33" t="s">
         <v>31</v>
@@ -8894,13 +8926,13 @@
         <v>38</v>
       </c>
       <c r="E140" s="38" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F140" s="2"/>
     </row>
     <row r="141" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="21" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B141" s="33" t="s">
         <v>69</v>
@@ -8912,13 +8944,13 @@
         <v>38</v>
       </c>
       <c r="E141" s="38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F141" s="2"/>
     </row>
     <row r="142" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="21" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B142" s="33" t="s">
         <v>23</v>
@@ -8930,13 +8962,13 @@
         <v>39</v>
       </c>
       <c r="E142" s="41" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F142" s="2"/>
     </row>
     <row r="143" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="21" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B143" s="33" t="s">
         <v>105</v>
@@ -8948,13 +8980,13 @@
         <v>39</v>
       </c>
       <c r="E143" s="38" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F143" s="2"/>
     </row>
     <row r="144" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="21" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B144" s="33" t="s">
         <v>24</v>
@@ -8966,13 +8998,13 @@
         <v>38</v>
       </c>
       <c r="E144" s="42" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="F144" s="2"/>
     </row>
     <row r="145" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="21" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B145" s="33" t="s">
         <v>25</v>
@@ -8984,13 +9016,13 @@
         <v>38</v>
       </c>
       <c r="E145" s="38" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="F145" s="2"/>
     </row>
     <row r="146" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="21" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B146" s="33" t="s">
         <v>26</v>
@@ -9002,13 +9034,13 @@
         <v>39</v>
       </c>
       <c r="E146" s="41" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F146" s="2"/>
     </row>
     <row r="147" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="21" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B147" s="33" t="s">
         <v>71</v>
@@ -9020,13 +9052,13 @@
         <v>38</v>
       </c>
       <c r="E147" s="41" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="F147" s="2"/>
     </row>
     <row r="148" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="21" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B148" s="33" t="s">
         <v>27</v>
@@ -9038,13 +9070,13 @@
         <v>76</v>
       </c>
       <c r="E148" s="41" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F148" s="2"/>
     </row>
     <row r="149" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="21" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B149" s="33" t="s">
         <v>28</v>
@@ -9056,13 +9088,13 @@
         <v>38</v>
       </c>
       <c r="E149" s="38" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="F149" s="2"/>
     </row>
     <row r="150" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="21" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B150" s="33" t="s">
         <v>29</v>
@@ -9074,13 +9106,13 @@
         <v>38</v>
       </c>
       <c r="E150" s="38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F150" s="2"/>
     </row>
     <row r="151" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="21" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B151" s="33" t="s">
         <v>30</v>
@@ -9092,13 +9124,13 @@
         <v>38</v>
       </c>
       <c r="E151" s="41" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="F151" s="2"/>
     </row>
     <row r="152" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="21" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="B152" s="33" t="s">
         <v>50</v>
@@ -9110,13 +9142,13 @@
         <v>40</v>
       </c>
       <c r="E152" s="38" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F152" s="2"/>
     </row>
     <row r="153" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="21" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="B153" s="33" t="s">
         <v>6</v>
@@ -9128,13 +9160,13 @@
         <v>40</v>
       </c>
       <c r="E153" s="38" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F153" s="2"/>
     </row>
     <row r="154" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="21" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="B154" s="33" t="s">
         <v>51</v>
@@ -9146,13 +9178,13 @@
         <v>40</v>
       </c>
       <c r="E154" s="38" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F154" s="2"/>
     </row>
     <row r="155" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="21" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="B155" s="33" t="s">
         <v>0</v>
@@ -9164,13 +9196,13 @@
         <v>40</v>
       </c>
       <c r="E155" s="38" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F155" s="2"/>
     </row>
     <row r="156" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="21" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="B156" s="33" t="s">
         <v>52</v>
@@ -9182,13 +9214,13 @@
         <v>40</v>
       </c>
       <c r="E156" s="38" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F156" s="2"/>
     </row>
     <row r="157" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="21" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="B157" s="33" t="s">
         <v>53</v>
@@ -9200,13 +9232,13 @@
         <v>38</v>
       </c>
       <c r="E157" s="38" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F157" s="2"/>
     </row>
     <row r="158" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="21" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="B158" s="33" t="s">
         <v>54</v>
@@ -9218,13 +9250,13 @@
         <v>40</v>
       </c>
       <c r="E158" s="38" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F158" s="2"/>
     </row>
     <row r="159" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="21" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="B159" s="33" t="s">
         <v>7</v>
@@ -9236,13 +9268,13 @@
         <v>40</v>
       </c>
       <c r="E159" s="38" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F159" s="2"/>
     </row>
     <row r="160" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="21" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="B160" s="33" t="s">
         <v>8</v>
@@ -9254,13 +9286,13 @@
         <v>40</v>
       </c>
       <c r="E160" s="38" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F160" s="2"/>
     </row>
     <row r="161" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="21" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="B161" s="33" t="s">
         <v>9</v>
@@ -9272,13 +9304,13 @@
         <v>40</v>
       </c>
       <c r="E161" s="38" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F161" s="2"/>
     </row>
     <row r="162" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="21" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="B162" s="33" t="s">
         <v>10</v>
@@ -9290,13 +9322,13 @@
         <v>40</v>
       </c>
       <c r="E162" s="38" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F162" s="2"/>
     </row>
     <row r="163" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="21" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="B163" s="33" t="s">
         <v>55</v>
@@ -9308,13 +9340,13 @@
         <v>40</v>
       </c>
       <c r="E163" s="38" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F163" s="2"/>
     </row>
     <row r="164" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="21" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="B164" s="33" t="s">
         <v>56</v>
@@ -9326,13 +9358,13 @@
         <v>40</v>
       </c>
       <c r="E164" s="41" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F164" s="2"/>
     </row>
     <row r="165" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="21" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="B165" s="33" t="s">
         <v>11</v>
@@ -9344,13 +9376,13 @@
         <v>40</v>
       </c>
       <c r="E165" s="38" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F165" s="2"/>
     </row>
     <row r="166" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="21" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="B166" s="33" t="s">
         <v>34</v>
@@ -9362,13 +9394,13 @@
         <v>39</v>
       </c>
       <c r="E166" s="38" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="F166" s="2"/>
     </row>
     <row r="167" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="21" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="B167" s="33" t="s">
         <v>33</v>
@@ -9380,13 +9412,13 @@
         <v>40</v>
       </c>
       <c r="E167" s="38" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F167" s="2"/>
     </row>
     <row r="168" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="21" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="B168" s="33" t="s">
         <v>58</v>
@@ -9398,13 +9430,13 @@
         <v>40</v>
       </c>
       <c r="E168" s="38" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F168" s="2"/>
     </row>
     <row r="169" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="21" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="B169" s="33" t="s">
         <v>13</v>
@@ -9416,13 +9448,13 @@
         <v>39</v>
       </c>
       <c r="E169" s="38" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F169" s="2"/>
     </row>
     <row r="170" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="21" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="B170" s="33" t="s">
         <v>12</v>
@@ -9434,13 +9466,13 @@
         <v>40</v>
       </c>
       <c r="E170" s="38" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F170" s="2"/>
     </row>
     <row r="171" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="21" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="B171" s="33" t="s">
         <v>14</v>
@@ -9452,13 +9484,13 @@
         <v>40</v>
       </c>
       <c r="E171" s="38" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F171" s="2"/>
     </row>
     <row r="172" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="21" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="B172" s="33" t="s">
         <v>32</v>
@@ -9470,31 +9502,31 @@
         <v>40</v>
       </c>
       <c r="E172" s="38" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F172" s="2"/>
     </row>
-    <row r="173" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="21" t="s">
-        <v>333</v>
+    <row r="173" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="32" t="s">
+        <v>326</v>
       </c>
       <c r="B173" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="C173" s="22">
+      <c r="C173" s="34">
         <v>2017</v>
       </c>
       <c r="D173" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="E173" s="38" t="s">
-        <v>142</v>
-      </c>
-      <c r="F173" s="2"/>
+      <c r="E173" s="42" t="s">
+        <v>420</v>
+      </c>
+      <c r="F173" s="45"/>
     </row>
     <row r="174" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="21" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="B174" s="33" t="s">
         <v>60</v>
@@ -9505,14 +9537,14 @@
       <c r="D174" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E174" s="38" t="s">
-        <v>147</v>
+      <c r="E174" s="41" t="s">
+        <v>145</v>
       </c>
       <c r="F174" s="2"/>
     </row>
     <row r="175" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="21" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="B175" s="33" t="s">
         <v>15</v>
@@ -9524,13 +9556,13 @@
         <v>40</v>
       </c>
       <c r="E175" s="38" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F175" s="2"/>
     </row>
     <row r="176" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="21" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="B176" s="33" t="s">
         <v>61</v>
@@ -9542,13 +9574,13 @@
         <v>40</v>
       </c>
       <c r="E176" s="38" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F176" s="2"/>
     </row>
     <row r="177" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="21" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="B177" s="33" t="s">
         <v>16</v>
@@ -9560,13 +9592,13 @@
         <v>40</v>
       </c>
       <c r="E177" s="38" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F177" s="2"/>
     </row>
     <row r="178" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="21" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="B178" s="33" t="s">
         <v>17</v>
@@ -9578,13 +9610,13 @@
         <v>40</v>
       </c>
       <c r="E178" s="38" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F178" s="2"/>
     </row>
     <row r="179" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="21" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="B179" s="33" t="s">
         <v>63</v>
@@ -9596,13 +9628,13 @@
         <v>40</v>
       </c>
       <c r="E179" s="38" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F179" s="2"/>
     </row>
     <row r="180" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="21" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="B180" s="33" t="s">
         <v>64</v>
@@ -9614,13 +9646,13 @@
         <v>40</v>
       </c>
       <c r="E180" s="38" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F180" s="2"/>
     </row>
     <row r="181" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="21" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="B181" s="33" t="s">
         <v>18</v>
@@ -9632,13 +9664,13 @@
         <v>40</v>
       </c>
       <c r="E181" s="38" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F181" s="2"/>
     </row>
     <row r="182" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="21" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="B182" s="33" t="s">
         <v>65</v>
@@ -9650,13 +9682,13 @@
         <v>39</v>
       </c>
       <c r="E182" s="38" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="F182" s="2"/>
     </row>
     <row r="183" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="21" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="B183" s="33" t="s">
         <v>19</v>
@@ -9668,13 +9700,13 @@
         <v>40</v>
       </c>
       <c r="E183" s="38" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F183" s="2"/>
     </row>
     <row r="184" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="21" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="B184" s="33" t="s">
         <v>66</v>
@@ -9686,13 +9718,13 @@
         <v>40</v>
       </c>
       <c r="E184" s="38" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F184" s="2"/>
     </row>
     <row r="185" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="21" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="B185" s="33" t="s">
         <v>67</v>
@@ -9704,13 +9736,13 @@
         <v>40</v>
       </c>
       <c r="E185" s="38" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F185" s="2"/>
     </row>
     <row r="186" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="21" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="B186" s="33" t="s">
         <v>68</v>
@@ -9722,13 +9754,13 @@
         <v>40</v>
       </c>
       <c r="E186" s="38" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F186" s="2"/>
     </row>
     <row r="187" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="21" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="B187" s="33" t="s">
         <v>20</v>
@@ -9740,13 +9772,13 @@
         <v>38</v>
       </c>
       <c r="E187" s="38" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="F187" s="2"/>
     </row>
     <row r="188" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="21" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="B188" s="33" t="s">
         <v>21</v>
@@ -9758,13 +9790,13 @@
         <v>40</v>
       </c>
       <c r="E188" s="38" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F188" s="2"/>
     </row>
     <row r="189" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="21" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="B189" s="33" t="s">
         <v>22</v>
@@ -9776,13 +9808,13 @@
         <v>40</v>
       </c>
       <c r="E189" s="38" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F189" s="2"/>
     </row>
     <row r="190" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="21" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="B190" s="33" t="s">
         <v>31</v>
@@ -9794,13 +9826,13 @@
         <v>40</v>
       </c>
       <c r="E190" s="38" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F190" s="2"/>
     </row>
     <row r="191" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="21" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="B191" s="33" t="s">
         <v>69</v>
@@ -9812,13 +9844,13 @@
         <v>40</v>
       </c>
       <c r="E191" s="38" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F191" s="2"/>
     </row>
     <row r="192" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="21" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="B192" s="33" t="s">
         <v>23</v>
@@ -9830,13 +9862,13 @@
         <v>39</v>
       </c>
       <c r="E192" s="38" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F192" s="2"/>
     </row>
     <row r="193" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="21" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="B193" s="33" t="s">
         <v>105</v>
@@ -9848,13 +9880,13 @@
         <v>40</v>
       </c>
       <c r="E193" s="38" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F193" s="2"/>
     </row>
     <row r="194" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="21" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="B194" s="43" t="s">
         <v>24</v>
@@ -9866,13 +9898,13 @@
         <v>40</v>
       </c>
       <c r="E194" s="44" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F194" s="1"/>
     </row>
     <row r="195" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="21" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="B195" s="33" t="s">
         <v>25</v>
@@ -9884,13 +9916,13 @@
         <v>39</v>
       </c>
       <c r="E195" s="38" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="F195" s="2"/>
     </row>
     <row r="196" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="21" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="B196" s="33" t="s">
         <v>26</v>
@@ -9902,13 +9934,13 @@
         <v>40</v>
       </c>
       <c r="E196" s="38" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F196" s="2"/>
     </row>
     <row r="197" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="21" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="B197" s="33" t="s">
         <v>71</v>
@@ -9920,13 +9952,13 @@
         <v>40</v>
       </c>
       <c r="E197" s="38" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F197" s="2"/>
     </row>
     <row r="198" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="21" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="B198" s="33" t="s">
         <v>27</v>
@@ -9938,13 +9970,13 @@
         <v>40</v>
       </c>
       <c r="E198" s="38" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F198" s="2"/>
     </row>
     <row r="199" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="21" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="B199" s="33" t="s">
         <v>28</v>
@@ -9956,13 +9988,13 @@
         <v>39</v>
       </c>
       <c r="E199" s="38" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="F199" s="2"/>
     </row>
     <row r="200" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" s="21" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="B200" s="33" t="s">
         <v>29</v>
@@ -9974,13 +10006,13 @@
         <v>40</v>
       </c>
       <c r="E200" s="38" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F200" s="2"/>
     </row>
     <row r="201" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="21" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="B201" s="33" t="s">
         <v>30</v>
@@ -9992,13 +10024,13 @@
         <v>40</v>
       </c>
       <c r="E201" s="38" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F201" s="2"/>
     </row>
     <row r="202" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="21" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B202" s="33" t="s">
         <v>50</v>
@@ -10010,13 +10042,13 @@
         <v>40</v>
       </c>
       <c r="E202" s="38" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F202" s="2"/>
     </row>
     <row r="203" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="21" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B203" s="33" t="s">
         <v>6</v>
@@ -10028,13 +10060,13 @@
         <v>39</v>
       </c>
       <c r="E203" s="41" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F203" s="2"/>
     </row>
     <row r="204" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="21" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B204" s="33" t="s">
         <v>51</v>
@@ -10046,13 +10078,13 @@
         <v>38</v>
       </c>
       <c r="E204" s="38" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F204" s="2"/>
     </row>
     <row r="205" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" s="21" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B205" s="33" t="s">
         <v>0</v>
@@ -10064,13 +10096,13 @@
         <v>40</v>
       </c>
       <c r="E205" s="38" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F205" s="2"/>
     </row>
     <row r="206" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" s="21" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B206" s="33" t="s">
         <v>52</v>
@@ -10082,13 +10114,13 @@
         <v>38</v>
       </c>
       <c r="E206" s="41" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F206" s="2"/>
     </row>
     <row r="207" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="21" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B207" s="33" t="s">
         <v>53</v>
@@ -10100,13 +10132,13 @@
         <v>39</v>
       </c>
       <c r="E207" s="38" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F207" s="2"/>
     </row>
     <row r="208" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" s="21" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B208" s="33" t="s">
         <v>54</v>
@@ -10118,13 +10150,13 @@
         <v>40</v>
       </c>
       <c r="E208" s="38" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F208" s="2"/>
     </row>
     <row r="209" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="21" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B209" s="33" t="s">
         <v>7</v>
@@ -10136,13 +10168,13 @@
         <v>38</v>
       </c>
       <c r="E209" s="41" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F209" s="2"/>
     </row>
     <row r="210" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" s="21" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B210" s="33" t="s">
         <v>8</v>
@@ -10154,13 +10186,13 @@
         <v>38</v>
       </c>
       <c r="E210" s="38" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F210" s="2"/>
     </row>
     <row r="211" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" s="21" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B211" s="33" t="s">
         <v>9</v>
@@ -10172,13 +10204,13 @@
         <v>38</v>
       </c>
       <c r="E211" s="38" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F211" s="2"/>
     </row>
     <row r="212" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212" s="21" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B212" s="33" t="s">
         <v>10</v>
@@ -10190,13 +10222,13 @@
         <v>38</v>
       </c>
       <c r="E212" s="38" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F212" s="2"/>
     </row>
     <row r="213" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="21" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B213" s="33" t="s">
         <v>55</v>
@@ -10208,13 +10240,13 @@
         <v>39</v>
       </c>
       <c r="E213" s="38" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F213" s="2"/>
     </row>
     <row r="214" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" s="21" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B214" s="33" t="s">
         <v>56</v>
@@ -10226,13 +10258,13 @@
         <v>38</v>
       </c>
       <c r="E214" s="38" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F214" s="2"/>
     </row>
     <row r="215" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="21" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B215" s="33" t="s">
         <v>11</v>
@@ -10244,13 +10276,13 @@
         <v>40</v>
       </c>
       <c r="E215" s="38" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F215" s="2"/>
     </row>
     <row r="216" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216" s="21" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B216" s="33" t="s">
         <v>34</v>
@@ -10262,13 +10294,13 @@
         <v>38</v>
       </c>
       <c r="E216" s="38" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F216" s="2"/>
     </row>
     <row r="217" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217" s="21" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B217" s="33" t="s">
         <v>33</v>
@@ -10280,13 +10312,13 @@
         <v>38</v>
       </c>
       <c r="E217" s="38" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F217" s="2"/>
     </row>
     <row r="218" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218" s="21" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B218" s="33" t="s">
         <v>58</v>
@@ -10298,13 +10330,13 @@
         <v>39</v>
       </c>
       <c r="E218" s="38" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F218" s="2"/>
     </row>
     <row r="219" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" s="21" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B219" s="33" t="s">
         <v>13</v>
@@ -10316,13 +10348,13 @@
         <v>38</v>
       </c>
       <c r="E219" s="38" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="F219" s="2"/>
     </row>
     <row r="220" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="21" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B220" s="33" t="s">
         <v>12</v>
@@ -10334,13 +10366,13 @@
         <v>38</v>
       </c>
       <c r="E220" s="38" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F220" s="2"/>
     </row>
     <row r="221" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221" s="21" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B221" s="33" t="s">
         <v>14</v>
@@ -10352,13 +10384,13 @@
         <v>38</v>
       </c>
       <c r="E221" s="38" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F221" s="2"/>
     </row>
     <row r="222" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" s="21" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B222" s="33" t="s">
         <v>32</v>
@@ -10370,31 +10402,31 @@
         <v>38</v>
       </c>
       <c r="E222" s="38" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="F222" s="2"/>
     </row>
-    <row r="223" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="21" t="s">
-        <v>334</v>
+    <row r="223" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="32" t="s">
+        <v>327</v>
       </c>
       <c r="B223" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="C223" s="22">
+      <c r="C223" s="34">
         <v>2017</v>
       </c>
       <c r="D223" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="E223" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="F223" s="2"/>
+      <c r="E223" s="42" t="s">
+        <v>417</v>
+      </c>
+      <c r="F223" s="45"/>
     </row>
     <row r="224" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A224" s="21" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B224" s="33" t="s">
         <v>60</v>
@@ -10406,13 +10438,13 @@
         <v>40</v>
       </c>
       <c r="E224" s="38" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F224" s="2"/>
     </row>
     <row r="225" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A225" s="21" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B225" s="33" t="s">
         <v>15</v>
@@ -10424,13 +10456,13 @@
         <v>40</v>
       </c>
       <c r="E225" s="38" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F225" s="2"/>
     </row>
     <row r="226" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A226" s="21" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B226" s="33" t="s">
         <v>61</v>
@@ -10442,13 +10474,13 @@
         <v>40</v>
       </c>
       <c r="E226" s="38" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F226" s="2"/>
     </row>
     <row r="227" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A227" s="21" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B227" s="33" t="s">
         <v>16</v>
@@ -10460,13 +10492,13 @@
         <v>38</v>
       </c>
       <c r="E227" s="41" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F227" s="2"/>
     </row>
     <row r="228" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A228" s="21" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B228" s="33" t="s">
         <v>17</v>
@@ -10478,13 +10510,13 @@
         <v>38</v>
       </c>
       <c r="E228" s="41" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F228" s="2"/>
     </row>
     <row r="229" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A229" s="21" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B229" s="33" t="s">
         <v>63</v>
@@ -10496,13 +10528,13 @@
         <v>40</v>
       </c>
       <c r="E229" s="38" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F229" s="2"/>
     </row>
     <row r="230" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A230" s="21" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B230" s="33" t="s">
         <v>64</v>
@@ -10514,13 +10546,13 @@
         <v>39</v>
       </c>
       <c r="E230" s="41" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F230" s="2"/>
     </row>
     <row r="231" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A231" s="21" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B231" s="33" t="s">
         <v>18</v>
@@ -10532,13 +10564,13 @@
         <v>39</v>
       </c>
       <c r="E231" s="38" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="F231" s="2"/>
     </row>
     <row r="232" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A232" s="21" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B232" s="33" t="s">
         <v>65</v>
@@ -10550,13 +10582,13 @@
         <v>40</v>
       </c>
       <c r="E232" s="38" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F232" s="2"/>
     </row>
     <row r="233" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A233" s="21" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B233" s="33" t="s">
         <v>19</v>
@@ -10568,13 +10600,13 @@
         <v>40</v>
       </c>
       <c r="E233" s="38" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F233" s="2"/>
     </row>
     <row r="234" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A234" s="21" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B234" s="33" t="s">
         <v>66</v>
@@ -10586,13 +10618,13 @@
         <v>40</v>
       </c>
       <c r="E234" s="38" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F234" s="2"/>
     </row>
     <row r="235" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A235" s="21" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B235" s="33" t="s">
         <v>67</v>
@@ -10604,13 +10636,13 @@
         <v>38</v>
       </c>
       <c r="E235" s="38" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F235" s="2"/>
     </row>
     <row r="236" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A236" s="21" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B236" s="33" t="s">
         <v>68</v>
@@ -10622,13 +10654,13 @@
         <v>40</v>
       </c>
       <c r="E236" s="38" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="F236" s="2"/>
     </row>
     <row r="237" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A237" s="21" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B237" s="33" t="s">
         <v>20</v>
@@ -10640,13 +10672,13 @@
         <v>38</v>
       </c>
       <c r="E237" s="38" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F237" s="2"/>
     </row>
     <row r="238" spans="1:6" s="24" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A238" s="21" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B238" s="33" t="s">
         <v>21</v>
@@ -10658,13 +10690,13 @@
         <v>39</v>
       </c>
       <c r="E238" s="38" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="F238" s="2"/>
     </row>
     <row r="239" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A239" s="21" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B239" s="33" t="s">
         <v>22</v>
@@ -10676,13 +10708,13 @@
         <v>38</v>
       </c>
       <c r="E239" s="38" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F239" s="2"/>
     </row>
     <row r="240" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A240" s="21" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B240" s="33" t="s">
         <v>31</v>
@@ -10694,13 +10726,13 @@
         <v>38</v>
       </c>
       <c r="E240" s="38" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F240" s="2"/>
     </row>
     <row r="241" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A241" s="21" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B241" s="33" t="s">
         <v>69</v>
@@ -10712,13 +10744,13 @@
         <v>38</v>
       </c>
       <c r="E241" s="38" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F241" s="2"/>
     </row>
     <row r="242" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A242" s="21" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B242" s="33" t="s">
         <v>23</v>
@@ -10730,13 +10762,13 @@
         <v>38</v>
       </c>
       <c r="E242" s="38" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="F242" s="2"/>
     </row>
     <row r="243" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A243" s="21" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B243" s="33" t="s">
         <v>105</v>
@@ -10748,13 +10780,13 @@
         <v>38</v>
       </c>
       <c r="E243" s="38" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="F243" s="2"/>
     </row>
     <row r="244" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A244" s="21" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B244" s="43" t="s">
         <v>24</v>
@@ -10766,13 +10798,13 @@
         <v>39</v>
       </c>
       <c r="E244" s="42" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="F244" s="1"/>
     </row>
     <row r="245" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A245" s="21" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B245" s="33" t="s">
         <v>25</v>
@@ -10784,13 +10816,13 @@
         <v>38</v>
       </c>
       <c r="E245" s="38" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F245" s="2"/>
     </row>
     <row r="246" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A246" s="21" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B246" s="33" t="s">
         <v>26</v>
@@ -10802,13 +10834,13 @@
         <v>40</v>
       </c>
       <c r="E246" s="38" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F246" s="2"/>
     </row>
     <row r="247" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A247" s="21" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B247" s="33" t="s">
         <v>71</v>
@@ -10820,13 +10852,13 @@
         <v>40</v>
       </c>
       <c r="E247" s="38" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F247" s="2"/>
     </row>
     <row r="248" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A248" s="21" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B248" s="33" t="s">
         <v>27</v>
@@ -10838,13 +10870,13 @@
         <v>38</v>
       </c>
       <c r="E248" s="38" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F248" s="2"/>
     </row>
     <row r="249" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A249" s="21" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B249" s="33" t="s">
         <v>28</v>
@@ -10856,13 +10888,13 @@
         <v>38</v>
       </c>
       <c r="E249" s="38" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F249" s="2"/>
     </row>
     <row r="250" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A250" s="21" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B250" s="33" t="s">
         <v>29</v>
@@ -10874,13 +10906,13 @@
         <v>38</v>
       </c>
       <c r="E250" s="38" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F250" s="2"/>
     </row>
     <row r="251" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A251" s="21" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B251" s="33" t="s">
         <v>30</v>
@@ -10892,13 +10924,13 @@
         <v>40</v>
       </c>
       <c r="E251" s="38" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F251" s="2"/>
     </row>
     <row r="252" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A252" s="21" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B252" s="33" t="s">
         <v>50</v>
@@ -10910,13 +10942,13 @@
         <v>40</v>
       </c>
       <c r="E252" s="38" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F252" s="2"/>
     </row>
     <row r="253" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A253" s="21" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B253" s="33" t="s">
         <v>6</v>
@@ -10928,13 +10960,13 @@
         <v>38</v>
       </c>
       <c r="E253" s="41" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F253" s="2"/>
     </row>
     <row r="254" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A254" s="21" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B254" s="33" t="s">
         <v>51</v>
@@ -10946,13 +10978,13 @@
         <v>39</v>
       </c>
       <c r="E254" s="41" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="F254" s="2"/>
     </row>
     <row r="255" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A255" s="21" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B255" s="33" t="s">
         <v>0</v>
@@ -10964,13 +10996,13 @@
         <v>40</v>
       </c>
       <c r="E255" s="38" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F255" s="2"/>
     </row>
     <row r="256" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A256" s="21" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B256" s="33" t="s">
         <v>52</v>
@@ -10982,13 +11014,13 @@
         <v>40</v>
       </c>
       <c r="E256" s="38" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F256" s="2"/>
     </row>
     <row r="257" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A257" s="21" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B257" s="33" t="s">
         <v>53</v>
@@ -11000,13 +11032,13 @@
         <v>39</v>
       </c>
       <c r="E257" s="41" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="F257" s="2"/>
     </row>
     <row r="258" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A258" s="21" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B258" s="33" t="s">
         <v>54</v>
@@ -11018,13 +11050,13 @@
         <v>40</v>
       </c>
       <c r="E258" s="38" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F258" s="2"/>
     </row>
     <row r="259" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A259" s="21" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B259" s="33" t="s">
         <v>7</v>
@@ -11036,13 +11068,13 @@
         <v>39</v>
       </c>
       <c r="E259" s="38" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F259" s="2"/>
     </row>
     <row r="260" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A260" s="21" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B260" s="33" t="s">
         <v>8</v>
@@ -11054,13 +11086,13 @@
         <v>39</v>
       </c>
       <c r="E260" s="38" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F260" s="2"/>
     </row>
     <row r="261" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A261" s="21" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B261" s="33" t="s">
         <v>9</v>
@@ -11072,13 +11104,13 @@
         <v>38</v>
       </c>
       <c r="E261" s="41" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F261" s="2"/>
     </row>
     <row r="262" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A262" s="21" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B262" s="33" t="s">
         <v>10</v>
@@ -11090,13 +11122,13 @@
         <v>40</v>
       </c>
       <c r="E262" s="41" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F262" s="2"/>
     </row>
     <row r="263" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A263" s="21" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B263" s="33" t="s">
         <v>55</v>
@@ -11108,13 +11140,13 @@
         <v>40</v>
       </c>
       <c r="E263" s="41" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F263" s="2"/>
     </row>
     <row r="264" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A264" s="21" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B264" s="33" t="s">
         <v>56</v>
@@ -11126,13 +11158,13 @@
         <v>38</v>
       </c>
       <c r="E264" s="41" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="F264" s="2"/>
     </row>
     <row r="265" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A265" s="21" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B265" s="33" t="s">
         <v>11</v>
@@ -11144,13 +11176,13 @@
         <v>39</v>
       </c>
       <c r="E265" s="38" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F265" s="2"/>
     </row>
     <row r="266" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A266" s="21" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B266" s="33" t="s">
         <v>34</v>
@@ -11162,13 +11194,13 @@
         <v>38</v>
       </c>
       <c r="E266" s="38" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="F266" s="2"/>
     </row>
     <row r="267" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A267" s="21" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B267" s="33" t="s">
         <v>33</v>
@@ -11180,13 +11212,13 @@
         <v>40</v>
       </c>
       <c r="E267" s="38" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F267" s="2"/>
     </row>
     <row r="268" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A268" s="21" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B268" s="33" t="s">
         <v>58</v>
@@ -11198,13 +11230,13 @@
         <v>40</v>
       </c>
       <c r="E268" s="38" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F268" s="2"/>
     </row>
     <row r="269" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A269" s="21" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B269" s="33" t="s">
         <v>13</v>
@@ -11216,13 +11248,13 @@
         <v>38</v>
       </c>
       <c r="E269" s="38" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F269" s="2"/>
     </row>
     <row r="270" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A270" s="21" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B270" s="33" t="s">
         <v>12</v>
@@ -11234,13 +11266,13 @@
         <v>38</v>
       </c>
       <c r="E270" s="38" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F270" s="2"/>
     </row>
     <row r="271" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A271" s="21" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B271" s="33" t="s">
         <v>14</v>
@@ -11252,13 +11284,13 @@
         <v>38</v>
       </c>
       <c r="E271" s="38" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F271" s="2"/>
     </row>
     <row r="272" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A272" s="21" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B272" s="33" t="s">
         <v>32</v>
@@ -11270,31 +11302,31 @@
         <v>38</v>
       </c>
       <c r="E272" s="38" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F272" s="2"/>
     </row>
-    <row r="273" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A273" s="21" t="s">
-        <v>335</v>
+    <row r="273" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A273" s="32" t="s">
+        <v>328</v>
       </c>
       <c r="B273" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="C273" s="22">
+      <c r="C273" s="34">
         <v>2017</v>
       </c>
       <c r="D273" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="E273" s="38" t="s">
-        <v>270</v>
-      </c>
-      <c r="F273" s="2"/>
+      <c r="E273" s="42" t="s">
+        <v>419</v>
+      </c>
+      <c r="F273" s="45"/>
     </row>
     <row r="274" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A274" s="21" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B274" s="33" t="s">
         <v>60</v>
@@ -11306,13 +11338,13 @@
         <v>40</v>
       </c>
       <c r="E274" s="38" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F274" s="2"/>
     </row>
     <row r="275" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A275" s="21" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B275" s="33" t="s">
         <v>15</v>
@@ -11324,13 +11356,13 @@
         <v>40</v>
       </c>
       <c r="E275" s="38" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F275" s="2"/>
     </row>
     <row r="276" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A276" s="21" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B276" s="33" t="s">
         <v>61</v>
@@ -11342,13 +11374,13 @@
         <v>40</v>
       </c>
       <c r="E276" s="38" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F276" s="2"/>
     </row>
     <row r="277" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A277" s="21" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B277" s="33" t="s">
         <v>16</v>
@@ -11360,13 +11392,13 @@
         <v>40</v>
       </c>
       <c r="E277" s="38" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F277" s="2"/>
     </row>
     <row r="278" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A278" s="21" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B278" s="33" t="s">
         <v>17</v>
@@ -11378,13 +11410,13 @@
         <v>38</v>
       </c>
       <c r="E278" s="38" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="F278" s="2"/>
     </row>
     <row r="279" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A279" s="21" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B279" s="33" t="s">
         <v>63</v>
@@ -11396,13 +11428,13 @@
         <v>40</v>
       </c>
       <c r="E279" s="38" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F279" s="2"/>
     </row>
     <row r="280" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A280" s="21" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B280" s="33" t="s">
         <v>64</v>
@@ -11414,13 +11446,13 @@
         <v>40</v>
       </c>
       <c r="E280" s="38" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F280" s="2"/>
     </row>
     <row r="281" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A281" s="21" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B281" s="33" t="s">
         <v>18</v>
@@ -11432,13 +11464,13 @@
         <v>40</v>
       </c>
       <c r="E281" s="38" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F281" s="2"/>
     </row>
     <row r="282" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A282" s="21" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B282" s="33" t="s">
         <v>65</v>
@@ -11450,13 +11482,13 @@
         <v>38</v>
       </c>
       <c r="E282" s="41" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F282" s="2"/>
     </row>
     <row r="283" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A283" s="21" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B283" s="33" t="s">
         <v>19</v>
@@ -11468,13 +11500,13 @@
         <v>38</v>
       </c>
       <c r="E283" s="38" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F283" s="2"/>
     </row>
     <row r="284" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A284" s="21" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B284" s="33" t="s">
         <v>66</v>
@@ -11486,13 +11518,13 @@
         <v>40</v>
       </c>
       <c r="E284" s="38" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F284" s="2"/>
     </row>
     <row r="285" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A285" s="21" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B285" s="33" t="s">
         <v>67</v>
@@ -11504,13 +11536,13 @@
         <v>40</v>
       </c>
       <c r="E285" s="38" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F285" s="2"/>
     </row>
     <row r="286" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A286" s="21" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B286" s="33" t="s">
         <v>68</v>
@@ -11522,13 +11554,13 @@
         <v>40</v>
       </c>
       <c r="E286" s="38" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F286" s="2"/>
     </row>
     <row r="287" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A287" s="21" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B287" s="33" t="s">
         <v>20</v>
@@ -11540,13 +11572,13 @@
         <v>38</v>
       </c>
       <c r="E287" s="38" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="F287" s="2"/>
     </row>
     <row r="288" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A288" s="21" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B288" s="33" t="s">
         <v>21</v>
@@ -11558,13 +11590,13 @@
         <v>38</v>
       </c>
       <c r="E288" s="38" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F288" s="2"/>
     </row>
     <row r="289" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A289" s="21" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B289" s="33" t="s">
         <v>22</v>
@@ -11576,13 +11608,13 @@
         <v>40</v>
       </c>
       <c r="E289" s="38" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F289" s="2"/>
     </row>
     <row r="290" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A290" s="21" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B290" s="33" t="s">
         <v>31</v>
@@ -11594,13 +11626,13 @@
         <v>38</v>
       </c>
       <c r="E290" s="38" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F290" s="2"/>
     </row>
     <row r="291" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A291" s="21" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B291" s="33" t="s">
         <v>69</v>
@@ -11612,13 +11644,13 @@
         <v>40</v>
       </c>
       <c r="E291" s="38" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F291" s="2"/>
     </row>
     <row r="292" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A292" s="21" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B292" s="33" t="s">
         <v>23</v>
@@ -11630,13 +11662,13 @@
         <v>38</v>
       </c>
       <c r="E292" s="41" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="F292" s="2"/>
     </row>
     <row r="293" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A293" s="21" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B293" s="33" t="s">
         <v>105</v>
@@ -11648,13 +11680,13 @@
         <v>40</v>
       </c>
       <c r="E293" s="38" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F293" s="2"/>
     </row>
     <row r="294" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A294" s="21" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B294" s="33" t="s">
         <v>24</v>
@@ -11666,13 +11698,13 @@
         <v>39</v>
       </c>
       <c r="E294" s="42" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="F294" s="2"/>
     </row>
     <row r="295" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A295" s="21" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B295" s="33" t="s">
         <v>25</v>
@@ -11684,13 +11716,13 @@
         <v>38</v>
       </c>
       <c r="E295" s="38" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F295" s="2"/>
     </row>
     <row r="296" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A296" s="21" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B296" s="33" t="s">
         <v>26</v>
@@ -11702,13 +11734,13 @@
         <v>40</v>
       </c>
       <c r="E296" s="38" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F296" s="2"/>
     </row>
     <row r="297" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A297" s="21" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B297" s="33" t="s">
         <v>71</v>
@@ -11720,13 +11752,13 @@
         <v>40</v>
       </c>
       <c r="E297" s="38" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F297" s="2"/>
     </row>
     <row r="298" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A298" s="21" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B298" s="33" t="s">
         <v>27</v>
@@ -11738,13 +11770,13 @@
         <v>40</v>
       </c>
       <c r="E298" s="38" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F298" s="2"/>
     </row>
     <row r="299" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A299" s="21" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B299" s="33" t="s">
         <v>28</v>
@@ -11756,13 +11788,13 @@
         <v>38</v>
       </c>
       <c r="E299" s="38" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="F299" s="2"/>
     </row>
     <row r="300" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A300" s="21" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B300" s="33" t="s">
         <v>29</v>
@@ -11774,13 +11806,13 @@
         <v>38</v>
       </c>
       <c r="E300" s="38" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F300" s="2"/>
     </row>
     <row r="301" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A301" s="21" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B301" s="33" t="s">
         <v>30</v>
@@ -11792,13 +11824,13 @@
         <v>39</v>
       </c>
       <c r="E301" s="41" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="F301" s="2"/>
     </row>
     <row r="302" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A302" s="21" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="B302" s="33" t="s">
         <v>50</v>
@@ -11810,13 +11842,13 @@
         <v>40</v>
       </c>
       <c r="E302" s="38" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F302" s="2"/>
     </row>
     <row r="303" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A303" s="21" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="B303" s="33" t="s">
         <v>6</v>
@@ -11828,13 +11860,13 @@
         <v>40</v>
       </c>
       <c r="E303" s="38" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F303" s="2"/>
     </row>
     <row r="304" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A304" s="21" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="B304" s="33" t="s">
         <v>51</v>
@@ -11846,13 +11878,13 @@
         <v>40</v>
       </c>
       <c r="E304" s="38" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F304" s="2"/>
     </row>
     <row r="305" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A305" s="21" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="B305" s="33" t="s">
         <v>0</v>
@@ -11864,13 +11896,13 @@
         <v>40</v>
       </c>
       <c r="E305" s="38" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F305" s="2"/>
     </row>
     <row r="306" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A306" s="21" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="B306" s="33" t="s">
         <v>52</v>
@@ -11882,13 +11914,13 @@
         <v>40</v>
       </c>
       <c r="E306" s="38" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F306" s="2"/>
     </row>
     <row r="307" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A307" s="21" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="B307" s="33" t="s">
         <v>53</v>
@@ -11900,13 +11932,13 @@
         <v>40</v>
       </c>
       <c r="E307" s="38" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F307" s="2"/>
     </row>
     <row r="308" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A308" s="21" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="B308" s="33" t="s">
         <v>54</v>
@@ -11918,13 +11950,13 @@
         <v>40</v>
       </c>
       <c r="E308" s="38" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F308" s="2"/>
     </row>
     <row r="309" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A309" s="21" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="B309" s="33" t="s">
         <v>7</v>
@@ -11936,13 +11968,13 @@
         <v>40</v>
       </c>
       <c r="E309" s="38" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F309" s="2"/>
     </row>
     <row r="310" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A310" s="21" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="B310" s="33" t="s">
         <v>8</v>
@@ -11954,13 +11986,13 @@
         <v>40</v>
       </c>
       <c r="E310" s="38" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F310" s="2"/>
     </row>
     <row r="311" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A311" s="21" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="B311" s="33" t="s">
         <v>9</v>
@@ -11972,13 +12004,13 @@
         <v>40</v>
       </c>
       <c r="E311" s="38" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F311" s="2"/>
     </row>
     <row r="312" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A312" s="21" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="B312" s="33" t="s">
         <v>10</v>
@@ -11990,13 +12022,13 @@
         <v>40</v>
       </c>
       <c r="E312" s="38" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F312" s="2"/>
     </row>
     <row r="313" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A313" s="21" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="B313" s="33" t="s">
         <v>55</v>
@@ -12008,13 +12040,13 @@
         <v>40</v>
       </c>
       <c r="E313" s="38" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F313" s="2"/>
     </row>
     <row r="314" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A314" s="21" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="B314" s="33" t="s">
         <v>56</v>
@@ -12026,13 +12058,13 @@
         <v>40</v>
       </c>
       <c r="E314" s="38" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F314" s="2"/>
     </row>
     <row r="315" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A315" s="21" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="B315" s="33" t="s">
         <v>11</v>
@@ -12044,13 +12076,13 @@
         <v>40</v>
       </c>
       <c r="E315" s="38" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F315" s="2"/>
     </row>
     <row r="316" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A316" s="21" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="B316" s="33" t="s">
         <v>34</v>
@@ -12062,13 +12094,13 @@
         <v>40</v>
       </c>
       <c r="E316" s="38" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F316" s="2"/>
     </row>
     <row r="317" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A317" s="21" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="B317" s="33" t="s">
         <v>33</v>
@@ -12080,13 +12112,13 @@
         <v>40</v>
       </c>
       <c r="E317" s="38" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F317" s="2"/>
     </row>
     <row r="318" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A318" s="21" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="B318" s="33" t="s">
         <v>58</v>
@@ -12098,13 +12130,13 @@
         <v>40</v>
       </c>
       <c r="E318" s="38" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F318" s="2"/>
     </row>
     <row r="319" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A319" s="21" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="B319" s="33" t="s">
         <v>13</v>
@@ -12116,13 +12148,13 @@
         <v>39</v>
       </c>
       <c r="E319" s="38" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F319" s="2"/>
     </row>
     <row r="320" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A320" s="21" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="B320" s="33" t="s">
         <v>12</v>
@@ -12134,13 +12166,13 @@
         <v>40</v>
       </c>
       <c r="E320" s="38" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F320" s="2"/>
     </row>
     <row r="321" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A321" s="21" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="B321" s="33" t="s">
         <v>14</v>
@@ -12152,13 +12184,13 @@
         <v>40</v>
       </c>
       <c r="E321" s="38" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F321" s="2"/>
     </row>
     <row r="322" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A322" s="21" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="B322" s="33" t="s">
         <v>32</v>
@@ -12170,31 +12202,31 @@
         <v>40</v>
       </c>
       <c r="E322" s="38" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F322" s="2"/>
     </row>
-    <row r="323" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A323" s="21" t="s">
-        <v>336</v>
+    <row r="323" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A323" s="32" t="s">
+        <v>329</v>
       </c>
       <c r="B323" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="C323" s="22">
-        <v>2017</v>
-      </c>
-      <c r="D323" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="E323" s="38" t="s">
-        <v>271</v>
-      </c>
-      <c r="F323" s="2"/>
+      <c r="C323" s="34">
+        <v>2017</v>
+      </c>
+      <c r="D323" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="E323" s="44" t="s">
+        <v>190</v>
+      </c>
+      <c r="F323" s="45"/>
     </row>
     <row r="324" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A324" s="21" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="B324" s="33" t="s">
         <v>60</v>
@@ -12206,13 +12238,13 @@
         <v>40</v>
       </c>
       <c r="E324" s="38" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F324" s="2"/>
     </row>
     <row r="325" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A325" s="21" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="B325" s="33" t="s">
         <v>15</v>
@@ -12224,13 +12256,13 @@
         <v>40</v>
       </c>
       <c r="E325" s="38" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F325" s="2"/>
     </row>
     <row r="326" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A326" s="21" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="B326" s="33" t="s">
         <v>61</v>
@@ -12242,13 +12274,13 @@
         <v>40</v>
       </c>
       <c r="E326" s="38" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F326" s="2"/>
     </row>
     <row r="327" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A327" s="21" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="B327" s="33" t="s">
         <v>16</v>
@@ -12260,13 +12292,13 @@
         <v>40</v>
       </c>
       <c r="E327" s="38" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F327" s="2"/>
     </row>
     <row r="328" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A328" s="21" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="B328" s="33" t="s">
         <v>17</v>
@@ -12278,13 +12310,13 @@
         <v>40</v>
       </c>
       <c r="E328" s="38" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F328" s="2"/>
     </row>
     <row r="329" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A329" s="21" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="B329" s="33" t="s">
         <v>63</v>
@@ -12296,13 +12328,13 @@
         <v>40</v>
       </c>
       <c r="E329" s="38" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F329" s="2"/>
     </row>
     <row r="330" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A330" s="21" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="B330" s="33" t="s">
         <v>64</v>
@@ -12314,13 +12346,13 @@
         <v>40</v>
       </c>
       <c r="E330" s="38" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F330" s="2"/>
     </row>
     <row r="331" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A331" s="21" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="B331" s="33" t="s">
         <v>18</v>
@@ -12332,13 +12364,13 @@
         <v>40</v>
       </c>
       <c r="E331" s="38" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F331" s="2"/>
     </row>
     <row r="332" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A332" s="21" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="B332" s="33" t="s">
         <v>65</v>
@@ -12350,13 +12382,13 @@
         <v>40</v>
       </c>
       <c r="E332" s="38" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F332" s="2"/>
     </row>
     <row r="333" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A333" s="21" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="B333" s="33" t="s">
         <v>19</v>
@@ -12368,13 +12400,13 @@
         <v>40</v>
       </c>
       <c r="E333" s="38" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F333" s="2"/>
     </row>
     <row r="334" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A334" s="21" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="B334" s="33" t="s">
         <v>66</v>
@@ -12386,13 +12418,13 @@
         <v>40</v>
       </c>
       <c r="E334" s="38" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F334" s="2"/>
     </row>
     <row r="335" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A335" s="21" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="B335" s="33" t="s">
         <v>67</v>
@@ -12404,13 +12436,13 @@
         <v>40</v>
       </c>
       <c r="E335" s="38" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F335" s="2"/>
     </row>
     <row r="336" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A336" s="21" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="B336" s="33" t="s">
         <v>68</v>
@@ -12422,13 +12454,13 @@
         <v>40</v>
       </c>
       <c r="E336" s="38" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F336" s="2"/>
     </row>
     <row r="337" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A337" s="21" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="B337" s="33" t="s">
         <v>20</v>
@@ -12440,13 +12472,13 @@
         <v>40</v>
       </c>
       <c r="E337" s="38" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F337" s="2"/>
     </row>
     <row r="338" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A338" s="21" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="B338" s="33" t="s">
         <v>21</v>
@@ -12458,13 +12490,13 @@
         <v>40</v>
       </c>
       <c r="E338" s="38" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F338" s="2"/>
     </row>
     <row r="339" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A339" s="21" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="B339" s="33" t="s">
         <v>22</v>
@@ -12476,13 +12508,13 @@
         <v>40</v>
       </c>
       <c r="E339" s="38" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F339" s="2"/>
     </row>
     <row r="340" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A340" s="21" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="B340" s="33" t="s">
         <v>31</v>
@@ -12494,13 +12526,13 @@
         <v>40</v>
       </c>
       <c r="E340" s="38" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F340" s="2"/>
     </row>
     <row r="341" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A341" s="21" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="B341" s="33" t="s">
         <v>69</v>
@@ -12512,13 +12544,13 @@
         <v>40</v>
       </c>
       <c r="E341" s="38" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F341" s="2"/>
     </row>
     <row r="342" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A342" s="21" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="B342" s="33" t="s">
         <v>23</v>
@@ -12530,13 +12562,13 @@
         <v>40</v>
       </c>
       <c r="E342" s="38" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F342" s="2"/>
     </row>
     <row r="343" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A343" s="21" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="B343" s="33" t="s">
         <v>105</v>
@@ -12548,13 +12580,13 @@
         <v>40</v>
       </c>
       <c r="E343" s="38" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F343" s="2"/>
     </row>
     <row r="344" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A344" s="21" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="B344" s="33" t="s">
         <v>24</v>
@@ -12566,13 +12598,13 @@
         <v>40</v>
       </c>
       <c r="E344" s="38" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F344" s="2"/>
     </row>
     <row r="345" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A345" s="21" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="B345" s="33" t="s">
         <v>25</v>
@@ -12584,13 +12616,13 @@
         <v>40</v>
       </c>
       <c r="E345" s="38" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F345" s="2"/>
     </row>
     <row r="346" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A346" s="21" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="B346" s="33" t="s">
         <v>26</v>
@@ -12602,13 +12634,13 @@
         <v>40</v>
       </c>
       <c r="E346" s="38" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F346" s="2"/>
     </row>
     <row r="347" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A347" s="21" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="B347" s="33" t="s">
         <v>71</v>
@@ -12620,13 +12652,13 @@
         <v>40</v>
       </c>
       <c r="E347" s="38" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F347" s="2"/>
     </row>
     <row r="348" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A348" s="21" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="B348" s="33" t="s">
         <v>27</v>
@@ -12638,13 +12670,13 @@
         <v>40</v>
       </c>
       <c r="E348" s="38" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F348" s="2"/>
     </row>
     <row r="349" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A349" s="21" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="B349" s="33" t="s">
         <v>28</v>
@@ -12656,13 +12688,13 @@
         <v>40</v>
       </c>
       <c r="E349" s="38" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F349" s="2"/>
     </row>
     <row r="350" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A350" s="21" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="B350" s="33" t="s">
         <v>29</v>
@@ -12674,13 +12706,13 @@
         <v>40</v>
       </c>
       <c r="E350" s="38" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F350" s="2"/>
     </row>
     <row r="351" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A351" s="21" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="B351" s="33" t="s">
         <v>30</v>
@@ -12692,13 +12724,13 @@
         <v>40</v>
       </c>
       <c r="E351" s="38" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F351" s="2"/>
     </row>
     <row r="352" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A352" s="21" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B352" s="33" t="s">
         <v>50</v>
@@ -12710,13 +12742,13 @@
         <v>40</v>
       </c>
       <c r="E352" s="38" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="F352" s="2"/>
     </row>
     <row r="353" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A353" s="21" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B353" s="33" t="s">
         <v>6</v>
@@ -12728,13 +12760,13 @@
         <v>38</v>
       </c>
       <c r="E353" s="38" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F353" s="2"/>
     </row>
     <row r="354" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A354" s="21" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B354" s="33" t="s">
         <v>51</v>
@@ -12746,13 +12778,13 @@
         <v>39</v>
       </c>
       <c r="E354" s="38" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F354" s="2"/>
     </row>
     <row r="355" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A355" s="21" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B355" s="33" t="s">
         <v>0</v>
@@ -12764,13 +12796,13 @@
         <v>38</v>
       </c>
       <c r="E355" s="38" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="F355" s="2"/>
     </row>
     <row r="356" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A356" s="21" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B356" s="33" t="s">
         <v>52</v>
@@ -12782,13 +12814,13 @@
         <v>40</v>
       </c>
       <c r="E356" s="38" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F356" s="2"/>
     </row>
     <row r="357" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A357" s="21" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B357" s="33" t="s">
         <v>53</v>
@@ -12800,13 +12832,13 @@
         <v>38</v>
       </c>
       <c r="E357" s="38" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F357" s="2"/>
     </row>
     <row r="358" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A358" s="21" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B358" s="33" t="s">
         <v>54</v>
@@ -12818,13 +12850,13 @@
         <v>39</v>
       </c>
       <c r="E358" s="38" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F358" s="2"/>
     </row>
     <row r="359" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A359" s="21" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B359" s="33" t="s">
         <v>7</v>
@@ -12836,13 +12868,13 @@
         <v>38</v>
       </c>
       <c r="E359" s="38" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="F359" s="2"/>
     </row>
     <row r="360" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A360" s="21" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B360" s="33" t="s">
         <v>8</v>
@@ -12854,13 +12886,13 @@
         <v>40</v>
       </c>
       <c r="E360" s="38" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F360" s="2"/>
     </row>
     <row r="361" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A361" s="21" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B361" s="33" t="s">
         <v>9</v>
@@ -12872,13 +12904,13 @@
         <v>38</v>
       </c>
       <c r="E361" s="38" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F361" s="2"/>
     </row>
     <row r="362" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A362" s="21" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B362" s="33" t="s">
         <v>10</v>
@@ -12890,13 +12922,13 @@
         <v>39</v>
       </c>
       <c r="E362" s="38" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="F362" s="2"/>
     </row>
     <row r="363" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A363" s="21" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B363" s="33" t="s">
         <v>55</v>
@@ -12908,13 +12940,13 @@
         <v>38</v>
       </c>
       <c r="E363" s="38" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F363" s="2"/>
     </row>
     <row r="364" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A364" s="21" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B364" s="33" t="s">
         <v>56</v>
@@ -12926,13 +12958,13 @@
         <v>38</v>
       </c>
       <c r="E364" s="38" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F364" s="2"/>
     </row>
     <row r="365" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A365" s="21" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B365" s="33" t="s">
         <v>11</v>
@@ -12944,13 +12976,13 @@
         <v>38</v>
       </c>
       <c r="E365" s="38" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="F365" s="2"/>
     </row>
     <row r="366" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A366" s="21" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B366" s="33" t="s">
         <v>34</v>
@@ -12962,13 +12994,13 @@
         <v>40</v>
       </c>
       <c r="E366" s="38" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F366" s="2"/>
     </row>
     <row r="367" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A367" s="21" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B367" s="33" t="s">
         <v>33</v>
@@ -12980,13 +13012,13 @@
         <v>40</v>
       </c>
       <c r="E367" s="38" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="F367" s="2"/>
     </row>
     <row r="368" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A368" s="21" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B368" s="33" t="s">
         <v>58</v>
@@ -12998,13 +13030,13 @@
         <v>40</v>
       </c>
       <c r="E368" s="38" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F368" s="2"/>
     </row>
     <row r="369" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A369" s="21" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B369" s="33" t="s">
         <v>13</v>
@@ -13016,13 +13048,13 @@
         <v>39</v>
       </c>
       <c r="E369" s="38" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F369" s="2"/>
     </row>
     <row r="370" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A370" s="21" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B370" s="33" t="s">
         <v>12</v>
@@ -13034,13 +13066,13 @@
         <v>38</v>
       </c>
       <c r="E370" s="38" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F370" s="2"/>
     </row>
     <row r="371" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A371" s="21" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B371" s="33" t="s">
         <v>14</v>
@@ -13052,13 +13084,13 @@
         <v>38</v>
       </c>
       <c r="E371" s="38" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F371" s="2"/>
     </row>
     <row r="372" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A372" s="21" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B372" s="33" t="s">
         <v>32</v>
@@ -13070,31 +13102,31 @@
         <v>40</v>
       </c>
       <c r="E372" s="38" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="F372" s="2"/>
     </row>
-    <row r="373" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A373" s="21" t="s">
-        <v>337</v>
+    <row r="373" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A373" s="32" t="s">
+        <v>330</v>
       </c>
       <c r="B373" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="C373" s="22">
+      <c r="C373" s="34">
         <v>2017</v>
       </c>
       <c r="D373" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="E373" s="41" t="s">
-        <v>407</v>
-      </c>
-      <c r="F373" s="2"/>
+      <c r="E373" s="42" t="s">
+        <v>421</v>
+      </c>
+      <c r="F373" s="45"/>
     </row>
     <row r="374" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A374" s="21" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B374" s="33" t="s">
         <v>60</v>
@@ -13106,13 +13138,13 @@
         <v>38</v>
       </c>
       <c r="E374" s="38" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F374" s="2"/>
     </row>
     <row r="375" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A375" s="21" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B375" s="33" t="s">
         <v>15</v>
@@ -13124,13 +13156,13 @@
         <v>40</v>
       </c>
       <c r="E375" s="38" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="F375" s="2"/>
     </row>
     <row r="376" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A376" s="21" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B376" s="33" t="s">
         <v>61</v>
@@ -13142,13 +13174,13 @@
         <v>38</v>
       </c>
       <c r="E376" s="38" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F376" s="2"/>
     </row>
     <row r="377" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A377" s="21" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B377" s="33" t="s">
         <v>16</v>
@@ -13160,13 +13192,13 @@
         <v>39</v>
       </c>
       <c r="E377" s="38" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="F377" s="2"/>
     </row>
     <row r="378" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A378" s="21" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B378" s="33" t="s">
         <v>17</v>
@@ -13178,13 +13210,13 @@
         <v>39</v>
       </c>
       <c r="E378" s="38" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F378" s="2"/>
     </row>
     <row r="379" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A379" s="21" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B379" s="33" t="s">
         <v>63</v>
@@ -13196,13 +13228,13 @@
         <v>40</v>
       </c>
       <c r="E379" s="38" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="F379" s="2"/>
     </row>
     <row r="380" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A380" s="21" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B380" s="33" t="s">
         <v>64</v>
@@ -13214,13 +13246,13 @@
         <v>40</v>
       </c>
       <c r="E380" s="38" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="F380" s="2"/>
     </row>
     <row r="381" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A381" s="21" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B381" s="33" t="s">
         <v>18</v>
@@ -13232,13 +13264,13 @@
         <v>39</v>
       </c>
       <c r="E381" s="38" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F381" s="2"/>
     </row>
     <row r="382" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A382" s="21" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B382" s="33" t="s">
         <v>65</v>
@@ -13250,13 +13282,13 @@
         <v>39</v>
       </c>
       <c r="E382" s="38" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="F382" s="2"/>
     </row>
     <row r="383" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A383" s="21" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B383" s="33" t="s">
         <v>19</v>
@@ -13268,13 +13300,13 @@
         <v>40</v>
       </c>
       <c r="E383" s="41" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F383" s="2"/>
     </row>
     <row r="384" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A384" s="21" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B384" s="33" t="s">
         <v>66</v>
@@ -13286,13 +13318,13 @@
         <v>40</v>
       </c>
       <c r="E384" s="41" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="F384" s="2"/>
     </row>
     <row r="385" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A385" s="21" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B385" s="33" t="s">
         <v>67</v>
@@ -13304,13 +13336,13 @@
         <v>39</v>
       </c>
       <c r="E385" s="38" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="F385" s="2"/>
     </row>
     <row r="386" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A386" s="21" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B386" s="33" t="s">
         <v>68</v>
@@ -13322,13 +13354,13 @@
         <v>40</v>
       </c>
       <c r="E386" s="41" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="F386" s="2"/>
     </row>
     <row r="387" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A387" s="21" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B387" s="33" t="s">
         <v>20</v>
@@ -13340,13 +13372,13 @@
         <v>38</v>
       </c>
       <c r="E387" s="38" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="F387" s="2"/>
     </row>
     <row r="388" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A388" s="21" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B388" s="33" t="s">
         <v>21</v>
@@ -13358,13 +13390,13 @@
         <v>38</v>
       </c>
       <c r="E388" s="38" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="F388" s="2"/>
     </row>
     <row r="389" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A389" s="21" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B389" s="33" t="s">
         <v>22</v>
@@ -13376,13 +13408,13 @@
         <v>39</v>
       </c>
       <c r="E389" s="38" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="F389" s="2"/>
     </row>
     <row r="390" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A390" s="21" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B390" s="33" t="s">
         <v>31</v>
@@ -13394,13 +13426,13 @@
         <v>39</v>
       </c>
       <c r="E390" s="38" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="F390" s="2"/>
     </row>
     <row r="391" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A391" s="21" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B391" s="33" t="s">
         <v>69</v>
@@ -13412,13 +13444,13 @@
         <v>40</v>
       </c>
       <c r="E391" s="41" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="F391" s="2"/>
     </row>
     <row r="392" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A392" s="21" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B392" s="33" t="s">
         <v>23</v>
@@ -13430,13 +13462,13 @@
         <v>39</v>
       </c>
       <c r="E392" s="41" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="F392" s="2"/>
     </row>
     <row r="393" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A393" s="21" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B393" s="33" t="s">
         <v>105</v>
@@ -13448,13 +13480,13 @@
         <v>38</v>
       </c>
       <c r="E393" s="41" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="F393" s="2"/>
     </row>
     <row r="394" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A394" s="21" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B394" s="43" t="s">
         <v>24</v>
@@ -13466,13 +13498,13 @@
         <v>38</v>
       </c>
       <c r="E394" s="42" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="F394" s="1"/>
     </row>
     <row r="395" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A395" s="21" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B395" s="33" t="s">
         <v>25</v>
@@ -13484,13 +13516,13 @@
         <v>40</v>
       </c>
       <c r="E395" s="41" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F395" s="2"/>
     </row>
     <row r="396" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A396" s="21" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B396" s="33" t="s">
         <v>26</v>
@@ -13502,13 +13534,13 @@
         <v>38</v>
       </c>
       <c r="E396" s="41" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F396" s="2"/>
     </row>
     <row r="397" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A397" s="21" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B397" s="33" t="s">
         <v>71</v>
@@ -13520,13 +13552,13 @@
         <v>39</v>
       </c>
       <c r="E397" s="38" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="F397" s="2"/>
     </row>
     <row r="398" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A398" s="21" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B398" s="33" t="s">
         <v>27</v>
@@ -13538,13 +13570,13 @@
         <v>38</v>
       </c>
       <c r="E398" s="38" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F398" s="2"/>
     </row>
     <row r="399" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A399" s="21" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B399" s="33" t="s">
         <v>28</v>
@@ -13556,13 +13588,13 @@
         <v>38</v>
       </c>
       <c r="E399" s="38" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F399" s="2"/>
     </row>
     <row r="400" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A400" s="21" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B400" s="33" t="s">
         <v>29</v>
@@ -13574,13 +13606,13 @@
         <v>40</v>
       </c>
       <c r="E400" s="41" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F400" s="2"/>
     </row>
     <row r="401" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A401" s="21" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B401" s="33" t="s">
         <v>30</v>
@@ -13592,13 +13624,13 @@
         <v>38</v>
       </c>
       <c r="E401" s="38" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F401" s="2"/>
     </row>
     <row r="402" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A402" s="21" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B402" s="33" t="s">
         <v>50</v>
@@ -13610,13 +13642,13 @@
         <v>40</v>
       </c>
       <c r="E402" s="38" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="F402" s="2"/>
     </row>
     <row r="403" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A403" s="21" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B403" s="33" t="s">
         <v>6</v>
@@ -13628,13 +13660,13 @@
         <v>40</v>
       </c>
       <c r="E403" s="41" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="F403" s="2"/>
     </row>
     <row r="404" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A404" s="21" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B404" s="33" t="s">
         <v>51</v>
@@ -13646,13 +13678,13 @@
         <v>38</v>
       </c>
       <c r="E404" s="38" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F404" s="2"/>
     </row>
     <row r="405" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A405" s="21" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B405" s="33" t="s">
         <v>0</v>
@@ -13664,13 +13696,13 @@
         <v>38</v>
       </c>
       <c r="E405" s="38" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="F405" s="2"/>
     </row>
     <row r="406" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A406" s="21" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B406" s="33" t="s">
         <v>52</v>
@@ -13682,13 +13714,13 @@
         <v>38</v>
       </c>
       <c r="E406" s="38" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F406" s="2"/>
     </row>
     <row r="407" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A407" s="21" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B407" s="33" t="s">
         <v>53</v>
@@ -13700,13 +13732,13 @@
         <v>40</v>
       </c>
       <c r="E407" s="38" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F407" s="2"/>
     </row>
     <row r="408" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A408" s="21" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B408" s="33" t="s">
         <v>54</v>
@@ -13718,13 +13750,13 @@
         <v>38</v>
       </c>
       <c r="E408" s="38" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F408" s="2"/>
     </row>
     <row r="409" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A409" s="21" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B409" s="33" t="s">
         <v>7</v>
@@ -13736,13 +13768,13 @@
         <v>39</v>
       </c>
       <c r="E409" s="38" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F409" s="2"/>
     </row>
     <row r="410" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A410" s="21" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B410" s="33" t="s">
         <v>8</v>
@@ -13754,13 +13786,13 @@
         <v>38</v>
       </c>
       <c r="E410" s="38" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F410" s="2"/>
     </row>
     <row r="411" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A411" s="21" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B411" s="33" t="s">
         <v>9</v>
@@ -13772,13 +13804,13 @@
         <v>38</v>
       </c>
       <c r="E411" s="38" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F411" s="2"/>
     </row>
     <row r="412" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A412" s="21" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B412" s="33" t="s">
         <v>10</v>
@@ -13790,13 +13822,13 @@
         <v>38</v>
       </c>
       <c r="E412" s="38" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F412" s="2"/>
     </row>
     <row r="413" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A413" s="21" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B413" s="33" t="s">
         <v>55</v>
@@ -13808,13 +13840,13 @@
         <v>38</v>
       </c>
       <c r="E413" s="38" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F413" s="2"/>
     </row>
     <row r="414" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A414" s="21" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B414" s="33" t="s">
         <v>56</v>
@@ -13826,13 +13858,13 @@
         <v>38</v>
       </c>
       <c r="E414" s="38" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F414" s="2"/>
     </row>
     <row r="415" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A415" s="21" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B415" s="33" t="s">
         <v>11</v>
@@ -13844,13 +13876,13 @@
         <v>38</v>
       </c>
       <c r="E415" s="38" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F415" s="2"/>
     </row>
     <row r="416" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A416" s="21" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B416" s="33" t="s">
         <v>34</v>
@@ -13862,13 +13894,13 @@
         <v>39</v>
       </c>
       <c r="E416" s="38" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="F416" s="2"/>
     </row>
     <row r="417" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A417" s="21" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B417" s="33" t="s">
         <v>33</v>
@@ -13880,13 +13912,13 @@
         <v>38</v>
       </c>
       <c r="E417" s="38" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F417" s="2"/>
     </row>
     <row r="418" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A418" s="21" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B418" s="33" t="s">
         <v>58</v>
@@ -13898,13 +13930,13 @@
         <v>38</v>
       </c>
       <c r="E418" s="38" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F418" s="2"/>
     </row>
     <row r="419" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A419" s="21" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B419" s="33" t="s">
         <v>13</v>
@@ -13916,13 +13948,13 @@
         <v>38</v>
       </c>
       <c r="E419" s="38" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F419" s="2"/>
     </row>
     <row r="420" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A420" s="21" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B420" s="33" t="s">
         <v>12</v>
@@ -13934,13 +13966,13 @@
         <v>38</v>
       </c>
       <c r="E420" s="38" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="F420" s="2"/>
     </row>
     <row r="421" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A421" s="21" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B421" s="33" t="s">
         <v>14</v>
@@ -13952,13 +13984,13 @@
         <v>38</v>
       </c>
       <c r="E421" s="38" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F421" s="2"/>
     </row>
     <row r="422" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A422" s="21" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B422" s="33" t="s">
         <v>32</v>
@@ -13970,31 +14002,31 @@
         <v>38</v>
       </c>
       <c r="E422" s="38" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="F422" s="2"/>
     </row>
-    <row r="423" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A423" s="21" t="s">
-        <v>338</v>
+    <row r="423" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A423" s="32" t="s">
+        <v>331</v>
       </c>
       <c r="B423" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="C423" s="22">
+      <c r="C423" s="34">
         <v>2017</v>
       </c>
       <c r="D423" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="E423" s="38" t="s">
-        <v>225</v>
-      </c>
-      <c r="F423" s="2"/>
+      <c r="E423" s="42" t="s">
+        <v>422</v>
+      </c>
+      <c r="F423" s="45"/>
     </row>
     <row r="424" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A424" s="21" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B424" s="33" t="s">
         <v>60</v>
@@ -14006,13 +14038,13 @@
         <v>39</v>
       </c>
       <c r="E424" s="38" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F424" s="2"/>
     </row>
     <row r="425" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A425" s="21" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B425" s="33" t="s">
         <v>15</v>
@@ -14024,13 +14056,13 @@
         <v>38</v>
       </c>
       <c r="E425" s="38" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F425" s="2"/>
     </row>
     <row r="426" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A426" s="21" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B426" s="33" t="s">
         <v>61</v>
@@ -14042,13 +14074,13 @@
         <v>40</v>
       </c>
       <c r="E426" s="38" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="F426" s="2"/>
     </row>
     <row r="427" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A427" s="21" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B427" s="33" t="s">
         <v>16</v>
@@ -14060,13 +14092,13 @@
         <v>38</v>
       </c>
       <c r="E427" s="38" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="F427" s="2"/>
     </row>
     <row r="428" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A428" s="21" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B428" s="33" t="s">
         <v>17</v>
@@ -14078,13 +14110,13 @@
         <v>38</v>
       </c>
       <c r="E428" s="38" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F428" s="2"/>
     </row>
     <row r="429" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A429" s="21" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B429" s="33" t="s">
         <v>63</v>
@@ -14096,13 +14128,13 @@
         <v>39</v>
       </c>
       <c r="E429" s="38" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="F429" s="2"/>
     </row>
     <row r="430" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A430" s="21" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B430" s="33" t="s">
         <v>64</v>
@@ -14114,13 +14146,13 @@
         <v>40</v>
       </c>
       <c r="E430" s="38" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="F430" s="2"/>
     </row>
     <row r="431" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A431" s="21" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B431" s="33" t="s">
         <v>18</v>
@@ -14132,13 +14164,13 @@
         <v>39</v>
       </c>
       <c r="E431" s="38" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F431" s="2"/>
     </row>
     <row r="432" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A432" s="21" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B432" s="33" t="s">
         <v>65</v>
@@ -14150,13 +14182,13 @@
         <v>40</v>
       </c>
       <c r="E432" s="38" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="F432" s="2"/>
     </row>
     <row r="433" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A433" s="21" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B433" s="33" t="s">
         <v>19</v>
@@ -14168,13 +14200,13 @@
         <v>38</v>
       </c>
       <c r="E433" s="38" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="F433" s="2"/>
     </row>
     <row r="434" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A434" s="21" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B434" s="33" t="s">
         <v>66</v>
@@ -14186,13 +14218,13 @@
         <v>39</v>
       </c>
       <c r="E434" s="38" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="F434" s="2"/>
     </row>
     <row r="435" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A435" s="21" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B435" s="33" t="s">
         <v>67</v>
@@ -14204,13 +14236,13 @@
         <v>38</v>
       </c>
       <c r="E435" s="38" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="F435" s="2"/>
     </row>
     <row r="436" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A436" s="21" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B436" s="33" t="s">
         <v>68</v>
@@ -14222,13 +14254,13 @@
         <v>38</v>
       </c>
       <c r="E436" s="38" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="F436" s="2"/>
     </row>
     <row r="437" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A437" s="21" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B437" s="33" t="s">
         <v>20</v>
@@ -14240,13 +14272,13 @@
         <v>38</v>
       </c>
       <c r="E437" s="38" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F437" s="2"/>
     </row>
     <row r="438" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A438" s="21" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B438" s="33" t="s">
         <v>21</v>
@@ -14258,13 +14290,13 @@
         <v>38</v>
       </c>
       <c r="E438" s="38" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="F438" s="2"/>
     </row>
     <row r="439" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A439" s="21" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B439" s="33" t="s">
         <v>22</v>
@@ -14276,13 +14308,13 @@
         <v>38</v>
       </c>
       <c r="E439" s="38" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F439" s="2"/>
     </row>
     <row r="440" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A440" s="21" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B440" s="33" t="s">
         <v>31</v>
@@ -14294,13 +14326,13 @@
         <v>38</v>
       </c>
       <c r="E440" s="38" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="F440" s="2"/>
     </row>
     <row r="441" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A441" s="21" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B441" s="33" t="s">
         <v>69</v>
@@ -14312,13 +14344,13 @@
         <v>38</v>
       </c>
       <c r="E441" s="38" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="F441" s="2"/>
     </row>
     <row r="442" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A442" s="21" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B442" s="33" t="s">
         <v>23</v>
@@ -14330,13 +14362,13 @@
         <v>38</v>
       </c>
       <c r="E442" s="38" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="F442" s="2"/>
     </row>
     <row r="443" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A443" s="21" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B443" s="33" t="s">
         <v>105</v>
@@ -14348,13 +14380,13 @@
         <v>39</v>
       </c>
       <c r="E443" s="41" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F443" s="2"/>
     </row>
     <row r="444" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A444" s="21" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B444" s="43" t="s">
         <v>24</v>
@@ -14366,13 +14398,13 @@
         <v>38</v>
       </c>
       <c r="E444" s="42" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="F444" s="1"/>
     </row>
     <row r="445" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A445" s="21" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B445" s="33" t="s">
         <v>25</v>
@@ -14384,13 +14416,13 @@
         <v>38</v>
       </c>
       <c r="E445" s="38" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F445" s="2"/>
     </row>
     <row r="446" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A446" s="21" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B446" s="33" t="s">
         <v>26</v>
@@ -14402,13 +14434,13 @@
         <v>38</v>
       </c>
       <c r="E446" s="38" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="F446" s="2"/>
     </row>
     <row r="447" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A447" s="21" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B447" s="33" t="s">
         <v>71</v>
@@ -14420,13 +14452,13 @@
         <v>38</v>
       </c>
       <c r="E447" s="38" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F447" s="2"/>
     </row>
     <row r="448" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A448" s="21" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B448" s="33" t="s">
         <v>27</v>
@@ -14438,13 +14470,13 @@
         <v>38</v>
       </c>
       <c r="E448" s="38" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F448" s="2"/>
     </row>
     <row r="449" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A449" s="21" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B449" s="33" t="s">
         <v>28</v>
@@ -14456,13 +14488,13 @@
         <v>40</v>
       </c>
       <c r="E449" s="38" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="F449" s="2"/>
     </row>
     <row r="450" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A450" s="21" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B450" s="33" t="s">
         <v>29</v>
@@ -14474,13 +14506,13 @@
         <v>38</v>
       </c>
       <c r="E450" s="41" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F450" s="2"/>
     </row>
     <row r="451" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A451" s="21" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B451" s="33" t="s">
         <v>30</v>
@@ -14492,7 +14524,7 @@
         <v>39</v>
       </c>
       <c r="E451" s="41" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="F451" s="2"/>
     </row>
@@ -16565,6 +16597,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -16583,7 +16616,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.88671875" customWidth="1"/>
+    <col min="1" max="1" width="31.77734375" customWidth="1"/>
     <col min="3" max="3" width="39.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -16655,8 +16688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+    <sheetView topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -16824,7 +16857,7 @@
         <v>100</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -16835,10 +16868,10 @@
     </row>
     <row r="12" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -16849,42 +16882,42 @@
     </row>
     <row r="13" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
